--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_15_18.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_15_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-294905.9619556024</v>
+        <v>-296765.0172379618</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4728206.377206858</v>
+        <v>4728206.377206855</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>291.4955579803716</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>301.0107215343887</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>290.4208713840642</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>342.6138755050926</v>
+        <v>342.6138755050927</v>
       </c>
       <c r="G11" t="n">
         <v>348.305269075243</v>
       </c>
       <c r="H11" t="n">
-        <v>247.1997591548757</v>
+        <v>247.1997591548758</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.42729154253642</v>
+        <v>82.42729154253644</v>
       </c>
       <c r="T11" t="n">
-        <v>146.8599114426837</v>
+        <v>146.8599114426838</v>
       </c>
       <c r="U11" t="n">
-        <v>186.8646588149558</v>
+        <v>186.8646588149559</v>
       </c>
       <c r="V11" t="n">
-        <v>263.4900882335161</v>
+        <v>260.1065659223625</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>305.4689304418503</v>
       </c>
       <c r="Y11" t="n">
         <v>321.9757684194348</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>9.29161491040486</v>
+        <v>9.291614910404874</v>
       </c>
       <c r="S12" t="n">
         <v>144.499048576932</v>
@@ -1503,7 +1503,7 @@
         <v>194.2657420118874</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8450982939843</v>
+        <v>225.8450982939846</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>115.5698099453185</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>102.984650862009</v>
       </c>
       <c r="D13" t="n">
-        <v>84.35330278159354</v>
+        <v>84.35330278159357</v>
       </c>
       <c r="E13" t="n">
-        <v>82.17179240995036</v>
+        <v>82.17179240995038</v>
       </c>
       <c r="F13" t="n">
-        <v>81.15887778631243</v>
+        <v>81.15887778631246</v>
       </c>
       <c r="G13" t="n">
         <v>102.5018485138553</v>
       </c>
       <c r="H13" t="n">
-        <v>87.05620704710243</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>54.29025295233662</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>57.86261053062141</v>
+        <v>57.86261053062144</v>
       </c>
       <c r="S13" t="n">
         <v>138.3718506593841</v>
       </c>
       <c r="T13" t="n">
-        <v>158.4409511393645</v>
+        <v>158.4409511393646</v>
       </c>
       <c r="U13" t="n">
         <v>221.9899339958002</v>
@@ -1588,13 +1588,13 @@
         <v>187.8754730872092</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>222.2608280999722</v>
       </c>
       <c r="X13" t="n">
-        <v>54.11011989578645</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>154.322483115476</v>
+        <v>134.5075389513744</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>318.4716714268617</v>
+        <v>318.4716714268619</v>
       </c>
       <c r="C14" t="n">
-        <v>301.0107215343887</v>
+        <v>301.0107215343888</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>290.4208713840642</v>
       </c>
       <c r="E14" t="n">
-        <v>317.668199835643</v>
+        <v>152.531727205744</v>
       </c>
       <c r="F14" t="n">
-        <v>342.6138755050926</v>
+        <v>342.6138755050927</v>
       </c>
       <c r="G14" t="n">
-        <v>348.3052690752429</v>
+        <v>348.3052690752431</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>40.76113535209367</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.42729154253649</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>146.8599114426838</v>
       </c>
       <c r="U14" t="n">
-        <v>186.8646588149558</v>
+        <v>186.8646588149559</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>284.9787984807942</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>110.3539386106849</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.9757684194348</v>
+        <v>321.9757684194349</v>
       </c>
     </row>
     <row r="15">
@@ -1701,7 +1701,7 @@
         <v>135.8800036009593</v>
       </c>
       <c r="H15" t="n">
-        <v>98.10098430633158</v>
+        <v>98.10098430633197</v>
       </c>
       <c r="I15" t="n">
         <v>39.0081176598659</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>9.29161491040486</v>
+        <v>9.291614910404874</v>
       </c>
       <c r="S15" t="n">
         <v>144.499048576932</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>115.5698099453186</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>102.9846508620091</v>
       </c>
       <c r="D16" t="n">
-        <v>84.35330278159354</v>
+        <v>84.35330278159363</v>
       </c>
       <c r="E16" t="n">
-        <v>82.17179240995036</v>
+        <v>82.17179240995044</v>
       </c>
       <c r="F16" t="n">
-        <v>81.15887778631243</v>
+        <v>81.15887778631252</v>
       </c>
       <c r="G16" t="n">
-        <v>102.5018485138553</v>
+        <v>102.5018485138554</v>
       </c>
       <c r="H16" t="n">
-        <v>87.05620704710243</v>
+        <v>87.05620704710252</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>54.29025295233667</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>57.8626105306215</v>
       </c>
       <c r="S16" t="n">
-        <v>85.19072864072918</v>
+        <v>138.3718506593842</v>
       </c>
       <c r="T16" t="n">
-        <v>158.4409511393645</v>
+        <v>158.4409511393646</v>
       </c>
       <c r="U16" t="n">
-        <v>221.9899339958002</v>
+        <v>221.9899339958003</v>
       </c>
       <c r="V16" t="n">
-        <v>187.8754730872092</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>222.2608280999722</v>
+        <v>26.24785487823998</v>
       </c>
       <c r="X16" t="n">
-        <v>161.4474851524183</v>
+        <v>161.4474851524184</v>
       </c>
       <c r="Y16" t="n">
-        <v>154.322483115476</v>
+        <v>154.3224831154761</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>238.1073382465103</v>
       </c>
       <c r="C17" t="n">
-        <v>120.2341392901166</v>
+        <v>220.6463883540373</v>
       </c>
       <c r="D17" t="n">
         <v>210.0565382037127</v>
@@ -1853,13 +1853,13 @@
         <v>237.3038666552915</v>
       </c>
       <c r="F17" t="n">
-        <v>262.2495423247411</v>
+        <v>262.2495423247412</v>
       </c>
       <c r="G17" t="n">
         <v>267.9409358948915</v>
       </c>
       <c r="H17" t="n">
-        <v>166.8354259745243</v>
+        <v>166.8354259745244</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,19 +1892,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>2.062958362184943</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>66.49557826233226</v>
+        <v>66.49557826233229</v>
       </c>
       <c r="U17" t="n">
         <v>106.5003256346044</v>
       </c>
       <c r="V17" t="n">
-        <v>183.1257550531646</v>
+        <v>84.77646435142913</v>
       </c>
       <c r="W17" t="n">
-        <v>204.6144653004427</v>
+        <v>204.6144653004428</v>
       </c>
       <c r="X17" t="n">
         <v>225.1045972614988</v>
@@ -1926,7 +1926,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>147.4450655646386</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>9.29161491040486</v>
+        <v>9.291614910404874</v>
       </c>
       <c r="S18" t="n">
         <v>144.499048576932</v>
@@ -1999,31 +1999,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.3191272425539</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>22.62031768165758</v>
       </c>
       <c r="D19" t="n">
-        <v>3.988969601242076</v>
+        <v>3.988969601242104</v>
       </c>
       <c r="E19" t="n">
-        <v>1.807459229598891</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7945446059609651</v>
+        <v>0.7945446059609935</v>
       </c>
       <c r="G19" t="n">
-        <v>22.1375153335038</v>
+        <v>22.13751533350383</v>
       </c>
       <c r="H19" t="n">
-        <v>6.691873866750964</v>
+        <v>6.691873866750994</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>6.613065132156009</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>58.00751747903263</v>
+        <v>58.00751747903266</v>
       </c>
       <c r="T19" t="n">
-        <v>78.07661795901305</v>
+        <v>78.07661795901308</v>
       </c>
       <c r="U19" t="n">
         <v>141.6256008154487</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>174.2378555166001</v>
       </c>
       <c r="W19" t="n">
         <v>141.8964949196207</v>
       </c>
       <c r="X19" t="n">
-        <v>81.08315197206687</v>
+        <v>81.0831519720669</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.95814993512451</v>
+        <v>73.95814993512454</v>
       </c>
     </row>
     <row r="20">
@@ -2090,13 +2090,13 @@
         <v>237.3038666552915</v>
       </c>
       <c r="F20" t="n">
-        <v>262.2495423247411</v>
+        <v>262.2495423247412</v>
       </c>
       <c r="G20" t="n">
         <v>267.9409358948915</v>
       </c>
       <c r="H20" t="n">
-        <v>166.8354259745243</v>
+        <v>166.8354259745244</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>2.062958362184943</v>
+        <v>2.062958362184986</v>
       </c>
       <c r="T20" t="n">
-        <v>66.49557826233226</v>
+        <v>66.49557826233229</v>
       </c>
       <c r="U20" t="n">
         <v>106.5003256346044</v>
       </c>
       <c r="V20" t="n">
-        <v>183.1257550531646</v>
+        <v>183.1257550531647</v>
       </c>
       <c r="W20" t="n">
-        <v>204.6144653004427</v>
+        <v>104.2022162365221</v>
       </c>
       <c r="X20" t="n">
         <v>225.1045972614988</v>
       </c>
       <c r="Y20" t="n">
-        <v>141.1991861751615</v>
+        <v>241.6114352390833</v>
       </c>
     </row>
     <row r="21">
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>9.291614910404396</v>
+        <v>9.291614910404874</v>
       </c>
       <c r="S21" t="n">
         <v>144.499048576932</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>35.20547676496705</v>
       </c>
       <c r="C22" t="n">
-        <v>22.62031768165755</v>
+        <v>22.62031768165758</v>
       </c>
       <c r="D22" t="n">
-        <v>3.988969601242076</v>
+        <v>3.988969601242104</v>
       </c>
       <c r="E22" t="n">
-        <v>1.807459229598891</v>
+        <v>1.807459229598919</v>
       </c>
       <c r="F22" t="n">
-        <v>0.7945446059609651</v>
+        <v>0.7945446059609935</v>
       </c>
       <c r="G22" t="n">
-        <v>22.1375153335038</v>
+        <v>22.13751533350383</v>
       </c>
       <c r="H22" t="n">
-        <v>6.691873866750964</v>
+        <v>151.3183772837212</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>58.00751747903263</v>
+        <v>58.00751747903266</v>
       </c>
       <c r="T22" t="n">
-        <v>78.07661795901305</v>
+        <v>222.7031213759833</v>
       </c>
       <c r="U22" t="n">
-        <v>141.6256008154487</v>
+        <v>208.352316425191</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>107.5111399068577</v>
       </c>
       <c r="W22" t="n">
         <v>141.8964949196207</v>
       </c>
       <c r="X22" t="n">
-        <v>147.8098675818097</v>
+        <v>81.0831519720669</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.95814993512451</v>
+        <v>73.95814993512454</v>
       </c>
     </row>
     <row r="23">
@@ -2327,7 +2327,7 @@
         <v>237.3038666552915</v>
       </c>
       <c r="F23" t="n">
-        <v>262.2495423247411</v>
+        <v>262.2495423247412</v>
       </c>
       <c r="G23" t="n">
         <v>267.9409358948915</v>
@@ -2366,19 +2366,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>2.062958362184943</v>
+        <v>2.062958362184986</v>
       </c>
       <c r="T23" t="n">
-        <v>66.49557826233226</v>
+        <v>66.49557826233229</v>
       </c>
       <c r="U23" t="n">
         <v>106.5003256346044</v>
       </c>
       <c r="V23" t="n">
-        <v>183.1257550531646</v>
+        <v>183.1257550531647</v>
       </c>
       <c r="W23" t="n">
-        <v>204.6144653004427</v>
+        <v>204.6144653004428</v>
       </c>
       <c r="X23" t="n">
         <v>225.1045972614988</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>9.29161491040486</v>
+        <v>9.291614910404874</v>
       </c>
       <c r="S24" t="n">
         <v>144.499048576932</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>35.20547676496702</v>
+        <v>35.20547676496705</v>
       </c>
       <c r="C25" t="n">
-        <v>22.62031768165755</v>
+        <v>22.62031768165758</v>
       </c>
       <c r="D25" t="n">
-        <v>3.988969601242076</v>
+        <v>3.988969601242104</v>
       </c>
       <c r="E25" t="n">
-        <v>1.807459229598891</v>
+        <v>1.807459229598919</v>
       </c>
       <c r="F25" t="n">
-        <v>0.7945446059609651</v>
+        <v>0.7945446059609935</v>
       </c>
       <c r="G25" t="n">
         <v>166.7640187504741</v>
       </c>
       <c r="H25" t="n">
-        <v>6.691873866750964</v>
+        <v>6.691873866750994</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>58.00751747903263</v>
+        <v>124.7342330887749</v>
       </c>
       <c r="T25" t="n">
-        <v>78.07661795901305</v>
+        <v>222.7031213759833</v>
       </c>
       <c r="U25" t="n">
-        <v>286.252104232419</v>
+        <v>141.6256008154487</v>
       </c>
       <c r="V25" t="n">
-        <v>174.2378555166004</v>
+        <v>107.5111399068577</v>
       </c>
       <c r="W25" t="n">
         <v>141.8964949196207</v>
       </c>
       <c r="X25" t="n">
-        <v>81.08315197206687</v>
+        <v>81.0831519720669</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.95814993512451</v>
+        <v>73.95814993512454</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>302.3695084831291</v>
+        <v>302.3695084831292</v>
       </c>
       <c r="C26" t="n">
         <v>284.9085585906561</v>
@@ -2561,19 +2561,19 @@
         <v>274.3187084403315</v>
       </c>
       <c r="E26" t="n">
-        <v>301.5660368919103</v>
+        <v>301.5660368919104</v>
       </c>
       <c r="F26" t="n">
         <v>326.51171256136</v>
       </c>
       <c r="G26" t="n">
-        <v>332.2031061315103</v>
+        <v>332.2031061315104</v>
       </c>
       <c r="H26" t="n">
-        <v>231.0975962111431</v>
+        <v>231.0975962111432</v>
       </c>
       <c r="I26" t="n">
-        <v>24.65897240836092</v>
+        <v>24.65897240836097</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>66.32512859880379</v>
+        <v>66.32512859880381</v>
       </c>
       <c r="T26" t="n">
         <v>130.7577484989511</v>
@@ -2612,16 +2612,16 @@
         <v>170.7624958712232</v>
       </c>
       <c r="V26" t="n">
-        <v>247.3879252897834</v>
+        <v>247.3879252897835</v>
       </c>
       <c r="W26" t="n">
-        <v>268.8766355370615</v>
+        <v>268.8766355370616</v>
       </c>
       <c r="X26" t="n">
         <v>289.3667674981176</v>
       </c>
       <c r="Y26" t="n">
-        <v>305.8736054757021</v>
+        <v>305.8736054757022</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>99.46764700158583</v>
+        <v>99.46764700158587</v>
       </c>
       <c r="C28" t="n">
-        <v>86.88248791827637</v>
+        <v>86.88248791827641</v>
       </c>
       <c r="D28" t="n">
-        <v>68.25113983786089</v>
+        <v>68.25113983786093</v>
       </c>
       <c r="E28" t="n">
-        <v>66.06962946621771</v>
+        <v>66.06962946621775</v>
       </c>
       <c r="F28" t="n">
-        <v>65.05671484257978</v>
+        <v>65.05671484257982</v>
       </c>
       <c r="G28" t="n">
-        <v>86.39968557012263</v>
+        <v>86.39968557012267</v>
       </c>
       <c r="H28" t="n">
-        <v>70.95404410336978</v>
+        <v>70.95404410336982</v>
       </c>
       <c r="I28" t="n">
-        <v>38.18809000860394</v>
+        <v>38.18809000860398</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.76044758688877</v>
+        <v>41.7604475868888</v>
       </c>
       <c r="S28" t="n">
-        <v>122.2696877156514</v>
+        <v>122.2696877156515</v>
       </c>
       <c r="T28" t="n">
-        <v>142.3387881956318</v>
+        <v>142.3387881956319</v>
       </c>
       <c r="U28" t="n">
-        <v>205.8877710520675</v>
+        <v>205.8877710520676</v>
       </c>
       <c r="V28" t="n">
-        <v>171.7733101434765</v>
+        <v>171.7733101434766</v>
       </c>
       <c r="W28" t="n">
-        <v>206.1586651562395</v>
+        <v>206.1586651562396</v>
       </c>
       <c r="X28" t="n">
         <v>145.3453222086857</v>
       </c>
       <c r="Y28" t="n">
-        <v>138.2203201717433</v>
+        <v>138.2203201717434</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>302.3695084831292</v>
+        <v>302.3695084831291</v>
       </c>
       <c r="C29" t="n">
         <v>284.9085585906561</v>
@@ -2798,19 +2798,19 @@
         <v>274.3187084403315</v>
       </c>
       <c r="E29" t="n">
-        <v>301.5660368919104</v>
+        <v>301.5660368919103</v>
       </c>
       <c r="F29" t="n">
         <v>326.51171256136</v>
       </c>
       <c r="G29" t="n">
-        <v>332.2031061315104</v>
+        <v>332.2031061315103</v>
       </c>
       <c r="H29" t="n">
-        <v>231.0975962111432</v>
+        <v>231.0975962111431</v>
       </c>
       <c r="I29" t="n">
-        <v>24.65897240836094</v>
+        <v>24.65897240836092</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2849,16 +2849,16 @@
         <v>170.7624958712232</v>
       </c>
       <c r="V29" t="n">
-        <v>247.3879252897835</v>
+        <v>247.3879252897834</v>
       </c>
       <c r="W29" t="n">
-        <v>268.8766355370616</v>
+        <v>268.8766355370615</v>
       </c>
       <c r="X29" t="n">
         <v>289.3667674981176</v>
       </c>
       <c r="Y29" t="n">
-        <v>305.8736054757022</v>
+        <v>305.8736054757021</v>
       </c>
     </row>
     <row r="30">
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>9.29161491040486</v>
+        <v>9.291614910404874</v>
       </c>
       <c r="S30" t="n">
         <v>144.499048576932</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>99.46764700158586</v>
+        <v>99.46764700158583</v>
       </c>
       <c r="C31" t="n">
-        <v>86.8824879182764</v>
+        <v>86.88248791827637</v>
       </c>
       <c r="D31" t="n">
-        <v>68.25113983786092</v>
+        <v>68.25113983786089</v>
       </c>
       <c r="E31" t="n">
-        <v>66.06962946621773</v>
+        <v>66.06962946621771</v>
       </c>
       <c r="F31" t="n">
-        <v>65.05671484257981</v>
+        <v>65.05671484257978</v>
       </c>
       <c r="G31" t="n">
-        <v>86.39968557012266</v>
+        <v>86.39968557012263</v>
       </c>
       <c r="H31" t="n">
-        <v>70.95404410336981</v>
+        <v>70.95404410336978</v>
       </c>
       <c r="I31" t="n">
-        <v>38.18809000860396</v>
+        <v>38.18809000860529</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.76044758688879</v>
+        <v>41.76044758688876</v>
       </c>
       <c r="S31" t="n">
-        <v>122.2696877156515</v>
+        <v>122.2696877156514</v>
       </c>
       <c r="T31" t="n">
         <v>142.3387881956319</v>
       </c>
       <c r="U31" t="n">
-        <v>205.8877710520676</v>
+        <v>205.8877710520675</v>
       </c>
       <c r="V31" t="n">
-        <v>171.7733101434773</v>
+        <v>171.7733101434765</v>
       </c>
       <c r="W31" t="n">
-        <v>206.1586651562396</v>
+        <v>206.1586651562395</v>
       </c>
       <c r="X31" t="n">
         <v>145.3453222086857</v>
       </c>
       <c r="Y31" t="n">
-        <v>138.2203201717434</v>
+        <v>138.2203201717433</v>
       </c>
     </row>
     <row r="32">
@@ -3044,10 +3044,10 @@
         <v>332.2031061315104</v>
       </c>
       <c r="H32" t="n">
-        <v>231.0975962111431</v>
+        <v>231.0975962111432</v>
       </c>
       <c r="I32" t="n">
-        <v>24.65897240836092</v>
+        <v>24.65897240836098</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>66.32512859880379</v>
+        <v>66.32512859880383</v>
       </c>
       <c r="T32" t="n">
         <v>130.7577484989511</v>
@@ -3095,7 +3095,7 @@
         <v>289.3667674981176</v>
       </c>
       <c r="Y32" t="n">
-        <v>305.8736054757021</v>
+        <v>305.8736054757022</v>
       </c>
     </row>
     <row r="33">
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>9.29161491040486</v>
+        <v>9.291614910404874</v>
       </c>
       <c r="S33" t="n">
         <v>144.499048576932</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>99.46764700158585</v>
+        <v>99.46764700158589</v>
       </c>
       <c r="C34" t="n">
-        <v>86.88248791827638</v>
+        <v>86.88248791827642</v>
       </c>
       <c r="D34" t="n">
-        <v>68.2511398378609</v>
+        <v>68.25113983786095</v>
       </c>
       <c r="E34" t="n">
-        <v>66.06962946621772</v>
+        <v>66.06962946621776</v>
       </c>
       <c r="F34" t="n">
-        <v>65.05671484257979</v>
+        <v>65.05671484257984</v>
       </c>
       <c r="G34" t="n">
-        <v>86.39968557012264</v>
+        <v>86.39968557012268</v>
       </c>
       <c r="H34" t="n">
-        <v>70.9540441033698</v>
+        <v>70.95404410336984</v>
       </c>
       <c r="I34" t="n">
-        <v>38.18809000860395</v>
+        <v>38.18809000860399</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.76044758688877</v>
+        <v>41.76044758688882</v>
       </c>
       <c r="S34" t="n">
         <v>122.2696877156515</v>
@@ -3253,7 +3253,7 @@
         <v>145.3453222086857</v>
       </c>
       <c r="Y34" t="n">
-        <v>138.2203201717433</v>
+        <v>138.2203201717434</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>302.3695084831292</v>
+        <v>302.3695084831291</v>
       </c>
       <c r="C35" t="n">
         <v>284.9085585906561</v>
@@ -3272,7 +3272,7 @@
         <v>274.3187084403315</v>
       </c>
       <c r="E35" t="n">
-        <v>301.5660368919104</v>
+        <v>301.5660368919103</v>
       </c>
       <c r="F35" t="n">
         <v>326.51171256136</v>
@@ -3281,10 +3281,10 @@
         <v>332.2031061315103</v>
       </c>
       <c r="H35" t="n">
-        <v>231.0975962111432</v>
+        <v>231.0975962111431</v>
       </c>
       <c r="I35" t="n">
-        <v>24.65897240836091</v>
+        <v>24.65897240836092</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>66.32512859880376</v>
+        <v>66.32512859880377</v>
       </c>
       <c r="T35" t="n">
         <v>130.7577484989511</v>
@@ -3323,16 +3323,16 @@
         <v>170.7624958712232</v>
       </c>
       <c r="V35" t="n">
-        <v>247.3879252897835</v>
+        <v>247.3879252897834</v>
       </c>
       <c r="W35" t="n">
-        <v>268.8766355370616</v>
+        <v>268.8766355370615</v>
       </c>
       <c r="X35" t="n">
         <v>289.3667674981176</v>
       </c>
       <c r="Y35" t="n">
-        <v>305.8736054757022</v>
+        <v>305.8736054757021</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3363,7 @@
         <v>98.10098430633197</v>
       </c>
       <c r="I36" t="n">
-        <v>39.00811765986588</v>
+        <v>39.0081176598659</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>9.291614910404846</v>
+        <v>9.291614910404874</v>
       </c>
       <c r="S36" t="n">
         <v>144.499048576932</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>99.46764700158586</v>
+        <v>99.46764700158583</v>
       </c>
       <c r="C37" t="n">
-        <v>86.8824879182764</v>
+        <v>86.88248791827637</v>
       </c>
       <c r="D37" t="n">
-        <v>68.25113983786092</v>
+        <v>68.25113983786089</v>
       </c>
       <c r="E37" t="n">
-        <v>66.06962946621773</v>
+        <v>66.06962946621771</v>
       </c>
       <c r="F37" t="n">
-        <v>65.05671484257981</v>
+        <v>65.05671484257978</v>
       </c>
       <c r="G37" t="n">
-        <v>86.39968557012264</v>
+        <v>86.39968557012261</v>
       </c>
       <c r="H37" t="n">
-        <v>70.95404410336981</v>
+        <v>70.95404410336978</v>
       </c>
       <c r="I37" t="n">
-        <v>38.18809000860395</v>
+        <v>38.18809000860394</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>41.76044758688877</v>
       </c>
       <c r="S37" t="n">
-        <v>122.2696877156515</v>
+        <v>122.2696877156514</v>
       </c>
       <c r="T37" t="n">
-        <v>142.3387881956319</v>
+        <v>142.3387881956318</v>
       </c>
       <c r="U37" t="n">
-        <v>205.8877710520676</v>
+        <v>205.8877710520675</v>
       </c>
       <c r="V37" t="n">
-        <v>171.7733101434766</v>
+        <v>171.7733101434765</v>
       </c>
       <c r="W37" t="n">
-        <v>206.1586651562396</v>
+        <v>206.1586651562395</v>
       </c>
       <c r="X37" t="n">
         <v>145.3453222086857</v>
       </c>
       <c r="Y37" t="n">
-        <v>138.2203201717434</v>
+        <v>138.2203201717433</v>
       </c>
     </row>
     <row r="38">
@@ -3515,13 +3515,13 @@
         <v>326.51171256136</v>
       </c>
       <c r="G38" t="n">
-        <v>332.2031061315103</v>
+        <v>332.2031061315104</v>
       </c>
       <c r="H38" t="n">
         <v>231.0975962111432</v>
       </c>
       <c r="I38" t="n">
-        <v>24.65897240836091</v>
+        <v>24.65897240836098</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.32512859880376</v>
+        <v>66.32512859880384</v>
       </c>
       <c r="T38" t="n">
         <v>130.7577484989511</v>
@@ -3600,7 +3600,7 @@
         <v>98.10098430633197</v>
       </c>
       <c r="I39" t="n">
-        <v>39.00811765986588</v>
+        <v>39.0081176598659</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>9.291614910404846</v>
+        <v>9.291614910404874</v>
       </c>
       <c r="S39" t="n">
         <v>144.499048576932</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>99.46764700158586</v>
+        <v>99.46764700158589</v>
       </c>
       <c r="C40" t="n">
-        <v>86.8824879182764</v>
+        <v>86.88248791827642</v>
       </c>
       <c r="D40" t="n">
-        <v>68.25113983786092</v>
+        <v>68.25113983786095</v>
       </c>
       <c r="E40" t="n">
-        <v>66.06962946621773</v>
+        <v>66.06962946621776</v>
       </c>
       <c r="F40" t="n">
-        <v>65.05671484257981</v>
+        <v>65.05671484257984</v>
       </c>
       <c r="G40" t="n">
-        <v>86.39968557012264</v>
+        <v>86.39968557012267</v>
       </c>
       <c r="H40" t="n">
-        <v>70.95404410336981</v>
+        <v>70.95404410336984</v>
       </c>
       <c r="I40" t="n">
-        <v>38.18809000860395</v>
+        <v>38.18809000860399</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.76044758688877</v>
+        <v>41.76044758688882</v>
       </c>
       <c r="S40" t="n">
         <v>122.2696877156515</v>
@@ -3758,7 +3758,7 @@
         <v>231.0975962111431</v>
       </c>
       <c r="I41" t="n">
-        <v>24.65897240836085</v>
+        <v>24.65897240836092</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.3251285988037</v>
+        <v>66.32512859880379</v>
       </c>
       <c r="T41" t="n">
         <v>130.7577484989511</v>
@@ -3837,7 +3837,7 @@
         <v>98.10098430633197</v>
       </c>
       <c r="I42" t="n">
-        <v>39.00811765986588</v>
+        <v>39.0081176598659</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>9.291614910404846</v>
+        <v>9.291614910404874</v>
       </c>
       <c r="S42" t="n">
         <v>144.499048576932</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>99.4676470015858</v>
+        <v>99.46764700158583</v>
       </c>
       <c r="C43" t="n">
-        <v>86.88248791827634</v>
+        <v>86.88248791827637</v>
       </c>
       <c r="D43" t="n">
-        <v>68.25113983786086</v>
+        <v>68.25113983786089</v>
       </c>
       <c r="E43" t="n">
-        <v>66.06962946621768</v>
+        <v>66.06962946621771</v>
       </c>
       <c r="F43" t="n">
-        <v>65.05671484257975</v>
+        <v>65.05671484257978</v>
       </c>
       <c r="G43" t="n">
-        <v>86.39968557012259</v>
+        <v>86.39968557012261</v>
       </c>
       <c r="H43" t="n">
-        <v>70.95404410336975</v>
+        <v>70.95404410336978</v>
       </c>
       <c r="I43" t="n">
-        <v>38.18809000860389</v>
+        <v>38.18809000860394</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.76044758688872</v>
+        <v>41.76044758688877</v>
       </c>
       <c r="S43" t="n">
         <v>122.2696877156514</v>
@@ -3995,7 +3995,7 @@
         <v>231.0975962111431</v>
       </c>
       <c r="I44" t="n">
-        <v>24.65897240836085</v>
+        <v>24.65897240836094</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.32512859880372</v>
+        <v>66.32512859880379</v>
       </c>
       <c r="T44" t="n">
         <v>130.7577484989511</v>
@@ -4074,7 +4074,7 @@
         <v>98.10098430633197</v>
       </c>
       <c r="I45" t="n">
-        <v>39.00811765986588</v>
+        <v>39.00811765986592</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>9.291614910404846</v>
+        <v>9.291614910404903</v>
       </c>
       <c r="S45" t="n">
         <v>144.499048576932</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>99.4676470015858</v>
+        <v>99.46764700158582</v>
       </c>
       <c r="C46" t="n">
-        <v>86.88248791827634</v>
+        <v>86.88248791827635</v>
       </c>
       <c r="D46" t="n">
-        <v>68.25113983786086</v>
+        <v>68.25113983786088</v>
       </c>
       <c r="E46" t="n">
-        <v>66.06962946621768</v>
+        <v>66.06962946621769</v>
       </c>
       <c r="F46" t="n">
-        <v>65.05671484257975</v>
+        <v>65.05671484257977</v>
       </c>
       <c r="G46" t="n">
-        <v>86.39968557012259</v>
+        <v>86.39968557012261</v>
       </c>
       <c r="H46" t="n">
-        <v>70.95404410336975</v>
+        <v>70.95404410336977</v>
       </c>
       <c r="I46" t="n">
-        <v>38.18809000860389</v>
+        <v>38.18809000860393</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.76044758688872</v>
+        <v>41.76044758688877</v>
       </c>
       <c r="S46" t="n">
         <v>122.2696877156514</v>
@@ -5015,52 +5015,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1303.84651700502</v>
+        <v>1293.149698671359</v>
       </c>
       <c r="C11" t="n">
-        <v>999.7952831318997</v>
+        <v>1293.149698671359</v>
       </c>
       <c r="D11" t="n">
-        <v>999.7952831318997</v>
+        <v>999.7952831318999</v>
       </c>
       <c r="E11" t="n">
-        <v>999.7952831318997</v>
+        <v>999.7952831318999</v>
       </c>
       <c r="F11" t="n">
-        <v>653.720661409584</v>
+        <v>653.7206614095841</v>
       </c>
       <c r="G11" t="n">
         <v>301.897157293177</v>
       </c>
       <c r="H11" t="n">
-        <v>52.20043087411047</v>
+        <v>52.20043087411048</v>
       </c>
       <c r="I11" t="n">
-        <v>52.20043087411047</v>
+        <v>52.20043087411048</v>
       </c>
       <c r="J11" t="n">
-        <v>270.2041001343098</v>
+        <v>102.7984511139568</v>
       </c>
       <c r="K11" t="n">
-        <v>396.7759345361576</v>
+        <v>229.3702855158045</v>
       </c>
       <c r="L11" t="n">
-        <v>590.7012492167896</v>
+        <v>836.7802026013824</v>
       </c>
       <c r="M11" t="n">
-        <v>952.2448079827558</v>
+        <v>1482.7605346685</v>
       </c>
       <c r="N11" t="n">
-        <v>1598.225140049873</v>
+        <v>2128.740866735617</v>
       </c>
       <c r="O11" t="n">
-        <v>1826.686216137698</v>
+        <v>2357.201942823442</v>
       </c>
       <c r="P11" t="n">
-        <v>2305.752179175668</v>
+        <v>2537.676557170988</v>
       </c>
       <c r="Q11" t="n">
-        <v>2588.289006463509</v>
+        <v>2610.021543705524</v>
       </c>
       <c r="R11" t="n">
         <v>2610.021543705524</v>
@@ -5075,16 +5075,16 @@
         <v>2189.66612774575</v>
       </c>
       <c r="V11" t="n">
-        <v>1923.514523469471</v>
+        <v>1926.932222773667</v>
       </c>
       <c r="W11" t="n">
-        <v>1923.514523469471</v>
+        <v>1926.932222773667</v>
       </c>
       <c r="X11" t="n">
-        <v>1923.514523469471</v>
+        <v>1618.377747579879</v>
       </c>
       <c r="Y11" t="n">
-        <v>1598.286474560951</v>
+        <v>1293.149698671359</v>
       </c>
     </row>
     <row r="12">
@@ -5094,49 +5094,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>957.1064540750159</v>
+        <v>957.1064540750158</v>
       </c>
       <c r="C12" t="n">
-        <v>782.6534247938889</v>
+        <v>782.6534247938888</v>
       </c>
       <c r="D12" t="n">
         <v>633.7190151326377</v>
       </c>
       <c r="E12" t="n">
-        <v>474.4815601271822</v>
+        <v>474.4815601271821</v>
       </c>
       <c r="F12" t="n">
-        <v>327.9470021540672</v>
+        <v>327.9470021540671</v>
       </c>
       <c r="G12" t="n">
-        <v>190.6944732642093</v>
+        <v>190.6944732642096</v>
       </c>
       <c r="H12" t="n">
-        <v>91.60256992448006</v>
+        <v>91.60256992448008</v>
       </c>
       <c r="I12" t="n">
-        <v>52.20043087411047</v>
+        <v>52.20043087411048</v>
       </c>
       <c r="J12" t="n">
-        <v>63.51841814083013</v>
+        <v>188.3485431278349</v>
       </c>
       <c r="K12" t="n">
-        <v>285.129863392082</v>
+        <v>547.6681954365249</v>
       </c>
       <c r="L12" t="n">
-        <v>829.6838750071911</v>
+        <v>1092.222207051634</v>
       </c>
       <c r="M12" t="n">
-        <v>1056.083930136449</v>
+        <v>1318.622262180892</v>
       </c>
       <c r="N12" t="n">
-        <v>1302.884765966336</v>
+        <v>1565.423098010779</v>
       </c>
       <c r="O12" t="n">
         <v>1896.363215178962</v>
       </c>
       <c r="P12" t="n">
-        <v>2355.678924979009</v>
+        <v>2355.67892497901</v>
       </c>
       <c r="Q12" t="n">
         <v>2610.021543705524</v>
@@ -5148,7 +5148,7 @@
         <v>2454.67743917286</v>
       </c>
       <c r="T12" t="n">
-        <v>2258.44941693863</v>
+        <v>2258.449416938631</v>
       </c>
       <c r="U12" t="n">
         <v>2030.323055025515</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>597.8839454203967</v>
+        <v>564.7870220923503</v>
       </c>
       <c r="C13" t="n">
-        <v>493.8590455597814</v>
+        <v>460.7621222317351</v>
       </c>
       <c r="D13" t="n">
-        <v>408.6536892147374</v>
+        <v>375.556765886691</v>
       </c>
       <c r="E13" t="n">
-        <v>325.651878699636</v>
+        <v>292.5549553715896</v>
       </c>
       <c r="F13" t="n">
-        <v>243.6732142690174</v>
+        <v>210.576290940971</v>
       </c>
       <c r="G13" t="n">
-        <v>140.1359935479513</v>
+        <v>107.039070219905</v>
       </c>
       <c r="H13" t="n">
-        <v>52.20043087411047</v>
+        <v>107.039070219905</v>
       </c>
       <c r="I13" t="n">
-        <v>52.20043087411047</v>
+        <v>52.20043087411048</v>
       </c>
       <c r="J13" t="n">
-        <v>109.2730449275285</v>
+        <v>109.2730449275286</v>
       </c>
       <c r="K13" t="n">
-        <v>291.9708056845548</v>
+        <v>291.9708056845549</v>
       </c>
       <c r="L13" t="n">
         <v>563.4959032733534</v>
       </c>
       <c r="M13" t="n">
-        <v>856.7118258711466</v>
+        <v>856.7118258711464</v>
       </c>
       <c r="N13" t="n">
         <v>1149.90307628869</v>
@@ -5230,19 +5230,19 @@
         <v>1339.164571723013</v>
       </c>
       <c r="U13" t="n">
-        <v>1114.932315161599</v>
+        <v>1114.932315161598</v>
       </c>
       <c r="V13" t="n">
-        <v>925.1591100230037</v>
+        <v>925.1591100230032</v>
       </c>
       <c r="W13" t="n">
-        <v>925.1591100230037</v>
+        <v>700.6532230533346</v>
       </c>
       <c r="X13" t="n">
-        <v>870.502423259583</v>
+        <v>700.6532230533346</v>
       </c>
       <c r="Y13" t="n">
-        <v>714.6211271833447</v>
+        <v>564.7870220923503</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1375.026760116906</v>
+        <v>1542.7495218404</v>
       </c>
       <c r="C14" t="n">
-        <v>1070.975526243786</v>
+        <v>1238.69828796728</v>
       </c>
       <c r="D14" t="n">
-        <v>1070.975526243786</v>
+        <v>945.3438724278211</v>
       </c>
       <c r="E14" t="n">
-        <v>750.0985567128332</v>
+        <v>791.2714207048474</v>
       </c>
       <c r="F14" t="n">
-        <v>404.0239349905174</v>
+        <v>445.1967989825315</v>
       </c>
       <c r="G14" t="n">
-        <v>52.20043087411047</v>
+        <v>93.3732948661243</v>
       </c>
       <c r="H14" t="n">
-        <v>52.20043087411047</v>
+        <v>93.3732948661243</v>
       </c>
       <c r="I14" t="n">
-        <v>52.20043087411047</v>
+        <v>52.20043087411048</v>
       </c>
       <c r="J14" t="n">
         <v>270.2041001343098</v>
@@ -5282,16 +5282,16 @@
         <v>717.6798929816107</v>
       </c>
       <c r="L14" t="n">
-        <v>911.6052076622426</v>
+        <v>911.6052076622425</v>
       </c>
       <c r="M14" t="n">
-        <v>1159.053923096399</v>
+        <v>1159.053923096398</v>
       </c>
       <c r="N14" t="n">
         <v>1415.120425824779</v>
       </c>
       <c r="O14" t="n">
-        <v>1848.418753379712</v>
+        <v>1848.418753379713</v>
       </c>
       <c r="P14" t="n">
         <v>2327.484716417682</v>
@@ -5303,25 +5303,25 @@
         <v>2610.021543705524</v>
       </c>
       <c r="S14" t="n">
-        <v>2610.021543705524</v>
+        <v>2526.761653258518</v>
       </c>
       <c r="T14" t="n">
-        <v>2610.021543705524</v>
+        <v>2378.418308366918</v>
       </c>
       <c r="U14" t="n">
-        <v>2421.269363084356</v>
+        <v>2189.66612774575</v>
       </c>
       <c r="V14" t="n">
-        <v>2421.269363084356</v>
+        <v>2189.66612774575</v>
       </c>
       <c r="W14" t="n">
-        <v>2133.411990881534</v>
+        <v>2189.66612774575</v>
       </c>
       <c r="X14" t="n">
-        <v>2021.943366022256</v>
+        <v>2189.66612774575</v>
       </c>
       <c r="Y14" t="n">
-        <v>1696.715317113736</v>
+        <v>1864.43807883723</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5331,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>957.1064540750156</v>
+        <v>957.1064540750161</v>
       </c>
       <c r="C15" t="n">
-        <v>782.6534247938886</v>
+        <v>782.6534247938891</v>
       </c>
       <c r="D15" t="n">
-        <v>633.7190151326373</v>
+        <v>633.7190151326379</v>
       </c>
       <c r="E15" t="n">
-        <v>474.4815601271818</v>
+        <v>474.4815601271823</v>
       </c>
       <c r="F15" t="n">
-        <v>327.9470021540668</v>
+        <v>327.9470021540673</v>
       </c>
       <c r="G15" t="n">
-        <v>190.6944732642089</v>
+        <v>190.6944732642094</v>
       </c>
       <c r="H15" t="n">
-        <v>91.60256992448006</v>
+        <v>91.60256992448008</v>
       </c>
       <c r="I15" t="n">
-        <v>52.20043087411047</v>
+        <v>52.20043087411048</v>
       </c>
       <c r="J15" t="n">
         <v>188.3485431278349</v>
@@ -5361,19 +5361,19 @@
         <v>547.6681954365249</v>
       </c>
       <c r="L15" t="n">
-        <v>1092.222207051634</v>
+        <v>1037.660389865683</v>
       </c>
       <c r="M15" t="n">
-        <v>1446.007626220411</v>
+        <v>1264.06044499494</v>
       </c>
       <c r="N15" t="n">
-        <v>1692.808462050298</v>
+        <v>1510.861280824827</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.363215178962</v>
+        <v>2104.339730037453</v>
       </c>
       <c r="P15" t="n">
-        <v>2355.678924979009</v>
+        <v>2563.655439837501</v>
       </c>
       <c r="Q15" t="n">
         <v>2610.021543705524</v>
@@ -5385,7 +5385,7 @@
         <v>2454.67743917286</v>
       </c>
       <c r="T15" t="n">
-        <v>2258.44941693863</v>
+        <v>2258.449416938631</v>
       </c>
       <c r="U15" t="n">
         <v>2030.323055025515</v>
@@ -5394,7 +5394,7 @@
         <v>1795.170946793772</v>
       </c>
       <c r="W15" t="n">
-        <v>1540.93359006557</v>
+        <v>1540.933590065571</v>
       </c>
       <c r="X15" t="n">
         <v>1333.082089860038</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>493.8590455597814</v>
+        <v>652.7225847661915</v>
       </c>
       <c r="C16" t="n">
-        <v>493.8590455597814</v>
+        <v>548.6976849055762</v>
       </c>
       <c r="D16" t="n">
-        <v>408.6536892147373</v>
+        <v>463.4923285605322</v>
       </c>
       <c r="E16" t="n">
-        <v>325.6518786996359</v>
+        <v>380.4905180454307</v>
       </c>
       <c r="F16" t="n">
-        <v>243.6732142690173</v>
+        <v>298.511853614812</v>
       </c>
       <c r="G16" t="n">
-        <v>140.1359935479513</v>
+        <v>194.974632893746</v>
       </c>
       <c r="H16" t="n">
-        <v>52.20043087411047</v>
+        <v>107.0390702199051</v>
       </c>
       <c r="I16" t="n">
-        <v>52.20043087411047</v>
+        <v>52.20043087411048</v>
       </c>
       <c r="J16" t="n">
         <v>109.2730449275286</v>
@@ -5440,10 +5440,10 @@
         <v>291.9708056845548</v>
       </c>
       <c r="L16" t="n">
-        <v>563.4959032733534</v>
+        <v>563.4959032733532</v>
       </c>
       <c r="M16" t="n">
-        <v>856.7118258711464</v>
+        <v>856.7118258711462</v>
       </c>
       <c r="N16" t="n">
         <v>1149.90307628869</v>
@@ -5452,34 +5452,34 @@
         <v>1409.552953254354</v>
       </c>
       <c r="P16" t="n">
-        <v>1617.389630818505</v>
+        <v>1617.389630818504</v>
       </c>
       <c r="Q16" t="n">
-        <v>1697.422563974902</v>
+        <v>1697.422563974901</v>
       </c>
       <c r="R16" t="n">
-        <v>1697.422563974902</v>
+        <v>1638.975482630839</v>
       </c>
       <c r="S16" t="n">
-        <v>1611.371322923661</v>
+        <v>1499.205936510249</v>
       </c>
       <c r="T16" t="n">
-        <v>1451.329958136424</v>
+        <v>1339.164571723012</v>
       </c>
       <c r="U16" t="n">
-        <v>1227.097701575009</v>
+        <v>1114.932315161599</v>
       </c>
       <c r="V16" t="n">
-        <v>1037.324496436414</v>
+        <v>1114.932315161599</v>
       </c>
       <c r="W16" t="n">
-        <v>812.8186094667453</v>
+        <v>1088.419330436104</v>
       </c>
       <c r="X16" t="n">
-        <v>649.7403416360197</v>
+        <v>925.3410626053781</v>
       </c>
       <c r="Y16" t="n">
-        <v>493.8590455597814</v>
+        <v>769.4597665291395</v>
       </c>
     </row>
     <row r="17">
@@ -5489,16 +5489,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1329.594823140048</v>
+        <v>1431.021337346028</v>
       </c>
       <c r="C17" t="n">
         <v>1208.146197594475</v>
       </c>
       <c r="D17" t="n">
-        <v>995.9678761765837</v>
+        <v>995.9678761765836</v>
       </c>
       <c r="E17" t="n">
-        <v>756.2670007671984</v>
+        <v>756.2670007671982</v>
       </c>
       <c r="F17" t="n">
         <v>491.3684731664496</v>
@@ -5513,52 +5513,52 @@
         <v>52.20043087411048</v>
       </c>
       <c r="J17" t="n">
-        <v>270.2041001343099</v>
+        <v>270.2041001343098</v>
       </c>
       <c r="K17" t="n">
-        <v>717.6798929816108</v>
+        <v>396.7759345361575</v>
       </c>
       <c r="L17" t="n">
-        <v>911.6052076622427</v>
+        <v>590.7012492167894</v>
       </c>
       <c r="M17" t="n">
-        <v>1159.053923096399</v>
+        <v>1236.681581283907</v>
       </c>
       <c r="N17" t="n">
-        <v>1415.120425824779</v>
+        <v>1882.661913351024</v>
       </c>
       <c r="O17" t="n">
-        <v>1826.686216137698</v>
+        <v>2111.122989438849</v>
       </c>
       <c r="P17" t="n">
-        <v>2305.752179175668</v>
+        <v>2327.484716417682</v>
       </c>
       <c r="Q17" t="n">
-        <v>2588.28900646351</v>
+        <v>2610.021543705524</v>
       </c>
       <c r="R17" t="n">
         <v>2610.021543705524</v>
       </c>
       <c r="S17" t="n">
-        <v>2607.937747380085</v>
+        <v>2610.021543705524</v>
       </c>
       <c r="T17" t="n">
-        <v>2540.770496610052</v>
+        <v>2542.854292935491</v>
       </c>
       <c r="U17" t="n">
-        <v>2433.194410110452</v>
+        <v>2435.278206435891</v>
       </c>
       <c r="V17" t="n">
-        <v>2248.21889995574</v>
+        <v>2349.64541416172</v>
       </c>
       <c r="W17" t="n">
-        <v>2041.537621874485</v>
+        <v>2142.964136080465</v>
       </c>
       <c r="X17" t="n">
-        <v>1814.159240802264</v>
+        <v>1915.585755008244</v>
       </c>
       <c r="Y17" t="n">
-        <v>1570.107286015311</v>
+        <v>1671.533800221291</v>
       </c>
     </row>
     <row r="18">
@@ -5568,49 +5568,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>957.1064540750158</v>
+        <v>957.106454075016</v>
       </c>
       <c r="C18" t="n">
-        <v>782.6534247938888</v>
+        <v>782.653424793889</v>
       </c>
       <c r="D18" t="n">
-        <v>633.7190151326377</v>
+        <v>633.7190151326379</v>
       </c>
       <c r="E18" t="n">
-        <v>474.4815601271821</v>
+        <v>474.4815601271823</v>
       </c>
       <c r="F18" t="n">
-        <v>327.9470021540671</v>
+        <v>327.9470021540673</v>
       </c>
       <c r="G18" t="n">
-        <v>190.6944732642093</v>
+        <v>190.6944732642094</v>
       </c>
       <c r="H18" t="n">
-        <v>91.60256992448006</v>
+        <v>91.60256992448008</v>
       </c>
       <c r="I18" t="n">
         <v>52.20043087411048</v>
       </c>
       <c r="J18" t="n">
-        <v>63.51841814083014</v>
+        <v>188.3485431278349</v>
       </c>
       <c r="K18" t="n">
-        <v>161.0174858070674</v>
+        <v>538.7038691049177</v>
       </c>
       <c r="L18" t="n">
-        <v>705.5714974221764</v>
+        <v>716.1259388696021</v>
       </c>
       <c r="M18" t="n">
-        <v>1351.551829489294</v>
+        <v>1362.106270936719</v>
       </c>
       <c r="N18" t="n">
-        <v>1826.139421778365</v>
+        <v>2008.086603003836</v>
       </c>
       <c r="O18" t="n">
-        <v>2419.61787099099</v>
+        <v>2211.6413561325</v>
       </c>
       <c r="P18" t="n">
-        <v>2563.655439837501</v>
+        <v>2355.67892497901</v>
       </c>
       <c r="Q18" t="n">
         <v>2610.021543705524</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>263.594621649707</v>
+        <v>256.9147578798526</v>
       </c>
       <c r="C19" t="n">
-        <v>94.65843872180008</v>
+        <v>234.0659521408045</v>
       </c>
       <c r="D19" t="n">
-        <v>90.62917649832323</v>
+        <v>230.0366899173276</v>
       </c>
       <c r="E19" t="n">
-        <v>88.803460104789</v>
+        <v>82.12359633493453</v>
       </c>
       <c r="F19" t="n">
-        <v>88.00088979573752</v>
+        <v>81.32102602588303</v>
       </c>
       <c r="G19" t="n">
-        <v>65.63976319623873</v>
+        <v>58.95989942638421</v>
       </c>
       <c r="H19" t="n">
-        <v>58.88029464396504</v>
+        <v>52.20043087411048</v>
       </c>
       <c r="I19" t="n">
-        <v>58.88029464396504</v>
+        <v>52.20043087411048</v>
       </c>
       <c r="J19" t="n">
         <v>52.20043087411048</v>
@@ -5677,13 +5677,13 @@
         <v>171.2786430968841</v>
       </c>
       <c r="L19" t="n">
-        <v>379.1841921514301</v>
+        <v>379.18419215143</v>
       </c>
       <c r="M19" t="n">
-        <v>608.7805662149706</v>
+        <v>608.7805662149705</v>
       </c>
       <c r="N19" t="n">
-        <v>838.3522680982619</v>
+        <v>838.3522680982617</v>
       </c>
       <c r="O19" t="n">
         <v>1034.382596529673</v>
@@ -5692,10 +5692,10 @@
         <v>1178.599725559571</v>
       </c>
       <c r="Q19" t="n">
-        <v>1195.013110181716</v>
+        <v>1195.013110181715</v>
       </c>
       <c r="R19" t="n">
-        <v>1195.013110181716</v>
+        <v>1195.013110181715</v>
       </c>
       <c r="S19" t="n">
         <v>1136.419658182693</v>
@@ -5704,19 +5704,19 @@
         <v>1057.554387517023</v>
       </c>
       <c r="U19" t="n">
-        <v>914.4982250771757</v>
+        <v>914.4982250771754</v>
       </c>
       <c r="V19" t="n">
-        <v>659.8137368712888</v>
+        <v>738.5003912220238</v>
       </c>
       <c r="W19" t="n">
-        <v>516.4839440231871</v>
+        <v>595.1705983739221</v>
       </c>
       <c r="X19" t="n">
-        <v>434.5817703140286</v>
+        <v>513.2684246647635</v>
       </c>
       <c r="Y19" t="n">
-        <v>359.8765683593574</v>
+        <v>438.5632227100923</v>
       </c>
     </row>
     <row r="20">
@@ -5732,10 +5732,10 @@
         <v>1208.146197594475</v>
       </c>
       <c r="D20" t="n">
-        <v>995.9678761765838</v>
+        <v>995.9678761765837</v>
       </c>
       <c r="E20" t="n">
-        <v>756.2670007671984</v>
+        <v>756.2670007671983</v>
       </c>
       <c r="F20" t="n">
         <v>491.3684731664496</v>
@@ -5744,55 +5744,55 @@
         <v>220.7210631716098</v>
       </c>
       <c r="H20" t="n">
-        <v>52.20043087411047</v>
+        <v>52.20043087411048</v>
       </c>
       <c r="I20" t="n">
-        <v>52.20043087411047</v>
+        <v>52.20043087411048</v>
       </c>
       <c r="J20" t="n">
-        <v>270.2041001343098</v>
+        <v>102.7984511139568</v>
       </c>
       <c r="K20" t="n">
-        <v>717.6798929816107</v>
+        <v>229.3702855158045</v>
       </c>
       <c r="L20" t="n">
-        <v>911.6052076622426</v>
+        <v>836.7802026013824</v>
       </c>
       <c r="M20" t="n">
-        <v>1342.158637321492</v>
+        <v>1084.228918035538</v>
       </c>
       <c r="N20" t="n">
-        <v>1598.225140049873</v>
+        <v>1730.209250102655</v>
       </c>
       <c r="O20" t="n">
-        <v>1826.686216137698</v>
+        <v>2335.662505640598</v>
       </c>
       <c r="P20" t="n">
-        <v>2305.752179175668</v>
+        <v>2537.676557170988</v>
       </c>
       <c r="Q20" t="n">
-        <v>2588.289006463509</v>
+        <v>2610.021543705524</v>
       </c>
       <c r="R20" t="n">
         <v>2610.021543705524</v>
       </c>
       <c r="S20" t="n">
-        <v>2607.937747380084</v>
+        <v>2607.937747380085</v>
       </c>
       <c r="T20" t="n">
-        <v>2540.770496610051</v>
+        <v>2540.770496610052</v>
       </c>
       <c r="U20" t="n">
-        <v>2433.194410110451</v>
+        <v>2433.194410110452</v>
       </c>
       <c r="V20" t="n">
-        <v>2248.218899955739</v>
+        <v>2248.21889995574</v>
       </c>
       <c r="W20" t="n">
-        <v>2041.537621874484</v>
+        <v>2142.964136080465</v>
       </c>
       <c r="X20" t="n">
-        <v>1814.159240802263</v>
+        <v>1915.585755008244</v>
       </c>
       <c r="Y20" t="n">
         <v>1671.533800221291</v>
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>957.1064540750159</v>
+        <v>957.1064540750158</v>
       </c>
       <c r="C21" t="n">
-        <v>782.6534247938889</v>
+        <v>782.6534247938888</v>
       </c>
       <c r="D21" t="n">
         <v>633.7190151326377</v>
       </c>
       <c r="E21" t="n">
-        <v>474.4815601271822</v>
+        <v>474.4815601271821</v>
       </c>
       <c r="F21" t="n">
-        <v>327.9470021540672</v>
+        <v>327.9470021540671</v>
       </c>
       <c r="G21" t="n">
-        <v>190.6944732642093</v>
+        <v>190.6944732642096</v>
       </c>
       <c r="H21" t="n">
-        <v>91.60256992448006</v>
+        <v>91.60256992448008</v>
       </c>
       <c r="I21" t="n">
-        <v>52.20043087411047</v>
+        <v>52.20043087411048</v>
       </c>
       <c r="J21" t="n">
         <v>188.3485431278349</v>
@@ -5835,19 +5835,19 @@
         <v>547.6681954365249</v>
       </c>
       <c r="L21" t="n">
-        <v>1092.222207051634</v>
+        <v>725.0902652012094</v>
       </c>
       <c r="M21" t="n">
-        <v>1318.622262180892</v>
+        <v>1371.070597268327</v>
       </c>
       <c r="N21" t="n">
-        <v>1565.423098010779</v>
+        <v>1617.871433098213</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.363215178962</v>
+        <v>2211.349882310839</v>
       </c>
       <c r="P21" t="n">
-        <v>2355.678924979009</v>
+        <v>2355.67892497901</v>
       </c>
       <c r="Q21" t="n">
         <v>2610.021543705524</v>
@@ -5884,43 +5884,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>110.8273806909936</v>
+        <v>256.9147578798526</v>
       </c>
       <c r="C22" t="n">
-        <v>87.97857495194552</v>
+        <v>234.0659521408045</v>
       </c>
       <c r="D22" t="n">
-        <v>83.94931272846867</v>
+        <v>230.0366899173276</v>
       </c>
       <c r="E22" t="n">
-        <v>82.12359633493443</v>
+        <v>228.2109735237934</v>
       </c>
       <c r="F22" t="n">
-        <v>81.32102602588296</v>
+        <v>227.4084032147419</v>
       </c>
       <c r="G22" t="n">
-        <v>58.95989942638418</v>
+        <v>205.047276615243</v>
       </c>
       <c r="H22" t="n">
-        <v>52.20043087411047</v>
+        <v>52.20043087411048</v>
       </c>
       <c r="I22" t="n">
-        <v>52.20043087411047</v>
+        <v>52.20043087411048</v>
       </c>
       <c r="J22" t="n">
-        <v>52.20043087411047</v>
+        <v>52.20043087411048</v>
       </c>
       <c r="K22" t="n">
         <v>171.2786430968841</v>
       </c>
       <c r="L22" t="n">
-        <v>379.1841921514301</v>
+        <v>379.18419215143</v>
       </c>
       <c r="M22" t="n">
-        <v>608.7805662149706</v>
+        <v>608.7805662149705</v>
       </c>
       <c r="N22" t="n">
-        <v>838.3522680982619</v>
+        <v>838.3522680982617</v>
       </c>
       <c r="O22" t="n">
         <v>1034.382596529673</v>
@@ -5929,31 +5929,31 @@
         <v>1178.599725559571</v>
       </c>
       <c r="Q22" t="n">
-        <v>1195.013110181716</v>
+        <v>1195.013110181715</v>
       </c>
       <c r="R22" t="n">
-        <v>1195.013110181716</v>
+        <v>1195.013110181715</v>
       </c>
       <c r="S22" t="n">
         <v>1136.419658182693</v>
       </c>
       <c r="T22" t="n">
-        <v>1057.554387517023</v>
+        <v>911.4670103281638</v>
       </c>
       <c r="U22" t="n">
-        <v>914.4982250771757</v>
+        <v>701.0101250501931</v>
       </c>
       <c r="V22" t="n">
-        <v>659.8137368712888</v>
+        <v>592.413014033165</v>
       </c>
       <c r="W22" t="n">
-        <v>516.4839440231871</v>
+        <v>449.0832211850632</v>
       </c>
       <c r="X22" t="n">
-        <v>367.1810474759045</v>
+        <v>367.1810474759047</v>
       </c>
       <c r="Y22" t="n">
-        <v>292.4758455212333</v>
+        <v>292.4758455212335</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1433.091266207374</v>
+        <v>1433.091266207373</v>
       </c>
       <c r="C23" t="n">
         <v>1210.216126455821</v>
       </c>
       <c r="D23" t="n">
-        <v>998.0378050379298</v>
+        <v>998.037805037929</v>
       </c>
       <c r="E23" t="n">
-        <v>758.3369296285445</v>
+        <v>758.3369296285441</v>
       </c>
       <c r="F23" t="n">
         <v>493.4384020277957</v>
       </c>
       <c r="G23" t="n">
-        <v>222.7909920329563</v>
+        <v>222.7909920329564</v>
       </c>
       <c r="H23" t="n">
         <v>54.27035973545701</v>
@@ -5987,25 +5987,25 @@
         <v>54.27035973545701</v>
       </c>
       <c r="J23" t="n">
-        <v>104.8683799753034</v>
+        <v>272.2740289956564</v>
       </c>
       <c r="K23" t="n">
-        <v>552.3441728226043</v>
+        <v>719.7498218429572</v>
       </c>
       <c r="L23" t="n">
-        <v>1159.754089908182</v>
+        <v>913.6751365235891</v>
       </c>
       <c r="M23" t="n">
-        <v>1831.349791634463</v>
+        <v>1467.387617630834</v>
       </c>
       <c r="N23" t="n">
-        <v>2087.416294362843</v>
+        <v>1723.454120359214</v>
       </c>
       <c r="O23" t="n">
-        <v>2480.687758290113</v>
+        <v>1951.915196447039</v>
       </c>
       <c r="P23" t="n">
-        <v>2641.173000238315</v>
+        <v>2430.981159485009</v>
       </c>
       <c r="Q23" t="n">
         <v>2713.517986772851</v>
@@ -6017,22 +6017,22 @@
         <v>2711.434190447411</v>
       </c>
       <c r="T23" t="n">
-        <v>2644.266939677378</v>
+        <v>2644.266939677379</v>
       </c>
       <c r="U23" t="n">
-        <v>2536.690853177779</v>
+        <v>2536.690853177778</v>
       </c>
       <c r="V23" t="n">
         <v>2351.715343023066</v>
       </c>
       <c r="W23" t="n">
-        <v>2145.034064941811</v>
+        <v>2145.03406494181</v>
       </c>
       <c r="X23" t="n">
-        <v>1917.65568386959</v>
+        <v>1917.655683869589</v>
       </c>
       <c r="Y23" t="n">
-        <v>1673.603729082637</v>
+        <v>1673.603729082636</v>
       </c>
     </row>
     <row r="24">
@@ -6066,25 +6066,25 @@
         <v>54.27035973545701</v>
       </c>
       <c r="J24" t="n">
-        <v>65.58834700217666</v>
+        <v>190.4184719891814</v>
       </c>
       <c r="K24" t="n">
-        <v>424.9079993108667</v>
+        <v>549.7381242978714</v>
       </c>
       <c r="L24" t="n">
-        <v>969.4620109259758</v>
+        <v>831.7538038685383</v>
       </c>
       <c r="M24" t="n">
-        <v>1195.862066055234</v>
+        <v>1058.153858997796</v>
       </c>
       <c r="N24" t="n">
-        <v>1442.662901885121</v>
+        <v>1304.954694827683</v>
       </c>
       <c r="O24" t="n">
-        <v>2036.141351097746</v>
+        <v>1898.433144040308</v>
       </c>
       <c r="P24" t="n">
-        <v>2495.457060897794</v>
+        <v>2357.748853840356</v>
       </c>
       <c r="Q24" t="n">
         <v>2612.09147256687</v>
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>258.984686741199</v>
+        <v>258.9846867411991</v>
       </c>
       <c r="C25" t="n">
-        <v>236.1358810021509</v>
+        <v>236.1358810021511</v>
       </c>
       <c r="D25" t="n">
-        <v>232.1066187786741</v>
+        <v>232.1066187786742</v>
       </c>
       <c r="E25" t="n">
         <v>230.2809023851399</v>
@@ -6136,7 +6136,7 @@
         <v>229.4783320760884</v>
       </c>
       <c r="G25" t="n">
-        <v>61.02982828773072</v>
+        <v>61.02982828773074</v>
       </c>
       <c r="H25" t="n">
         <v>54.27035973545701</v>
@@ -6151,19 +6151,19 @@
         <v>173.3485719582307</v>
       </c>
       <c r="L25" t="n">
-        <v>381.2541210127766</v>
+        <v>381.2541210127765</v>
       </c>
       <c r="M25" t="n">
-        <v>610.8504950763171</v>
+        <v>610.850495076317</v>
       </c>
       <c r="N25" t="n">
-        <v>840.4221969596083</v>
+        <v>840.4221969596082</v>
       </c>
       <c r="O25" t="n">
-        <v>1036.45252539102</v>
+        <v>1036.452525391019</v>
       </c>
       <c r="P25" t="n">
-        <v>1180.669654420918</v>
+        <v>1180.669654420917</v>
       </c>
       <c r="Q25" t="n">
         <v>1197.083039043062</v>
@@ -6172,25 +6172,25 @@
         <v>1197.083039043062</v>
       </c>
       <c r="S25" t="n">
-        <v>1138.489587044039</v>
+        <v>1071.088864205915</v>
       </c>
       <c r="T25" t="n">
-        <v>1059.624316378369</v>
+        <v>846.1362163513868</v>
       </c>
       <c r="U25" t="n">
-        <v>770.4807767496632</v>
+        <v>703.0800539115396</v>
       </c>
       <c r="V25" t="n">
-        <v>594.4829428945112</v>
+        <v>594.4829428945116</v>
       </c>
       <c r="W25" t="n">
-        <v>451.1531500464095</v>
+        <v>451.1531500464097</v>
       </c>
       <c r="X25" t="n">
-        <v>369.250976337251</v>
+        <v>369.2509763372512</v>
       </c>
       <c r="Y25" t="n">
-        <v>294.5457743825798</v>
+        <v>294.54577438258</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1866.521426036207</v>
+        <v>1866.521426036208</v>
       </c>
       <c r="C26" t="n">
         <v>1578.735003217363</v>
       </c>
       <c r="D26" t="n">
-        <v>1301.645398732179</v>
+        <v>1301.64539873218</v>
       </c>
       <c r="E26" t="n">
-        <v>997.0332402555023</v>
+        <v>997.0332402555027</v>
       </c>
       <c r="F26" t="n">
-        <v>667.2234295874619</v>
+        <v>667.2234295874623</v>
       </c>
       <c r="G26" t="n">
-        <v>331.6647365253302</v>
+        <v>331.6647365253307</v>
       </c>
       <c r="H26" t="n">
-        <v>98.23282116053865</v>
+        <v>98.23282116053869</v>
       </c>
       <c r="I26" t="n">
         <v>73.32476822280034</v>
@@ -6227,25 +6227,25 @@
         <v>291.3284374829997</v>
       </c>
       <c r="K26" t="n">
-        <v>738.8042303303005</v>
+        <v>417.9002718848474</v>
       </c>
       <c r="L26" t="n">
-        <v>1346.214147415878</v>
+        <v>1025.310188970425</v>
       </c>
       <c r="M26" t="n">
-        <v>1593.662862850034</v>
+        <v>1717.777302562485</v>
       </c>
       <c r="N26" t="n">
-        <v>2282.702820746279</v>
+        <v>2406.81726045873</v>
       </c>
       <c r="O26" t="n">
-        <v>2888.156076284222</v>
+        <v>3012.270515996673</v>
       </c>
       <c r="P26" t="n">
-        <v>3367.222039322192</v>
+        <v>3383.701583852176</v>
       </c>
       <c r="Q26" t="n">
-        <v>3644.505873898003</v>
+        <v>3666.238411140017</v>
       </c>
       <c r="R26" t="n">
         <v>3666.238411140017</v>
@@ -6254,7 +6254,7 @@
         <v>3599.243331747286</v>
       </c>
       <c r="T26" t="n">
-        <v>3467.164797909961</v>
+        <v>3467.164797909962</v>
       </c>
       <c r="U26" t="n">
         <v>3294.67742834307</v>
@@ -6303,25 +6303,25 @@
         <v>73.32476822280034</v>
       </c>
       <c r="J27" t="n">
-        <v>84.64275548951997</v>
+        <v>209.4728804765247</v>
       </c>
       <c r="K27" t="n">
-        <v>443.96240779821</v>
+        <v>568.7925327852147</v>
       </c>
       <c r="L27" t="n">
-        <v>988.516419413319</v>
+        <v>766.1829578397261</v>
       </c>
       <c r="M27" t="n">
-        <v>1214.916474542576</v>
+        <v>992.5830129689837</v>
       </c>
       <c r="N27" t="n">
-        <v>1461.717310372464</v>
+        <v>1713.932799398989</v>
       </c>
       <c r="O27" t="n">
-        <v>2055.195759585089</v>
+        <v>1917.487552527652</v>
       </c>
       <c r="P27" t="n">
-        <v>2514.511469385137</v>
+        <v>2376.8032623277</v>
       </c>
       <c r="Q27" t="n">
         <v>2631.145881054214</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>559.993244734953</v>
+        <v>559.9932447349527</v>
       </c>
       <c r="C28" t="n">
-        <v>472.2331559286133</v>
+        <v>472.2331559286129</v>
       </c>
       <c r="D28" t="n">
-        <v>403.2926106378447</v>
+        <v>403.2926106378443</v>
       </c>
       <c r="E28" t="n">
-        <v>336.5556111770187</v>
+        <v>336.5556111770182</v>
       </c>
       <c r="F28" t="n">
-        <v>270.8417578006755</v>
+        <v>270.841757800675</v>
       </c>
       <c r="G28" t="n">
-        <v>183.569348133885</v>
+        <v>183.5693481338844</v>
       </c>
       <c r="H28" t="n">
         <v>111.8985965143195</v>
@@ -6385,19 +6385,19 @@
         <v>146.3385235905138</v>
       </c>
       <c r="K28" t="n">
-        <v>344.9774256618354</v>
+        <v>344.9774256618351</v>
       </c>
       <c r="L28" t="n">
-        <v>632.4436645649292</v>
+        <v>632.4436645649289</v>
       </c>
       <c r="M28" t="n">
-        <v>941.6007284770175</v>
+        <v>941.6007284770171</v>
       </c>
       <c r="N28" t="n">
-        <v>1250.733120208857</v>
+        <v>1250.733120208856</v>
       </c>
       <c r="O28" t="n">
-        <v>1526.324138488816</v>
+        <v>1526.324138488815</v>
       </c>
       <c r="P28" t="n">
         <v>1750.101957367262</v>
@@ -6409,25 +6409,25 @@
         <v>1803.893761548167</v>
       </c>
       <c r="S28" t="n">
-        <v>1680.389026481853</v>
+        <v>1680.389026481852</v>
       </c>
       <c r="T28" t="n">
-        <v>1536.612472748891</v>
+        <v>1536.61247274889</v>
       </c>
       <c r="U28" t="n">
-        <v>1328.645027241752</v>
+        <v>1328.645027241751</v>
       </c>
       <c r="V28" t="n">
         <v>1155.136633157432</v>
       </c>
       <c r="W28" t="n">
-        <v>946.8955572420386</v>
+        <v>946.8955572420383</v>
       </c>
       <c r="X28" t="n">
-        <v>800.0821004655885</v>
+        <v>800.082100465588</v>
       </c>
       <c r="Y28" t="n">
-        <v>660.4656154436256</v>
+        <v>660.4656154436252</v>
       </c>
     </row>
     <row r="29">
@@ -6437,37 +6437,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1866.521426036207</v>
+        <v>1866.521426036206</v>
       </c>
       <c r="C29" t="n">
         <v>1578.735003217362</v>
       </c>
       <c r="D29" t="n">
-        <v>1301.645398732179</v>
+        <v>1301.645398732178</v>
       </c>
       <c r="E29" t="n">
-        <v>997.0332402555018</v>
+        <v>997.033240255501</v>
       </c>
       <c r="F29" t="n">
-        <v>667.2234295874614</v>
+        <v>667.2234295874607</v>
       </c>
       <c r="G29" t="n">
-        <v>331.6647365253298</v>
+        <v>331.6647365253297</v>
       </c>
       <c r="H29" t="n">
-        <v>98.23282116053866</v>
+        <v>98.23282116053865</v>
       </c>
       <c r="I29" t="n">
         <v>73.32476822280034</v>
       </c>
       <c r="J29" t="n">
-        <v>123.9227884626467</v>
+        <v>291.3284374829997</v>
       </c>
       <c r="K29" t="n">
-        <v>310.2653767023795</v>
+        <v>738.8042303303005</v>
       </c>
       <c r="L29" t="n">
-        <v>917.6752937879575</v>
+        <v>1346.214147415878</v>
       </c>
       <c r="M29" t="n">
         <v>1610.142407380018</v>
@@ -6491,19 +6491,19 @@
         <v>3599.243331747286</v>
       </c>
       <c r="T29" t="n">
-        <v>3467.164797909961</v>
+        <v>3467.164797909962</v>
       </c>
       <c r="U29" t="n">
         <v>3294.677428343069</v>
       </c>
       <c r="V29" t="n">
-        <v>3044.790635121066</v>
+        <v>3044.790635121065</v>
       </c>
       <c r="W29" t="n">
-        <v>2773.198073972519</v>
+        <v>2773.198073972518</v>
       </c>
       <c r="X29" t="n">
-        <v>2480.908409833006</v>
+        <v>2480.908409833005</v>
       </c>
       <c r="Y29" t="n">
         <v>2171.945171978761</v>
@@ -6540,25 +6540,25 @@
         <v>73.32476822280034</v>
       </c>
       <c r="J30" t="n">
-        <v>84.64275548952</v>
+        <v>209.4728804765247</v>
       </c>
       <c r="K30" t="n">
-        <v>443.9624077982101</v>
+        <v>568.7925327852147</v>
       </c>
       <c r="L30" t="n">
-        <v>621.3844775628946</v>
+        <v>1113.346544400324</v>
       </c>
       <c r="M30" t="n">
-        <v>1308.832545804652</v>
+        <v>1467.131963569102</v>
       </c>
       <c r="N30" t="n">
-        <v>2030.182332234657</v>
+        <v>1713.932799398989</v>
       </c>
       <c r="O30" t="n">
-        <v>2233.737085363321</v>
+        <v>1917.487552527652</v>
       </c>
       <c r="P30" t="n">
-        <v>2377.774654209831</v>
+        <v>2376.8032623277</v>
       </c>
       <c r="Q30" t="n">
         <v>2631.145881054214</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>559.9932447349531</v>
+        <v>559.993244734954</v>
       </c>
       <c r="C31" t="n">
-        <v>472.2331559286134</v>
+        <v>472.2331559286143</v>
       </c>
       <c r="D31" t="n">
-        <v>403.2926106378447</v>
+        <v>403.2926106378457</v>
       </c>
       <c r="E31" t="n">
-        <v>336.5556111770188</v>
+        <v>336.5556111770197</v>
       </c>
       <c r="F31" t="n">
-        <v>270.8417578006755</v>
+        <v>270.8417578006765</v>
       </c>
       <c r="G31" t="n">
-        <v>183.5693481338849</v>
+        <v>183.569348133886</v>
       </c>
       <c r="H31" t="n">
-        <v>111.8985965143195</v>
+        <v>111.8985965143208</v>
       </c>
       <c r="I31" t="n">
         <v>73.32476822280034</v>
@@ -6625,10 +6625,10 @@
         <v>344.9774256618354</v>
       </c>
       <c r="L31" t="n">
-        <v>632.4436645649292</v>
+        <v>632.4436645649293</v>
       </c>
       <c r="M31" t="n">
-        <v>941.6007284770176</v>
+        <v>941.6007284770178</v>
       </c>
       <c r="N31" t="n">
         <v>1250.733120208857</v>
@@ -6640,7 +6640,7 @@
         <v>1750.101957367262</v>
       </c>
       <c r="Q31" t="n">
-        <v>1846.076031837954</v>
+        <v>1846.076031837955</v>
       </c>
       <c r="R31" t="n">
         <v>1803.893761548168</v>
@@ -6655,16 +6655,16 @@
         <v>1328.645027241753</v>
       </c>
       <c r="V31" t="n">
-        <v>1155.136633157432</v>
+        <v>1155.136633157433</v>
       </c>
       <c r="W31" t="n">
-        <v>946.8955572420385</v>
+        <v>946.8955572420398</v>
       </c>
       <c r="X31" t="n">
-        <v>800.0821004655884</v>
+        <v>800.0821004655896</v>
       </c>
       <c r="Y31" t="n">
-        <v>660.4656154436257</v>
+        <v>660.4656154436266</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1866.521426036206</v>
+        <v>1866.521426036207</v>
       </c>
       <c r="C32" t="n">
         <v>1578.735003217362</v>
       </c>
       <c r="D32" t="n">
-        <v>1301.645398732178</v>
+        <v>1301.645398732179</v>
       </c>
       <c r="E32" t="n">
-        <v>997.0332402555013</v>
+        <v>997.0332402555016</v>
       </c>
       <c r="F32" t="n">
-        <v>667.2234295874607</v>
+        <v>667.2234295874612</v>
       </c>
       <c r="G32" t="n">
-        <v>331.6647365253297</v>
+        <v>331.6647365253295</v>
       </c>
       <c r="H32" t="n">
-        <v>98.23282116053865</v>
+        <v>98.23282116053871</v>
       </c>
       <c r="I32" t="n">
         <v>73.32476822280034</v>
       </c>
       <c r="J32" t="n">
-        <v>291.3284374829997</v>
+        <v>123.9227884626467</v>
       </c>
       <c r="K32" t="n">
-        <v>520.4572174556852</v>
+        <v>520.4572174556855</v>
       </c>
       <c r="L32" t="n">
         <v>1127.867134541263</v>
@@ -6725,22 +6725,22 @@
         <v>3666.238411140017</v>
       </c>
       <c r="S32" t="n">
-        <v>3599.243331747285</v>
+        <v>3599.243331747286</v>
       </c>
       <c r="T32" t="n">
-        <v>3467.164797909961</v>
+        <v>3467.164797909962</v>
       </c>
       <c r="U32" t="n">
-        <v>3294.677428343069</v>
+        <v>3294.67742834307</v>
       </c>
       <c r="V32" t="n">
-        <v>3044.790635121065</v>
+        <v>3044.790635121066</v>
       </c>
       <c r="W32" t="n">
-        <v>2773.198073972518</v>
+        <v>2773.198073972519</v>
       </c>
       <c r="X32" t="n">
-        <v>2480.908409833005</v>
+        <v>2480.908409833006</v>
       </c>
       <c r="Y32" t="n">
         <v>2171.945171978761</v>
@@ -6777,19 +6777,19 @@
         <v>73.32476822280034</v>
       </c>
       <c r="J33" t="n">
-        <v>209.4728804765248</v>
+        <v>209.4728804765247</v>
       </c>
       <c r="K33" t="n">
-        <v>568.7925327852148</v>
+        <v>568.7925327852147</v>
       </c>
       <c r="L33" t="n">
         <v>1113.346544400324</v>
       </c>
       <c r="M33" t="n">
-        <v>1339.746599529582</v>
+        <v>1339.746599529581</v>
       </c>
       <c r="N33" t="n">
-        <v>1586.547435359469</v>
+        <v>1586.547435359468</v>
       </c>
       <c r="O33" t="n">
         <v>1917.487552527652</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>559.9932447349534</v>
+        <v>559.9932447349531</v>
       </c>
       <c r="C34" t="n">
-        <v>472.2331559286135</v>
+        <v>472.2331559286133</v>
       </c>
       <c r="D34" t="n">
-        <v>403.2926106378449</v>
+        <v>403.2926106378446</v>
       </c>
       <c r="E34" t="n">
-        <v>336.5556111770189</v>
+        <v>336.5556111770186</v>
       </c>
       <c r="F34" t="n">
-        <v>270.8417578006757</v>
+        <v>270.8417578006753</v>
       </c>
       <c r="G34" t="n">
-        <v>183.5693481338851</v>
+        <v>183.5693481338847</v>
       </c>
       <c r="H34" t="n">
         <v>111.8985965143195</v>
@@ -6859,16 +6859,16 @@
         <v>146.3385235905138</v>
       </c>
       <c r="K34" t="n">
-        <v>344.9774256618354</v>
+        <v>344.9774256618352</v>
       </c>
       <c r="L34" t="n">
-        <v>632.4436645649291</v>
+        <v>632.443664564929</v>
       </c>
       <c r="M34" t="n">
-        <v>941.6007284770175</v>
+        <v>941.6007284770174</v>
       </c>
       <c r="N34" t="n">
-        <v>1250.733120208857</v>
+        <v>1250.733120208856</v>
       </c>
       <c r="O34" t="n">
         <v>1526.324138488816</v>
@@ -6889,7 +6889,7 @@
         <v>1536.612472748891</v>
       </c>
       <c r="U34" t="n">
-        <v>1328.645027241752</v>
+        <v>1328.645027241753</v>
       </c>
       <c r="V34" t="n">
         <v>1155.136633157433</v>
@@ -6901,7 +6901,7 @@
         <v>800.0821004655888</v>
       </c>
       <c r="Y34" t="n">
-        <v>660.4656154436259</v>
+        <v>660.4656154436258</v>
       </c>
     </row>
     <row r="35">
@@ -6911,61 +6911,61 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1866.521426036207</v>
+        <v>1866.521426036205</v>
       </c>
       <c r="C35" t="n">
-        <v>1578.735003217362</v>
+        <v>1578.735003217361</v>
       </c>
       <c r="D35" t="n">
-        <v>1301.645398732179</v>
+        <v>1301.645398732177</v>
       </c>
       <c r="E35" t="n">
-        <v>997.0332402555018</v>
+        <v>997.0332402555003</v>
       </c>
       <c r="F35" t="n">
-        <v>667.2234295874614</v>
+        <v>667.22342958746</v>
       </c>
       <c r="G35" t="n">
-        <v>331.6647365253298</v>
+        <v>331.6647365253297</v>
       </c>
       <c r="H35" t="n">
-        <v>98.23282116053862</v>
+        <v>98.23282116053865</v>
       </c>
       <c r="I35" t="n">
-        <v>73.32476822280033</v>
+        <v>73.32476822280034</v>
       </c>
       <c r="J35" t="n">
-        <v>123.9227884626467</v>
+        <v>291.3284374829997</v>
       </c>
       <c r="K35" t="n">
-        <v>571.3985813099478</v>
+        <v>738.8042303303005</v>
       </c>
       <c r="L35" t="n">
-        <v>1178.808498395526</v>
+        <v>1346.214147415878</v>
       </c>
       <c r="M35" t="n">
-        <v>1871.275611987586</v>
+        <v>1593.662862850034</v>
       </c>
       <c r="N35" t="n">
-        <v>2560.315569883831</v>
+        <v>2277.449828034249</v>
       </c>
       <c r="O35" t="n">
-        <v>3165.768825421775</v>
+        <v>2882.903083572191</v>
       </c>
       <c r="P35" t="n">
-        <v>3593.89342460548</v>
+        <v>3361.969046610161</v>
       </c>
       <c r="Q35" t="n">
-        <v>3666.238411140016</v>
+        <v>3644.505873898003</v>
       </c>
       <c r="R35" t="n">
-        <v>3666.238411140016</v>
+        <v>3666.238411140017</v>
       </c>
       <c r="S35" t="n">
-        <v>3599.243331747285</v>
+        <v>3599.243331747286</v>
       </c>
       <c r="T35" t="n">
-        <v>3467.164797909961</v>
+        <v>3467.164797909962</v>
       </c>
       <c r="U35" t="n">
         <v>3294.677428343069</v>
@@ -6974,13 +6974,13 @@
         <v>3044.790635121065</v>
       </c>
       <c r="W35" t="n">
-        <v>2773.198073972519</v>
+        <v>2773.198073972518</v>
       </c>
       <c r="X35" t="n">
-        <v>2480.908409833006</v>
+        <v>2480.908409833005</v>
       </c>
       <c r="Y35" t="n">
-        <v>2171.945171978761</v>
+        <v>2171.94517197876</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7011,28 @@
         <v>112.7269072731699</v>
       </c>
       <c r="I36" t="n">
-        <v>73.32476822280033</v>
+        <v>73.32476822280034</v>
       </c>
       <c r="J36" t="n">
-        <v>84.64275548952001</v>
+        <v>209.4728804765247</v>
       </c>
       <c r="K36" t="n">
-        <v>182.1418231557573</v>
+        <v>568.7925327852147</v>
       </c>
       <c r="L36" t="n">
-        <v>359.563892920442</v>
+        <v>746.2146025498992</v>
       </c>
       <c r="M36" t="n">
-        <v>1047.011961162199</v>
+        <v>972.6146576791567</v>
       </c>
       <c r="N36" t="n">
-        <v>1768.361747592205</v>
+        <v>1324.009103315026</v>
       </c>
       <c r="O36" t="n">
-        <v>2361.84019680483</v>
+        <v>1917.487552527652</v>
       </c>
       <c r="P36" t="n">
-        <v>2584.779777186191</v>
+        <v>2376.8032623277</v>
       </c>
       <c r="Q36" t="n">
         <v>2631.145881054214</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>559.9932447349531</v>
+        <v>559.993244734953</v>
       </c>
       <c r="C37" t="n">
-        <v>472.2331559286133</v>
+        <v>472.2331559286132</v>
       </c>
       <c r="D37" t="n">
-        <v>403.2926106378447</v>
+        <v>403.2926106378446</v>
       </c>
       <c r="E37" t="n">
-        <v>336.5556111770187</v>
+        <v>336.5556111770186</v>
       </c>
       <c r="F37" t="n">
         <v>270.8417578006755</v>
@@ -7090,22 +7090,22 @@
         <v>111.8985965143195</v>
       </c>
       <c r="I37" t="n">
-        <v>73.32476822280033</v>
+        <v>73.32476822280034</v>
       </c>
       <c r="J37" t="n">
         <v>146.3385235905138</v>
       </c>
       <c r="K37" t="n">
-        <v>344.9774256618351</v>
+        <v>344.9774256618354</v>
       </c>
       <c r="L37" t="n">
-        <v>632.4436645649288</v>
+        <v>632.4436645649292</v>
       </c>
       <c r="M37" t="n">
-        <v>941.6007284770171</v>
+        <v>941.6007284770176</v>
       </c>
       <c r="N37" t="n">
-        <v>1250.733120208856</v>
+        <v>1250.733120208857</v>
       </c>
       <c r="O37" t="n">
         <v>1526.324138488816</v>
@@ -7117,10 +7117,10 @@
         <v>1846.076031837954</v>
       </c>
       <c r="R37" t="n">
-        <v>1803.893761548168</v>
+        <v>1803.893761548167</v>
       </c>
       <c r="S37" t="n">
-        <v>1680.389026481853</v>
+        <v>1680.389026481852</v>
       </c>
       <c r="T37" t="n">
         <v>1536.612472748891</v>
@@ -7129,16 +7129,16 @@
         <v>1328.645027241752</v>
       </c>
       <c r="V37" t="n">
-        <v>1155.136633157433</v>
+        <v>1155.136633157432</v>
       </c>
       <c r="W37" t="n">
-        <v>946.8955572420389</v>
+        <v>946.8955572420386</v>
       </c>
       <c r="X37" t="n">
-        <v>800.0821004655886</v>
+        <v>800.0821004655885</v>
       </c>
       <c r="Y37" t="n">
-        <v>660.4656154436257</v>
+        <v>660.4656154436256</v>
       </c>
     </row>
     <row r="38">
@@ -7157,49 +7157,49 @@
         <v>1301.645398732179</v>
       </c>
       <c r="E38" t="n">
-        <v>997.0332402555016</v>
+        <v>997.0332402555018</v>
       </c>
       <c r="F38" t="n">
-        <v>667.2234295874612</v>
+        <v>667.2234295874614</v>
       </c>
       <c r="G38" t="n">
-        <v>331.6647365253295</v>
+        <v>331.6647365253298</v>
       </c>
       <c r="H38" t="n">
-        <v>98.23282116053862</v>
+        <v>98.23282116053871</v>
       </c>
       <c r="I38" t="n">
-        <v>73.32476822280033</v>
+        <v>73.32476822280034</v>
       </c>
       <c r="J38" t="n">
-        <v>291.3284374829997</v>
+        <v>123.9227884626467</v>
       </c>
       <c r="K38" t="n">
-        <v>738.8042303303007</v>
+        <v>571.3985813099475</v>
       </c>
       <c r="L38" t="n">
-        <v>1346.214147415879</v>
+        <v>1178.808498395525</v>
       </c>
       <c r="M38" t="n">
-        <v>2038.681261007939</v>
+        <v>1820.334248133323</v>
       </c>
       <c r="N38" t="n">
-        <v>2727.721218904184</v>
+        <v>2509.374206029569</v>
       </c>
       <c r="O38" t="n">
-        <v>3333.174474442128</v>
+        <v>3114.827461567511</v>
       </c>
       <c r="P38" t="n">
-        <v>3593.89342460548</v>
+        <v>3593.893424605481</v>
       </c>
       <c r="Q38" t="n">
-        <v>3666.238411140016</v>
+        <v>3666.238411140017</v>
       </c>
       <c r="R38" t="n">
-        <v>3666.238411140016</v>
+        <v>3666.238411140017</v>
       </c>
       <c r="S38" t="n">
-        <v>3599.243331747285</v>
+        <v>3599.243331747286</v>
       </c>
       <c r="T38" t="n">
         <v>3467.164797909961</v>
@@ -7248,28 +7248,28 @@
         <v>112.7269072731699</v>
       </c>
       <c r="I39" t="n">
-        <v>73.32476822280033</v>
+        <v>73.32476822280034</v>
       </c>
       <c r="J39" t="n">
-        <v>84.64275548952001</v>
+        <v>209.4728804765247</v>
       </c>
       <c r="K39" t="n">
-        <v>182.1418231557573</v>
+        <v>568.7925327852147</v>
       </c>
       <c r="L39" t="n">
-        <v>726.6958347708664</v>
+        <v>1113.346544400324</v>
       </c>
       <c r="M39" t="n">
-        <v>1414.143903012624</v>
+        <v>1467.131963569102</v>
       </c>
       <c r="N39" t="n">
-        <v>1660.944738842511</v>
+        <v>1713.932799398989</v>
       </c>
       <c r="O39" t="n">
-        <v>2254.423188055137</v>
+        <v>1917.487552527652</v>
       </c>
       <c r="P39" t="n">
-        <v>2584.779777186191</v>
+        <v>2376.8032623277</v>
       </c>
       <c r="Q39" t="n">
         <v>2631.145881054214</v>
@@ -7306,52 +7306,52 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>559.9932447349531</v>
+        <v>559.9932447349535</v>
       </c>
       <c r="C40" t="n">
-        <v>472.2331559286134</v>
+        <v>472.2331559286136</v>
       </c>
       <c r="D40" t="n">
-        <v>403.2926106378447</v>
+        <v>403.292610637845</v>
       </c>
       <c r="E40" t="n">
-        <v>336.5556111770188</v>
+        <v>336.5556111770189</v>
       </c>
       <c r="F40" t="n">
-        <v>270.8417578006755</v>
+        <v>270.8417578006756</v>
       </c>
       <c r="G40" t="n">
-        <v>183.5693481338849</v>
+        <v>183.569348133885</v>
       </c>
       <c r="H40" t="n">
         <v>111.8985965143195</v>
       </c>
       <c r="I40" t="n">
-        <v>73.32476822280033</v>
+        <v>73.32476822280034</v>
       </c>
       <c r="J40" t="n">
         <v>146.3385235905138</v>
       </c>
       <c r="K40" t="n">
-        <v>344.9774256618355</v>
+        <v>344.9774256618353</v>
       </c>
       <c r="L40" t="n">
-        <v>632.4436645649293</v>
+        <v>632.4436645649291</v>
       </c>
       <c r="M40" t="n">
-        <v>941.6007284770178</v>
+        <v>941.6007284770175</v>
       </c>
       <c r="N40" t="n">
         <v>1250.733120208857</v>
       </c>
       <c r="O40" t="n">
-        <v>1526.324138488816</v>
+        <v>1526.324138488817</v>
       </c>
       <c r="P40" t="n">
         <v>1750.101957367262</v>
       </c>
       <c r="Q40" t="n">
-        <v>1846.076031837954</v>
+        <v>1846.076031837955</v>
       </c>
       <c r="R40" t="n">
         <v>1803.893761548168</v>
@@ -7360,22 +7360,22 @@
         <v>1680.389026481853</v>
       </c>
       <c r="T40" t="n">
-        <v>1536.612472748891</v>
+        <v>1536.612472748892</v>
       </c>
       <c r="U40" t="n">
-        <v>1328.645027241752</v>
+        <v>1328.645027241753</v>
       </c>
       <c r="V40" t="n">
-        <v>1155.136633157432</v>
+        <v>1155.136633157433</v>
       </c>
       <c r="W40" t="n">
-        <v>946.8955572420389</v>
+        <v>946.8955572420393</v>
       </c>
       <c r="X40" t="n">
-        <v>800.0821004655886</v>
+        <v>800.0821004655891</v>
       </c>
       <c r="Y40" t="n">
-        <v>660.4656154436257</v>
+        <v>660.4656154436261</v>
       </c>
     </row>
     <row r="41">
@@ -7403,7 +7403,7 @@
         <v>331.6647365253293</v>
       </c>
       <c r="H41" t="n">
-        <v>98.23282116053856</v>
+        <v>98.23282116053863</v>
       </c>
       <c r="I41" t="n">
         <v>73.32476822280033</v>
@@ -7412,31 +7412,31 @@
         <v>123.9227884626467</v>
       </c>
       <c r="K41" t="n">
-        <v>520.4572174556838</v>
+        <v>571.3985813099475</v>
       </c>
       <c r="L41" t="n">
-        <v>1127.867134541262</v>
+        <v>1178.808498395525</v>
       </c>
       <c r="M41" t="n">
-        <v>1820.334248133322</v>
+        <v>1871.275611987586</v>
       </c>
       <c r="N41" t="n">
-        <v>2509.374206029567</v>
+        <v>2560.31556988383</v>
       </c>
       <c r="O41" t="n">
-        <v>3114.82746156751</v>
+        <v>3165.768825421773</v>
       </c>
       <c r="P41" t="n">
-        <v>3593.89342460548</v>
+        <v>3593.893424605481</v>
       </c>
       <c r="Q41" t="n">
-        <v>3666.238411140016</v>
+        <v>3666.238411140017</v>
       </c>
       <c r="R41" t="n">
-        <v>3666.238411140016</v>
+        <v>3666.238411140017</v>
       </c>
       <c r="S41" t="n">
-        <v>3599.243331747285</v>
+        <v>3599.243331747286</v>
       </c>
       <c r="T41" t="n">
         <v>3467.164797909961</v>
@@ -7488,19 +7488,19 @@
         <v>73.32476822280033</v>
       </c>
       <c r="J42" t="n">
-        <v>209.4728804765248</v>
+        <v>209.4728804765247</v>
       </c>
       <c r="K42" t="n">
-        <v>568.7925327852149</v>
+        <v>568.7925327852147</v>
       </c>
       <c r="L42" t="n">
-        <v>1113.346544400324</v>
+        <v>779.6838953273441</v>
       </c>
       <c r="M42" t="n">
-        <v>1339.746599529582</v>
+        <v>1467.131963569102</v>
       </c>
       <c r="N42" t="n">
-        <v>1586.547435359469</v>
+        <v>1713.932799398989</v>
       </c>
       <c r="O42" t="n">
         <v>1917.487552527652</v>
@@ -7543,49 +7543,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>559.9932447349528</v>
+        <v>559.9932447349529</v>
       </c>
       <c r="C43" t="n">
-        <v>472.233155928613</v>
+        <v>472.2331559286131</v>
       </c>
       <c r="D43" t="n">
-        <v>403.2926106378445</v>
+        <v>403.2926106378446</v>
       </c>
       <c r="E43" t="n">
-        <v>336.5556111770185</v>
+        <v>336.5556111770186</v>
       </c>
       <c r="F43" t="n">
-        <v>270.8417578006753</v>
+        <v>270.8417578006754</v>
       </c>
       <c r="G43" t="n">
-        <v>183.5693481338848</v>
+        <v>183.5693481338849</v>
       </c>
       <c r="H43" t="n">
-        <v>111.8985965143194</v>
+        <v>111.8985965143195</v>
       </c>
       <c r="I43" t="n">
         <v>73.32476822280033</v>
       </c>
       <c r="J43" t="n">
-        <v>146.3385235905139</v>
+        <v>146.3385235905138</v>
       </c>
       <c r="K43" t="n">
-        <v>344.9774256618356</v>
+        <v>344.9774256618354</v>
       </c>
       <c r="L43" t="n">
-        <v>632.4436645649296</v>
+        <v>632.4436645649292</v>
       </c>
       <c r="M43" t="n">
-        <v>941.600728477018</v>
+        <v>941.6007284770176</v>
       </c>
       <c r="N43" t="n">
         <v>1250.733120208857</v>
       </c>
       <c r="O43" t="n">
-        <v>1526.324138488817</v>
+        <v>1526.324138488816</v>
       </c>
       <c r="P43" t="n">
-        <v>1750.101957367263</v>
+        <v>1750.101957367261</v>
       </c>
       <c r="Q43" t="n">
         <v>1846.076031837953</v>
@@ -7600,19 +7600,19 @@
         <v>1536.61247274889</v>
       </c>
       <c r="U43" t="n">
-        <v>1328.645027241751</v>
+        <v>1328.645027241752</v>
       </c>
       <c r="V43" t="n">
         <v>1155.136633157432</v>
       </c>
       <c r="W43" t="n">
-        <v>946.8955572420384</v>
+        <v>946.8955572420385</v>
       </c>
       <c r="X43" t="n">
-        <v>800.0821004655883</v>
+        <v>800.0821004655884</v>
       </c>
       <c r="Y43" t="n">
-        <v>660.4656154436253</v>
+        <v>660.4656154436254</v>
       </c>
     </row>
     <row r="44">
@@ -7622,58 +7622,58 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1866.521426036206</v>
+        <v>1866.521426036207</v>
       </c>
       <c r="C44" t="n">
-        <v>1578.735003217361</v>
+        <v>1578.735003217362</v>
       </c>
       <c r="D44" t="n">
-        <v>1301.645398732178</v>
+        <v>1301.645398732179</v>
       </c>
       <c r="E44" t="n">
-        <v>997.0332402555014</v>
+        <v>997.0332402555018</v>
       </c>
       <c r="F44" t="n">
-        <v>667.2234295874609</v>
+        <v>667.2234295874614</v>
       </c>
       <c r="G44" t="n">
-        <v>331.6647365253293</v>
+        <v>331.6647365253298</v>
       </c>
       <c r="H44" t="n">
-        <v>98.23282116053856</v>
+        <v>98.23282116053865</v>
       </c>
       <c r="I44" t="n">
         <v>73.32476822280033</v>
       </c>
       <c r="J44" t="n">
-        <v>291.3284374829997</v>
+        <v>123.9227884626466</v>
       </c>
       <c r="K44" t="n">
-        <v>738.8042303303007</v>
+        <v>571.3985813099473</v>
       </c>
       <c r="L44" t="n">
-        <v>1346.214147415879</v>
+        <v>1178.808498395525</v>
       </c>
       <c r="M44" t="n">
-        <v>2038.681261007939</v>
+        <v>1871.275611987585</v>
       </c>
       <c r="N44" t="n">
-        <v>2617.76308636603</v>
+        <v>2560.31556988383</v>
       </c>
       <c r="O44" t="n">
-        <v>3223.216341903973</v>
+        <v>3165.768825421772</v>
       </c>
       <c r="P44" t="n">
-        <v>3383.701583852174</v>
+        <v>3593.893424605481</v>
       </c>
       <c r="Q44" t="n">
-        <v>3666.238411140016</v>
+        <v>3666.238411140017</v>
       </c>
       <c r="R44" t="n">
-        <v>3666.238411140016</v>
+        <v>3666.238411140017</v>
       </c>
       <c r="S44" t="n">
-        <v>3599.243331747285</v>
+        <v>3599.243331747286</v>
       </c>
       <c r="T44" t="n">
         <v>3467.164797909961</v>
@@ -7682,16 +7682,16 @@
         <v>3294.677428343069</v>
       </c>
       <c r="V44" t="n">
-        <v>3044.790635121065</v>
+        <v>3044.790635121066</v>
       </c>
       <c r="W44" t="n">
-        <v>2773.198073972518</v>
+        <v>2773.198073972519</v>
       </c>
       <c r="X44" t="n">
-        <v>2480.908409833005</v>
+        <v>2480.908409833006</v>
       </c>
       <c r="Y44" t="n">
-        <v>2171.94517197876</v>
+        <v>2171.945171978761</v>
       </c>
     </row>
     <row r="45">
@@ -7725,25 +7725,25 @@
         <v>73.32476822280033</v>
       </c>
       <c r="J45" t="n">
-        <v>84.64275548952001</v>
+        <v>209.4728804765247</v>
       </c>
       <c r="K45" t="n">
-        <v>182.1418231557573</v>
+        <v>568.7925327852147</v>
       </c>
       <c r="L45" t="n">
-        <v>726.6958347708664</v>
+        <v>1113.346544400324</v>
       </c>
       <c r="M45" t="n">
-        <v>1414.143903012624</v>
+        <v>1339.746599529581</v>
       </c>
       <c r="N45" t="n">
-        <v>2135.493689442629</v>
+        <v>1586.547435359468</v>
       </c>
       <c r="O45" t="n">
-        <v>2339.048442571293</v>
+        <v>1917.487552527653</v>
       </c>
       <c r="P45" t="n">
-        <v>2584.779777186191</v>
+        <v>2376.8032623277</v>
       </c>
       <c r="Q45" t="n">
         <v>2631.145881054214</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>559.9932447349528</v>
+        <v>559.9932447349529</v>
       </c>
       <c r="C46" t="n">
-        <v>472.233155928613</v>
+        <v>472.2331559286131</v>
       </c>
       <c r="D46" t="n">
         <v>403.2926106378445</v>
       </c>
       <c r="E46" t="n">
-        <v>336.5556111770185</v>
+        <v>336.5556111770186</v>
       </c>
       <c r="F46" t="n">
-        <v>270.8417578006753</v>
+        <v>270.8417578006754</v>
       </c>
       <c r="G46" t="n">
-        <v>183.5693481338848</v>
+        <v>183.5693481338849</v>
       </c>
       <c r="H46" t="n">
-        <v>111.8985965143194</v>
+        <v>111.8985965143195</v>
       </c>
       <c r="I46" t="n">
         <v>73.32476822280033</v>
@@ -7807,19 +7807,19 @@
         <v>146.3385235905139</v>
       </c>
       <c r="K46" t="n">
-        <v>344.9774256618338</v>
+        <v>344.9774256618355</v>
       </c>
       <c r="L46" t="n">
-        <v>632.4436645649278</v>
+        <v>632.4436645649292</v>
       </c>
       <c r="M46" t="n">
-        <v>941.6007284770162</v>
+        <v>941.6007284770176</v>
       </c>
       <c r="N46" t="n">
-        <v>1250.733120208856</v>
+        <v>1250.733120208857</v>
       </c>
       <c r="O46" t="n">
-        <v>1526.324138488815</v>
+        <v>1526.324138488816</v>
       </c>
       <c r="P46" t="n">
         <v>1750.101957367261</v>
@@ -7834,7 +7834,7 @@
         <v>1680.389026481852</v>
       </c>
       <c r="T46" t="n">
-        <v>1536.61247274889</v>
+        <v>1536.612472748891</v>
       </c>
       <c r="U46" t="n">
         <v>1328.645027241751</v>
@@ -7843,13 +7843,13 @@
         <v>1155.136633157432</v>
       </c>
       <c r="W46" t="n">
-        <v>946.8955572420384</v>
+        <v>946.8955572420382</v>
       </c>
       <c r="X46" t="n">
-        <v>800.0821004655883</v>
+        <v>800.0821004655882</v>
       </c>
       <c r="Y46" t="n">
-        <v>660.4656154436253</v>
+        <v>660.4656154436254</v>
       </c>
     </row>
   </sheetData>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>115.247316496778</v>
+        <v>402.5571885181428</v>
       </c>
       <c r="N11" t="n">
-        <v>393.8523528674104</v>
+        <v>393.8523528674106</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>20.19128525186321</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>43.76436205276633</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,10 +8766,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>125.3660379646612</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8781,7 +8781,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>128.672084888404</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -8939,7 +8939,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>206.90631461324</v>
+        <v>206.906314613241</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>43.7643620527663</v>
+        <v>43.76436205276633</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9009,22 +9009,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>315.7273986509831</v>
       </c>
       <c r="M15" t="n">
-        <v>128.6720848884032</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9164,28 +9164,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>402.5571885181428</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>393.8523528674106</v>
       </c>
       <c r="O17" t="n">
-        <v>184.9542567930242</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>56.44089397033491</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>43.76436205276633</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,28 +9240,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>255.410361930147</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>423.8184615533935</v>
       </c>
       <c r="N18" t="n">
-        <v>230.0876327870547</v>
+        <v>403.2116123608386</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9398,31 +9398,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>184.9542567930237</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>393.8523528674106</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>41.94829250726053</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>43.76436205276633</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9483,19 +9483,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>423.8184615533935</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>128.6720848884032</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0.2944180016772862</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9635,31 +9635,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>428.4312992849743</v>
+        <v>309.3573390637258</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>166.475139231762</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>43.7643620527663</v>
+        <v>43.76436205276633</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,13 +9714,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>105.6501109151337</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.97808868793219</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9875,13 +9875,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9890,13 +9890,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>213.0765918255564</v>
       </c>
       <c r="Q26" t="n">
-        <v>207.0089374154291</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>43.76436205276633</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,28 +9951,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>20.17005584831003</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.97808868793314</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10109,16 +10109,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>60.37449882614649</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>16.64600457574076</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>43.7643620527663</v>
+        <v>43.76436205276633</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,28 +10188,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>128.6720848884044</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>209.0960838145051</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10346,10 +10346,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>103.5928743139774</v>
+        <v>272.6894894860517</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>43.7643620527663</v>
+        <v>43.76436205276633</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10440,7 +10440,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>128.6720848884039</v>
+        <v>128.6720848884044</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10592,22 +10592,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>432.0408711675087</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>270.3427850863667</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>43.76436205276624</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,28 +10662,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>105.650110915134</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>79.69900155035384</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>398.0576104077193</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10838,13 +10838,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>101.246169914293</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>43.76436205276624</v>
+        <v>43.76436205276633</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,28 +10899,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>128.6720848884044</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>188.201030590448</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,7 +11060,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>272.6894894860497</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11075,13 +11075,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>270.3427850863692</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>43.76436205276624</v>
+        <v>43.76436205276633</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11142,16 +11142,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>33.80736644186356</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>128.6720848884036</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11306,19 +11306,19 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>326.2781036663737</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>270.3427850863702</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>43.76436205276624</v>
+        <v>43.76436205276639</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,28 +11373,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>128.6720848884054</v>
       </c>
       <c r="P45" t="n">
-        <v>102.7209755236242</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.97611344649011</v>
+        <v>318.4716714268618</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>301.0107215343888</v>
       </c>
       <c r="D11" t="n">
-        <v>290.4208713840641</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>317.668199835643</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>40.76113535209355</v>
+        <v>40.76113535209362</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,13 +23315,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>3.383522311153638</v>
       </c>
       <c r="W11" t="n">
         <v>284.9787984807942</v>
       </c>
       <c r="X11" t="n">
-        <v>305.4689304418502</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>115.5698099453185</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>87.05620704710246</v>
       </c>
       <c r="I13" t="n">
-        <v>54.29025295233658</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>222.2608280999722</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>107.3373652566319</v>
+        <v>161.4474851524184</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>19.81494416410156</v>
       </c>
     </row>
     <row r="14">
@@ -23498,10 +23498,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>290.4208713840641</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>165.1364726298991</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>247.1997591548757</v>
+        <v>247.1997591548759</v>
       </c>
       <c r="I14" t="n">
-        <v>40.76113535209355</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,22 +23543,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.42729154253642</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>146.8599114426837</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>263.4900882335161</v>
+        <v>263.4900882335162</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>284.9787984807943</v>
       </c>
       <c r="X14" t="n">
-        <v>195.1149918311653</v>
+        <v>305.4689304418503</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>115.5698099453185</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>102.984650862009</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>54.29025295233658</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>57.86261053062141</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>53.1811220186549</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,10 +23710,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>187.8754730872093</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>196.0129732217323</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>100.4122490639207</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>2.062958362184986</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>98.34929070173551</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -24029,13 +24029,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>100.4122490639206</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>100.4122490639218</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>995081.86352274</v>
+        <v>995081.8635227401</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>995081.8635227403</v>
+        <v>995081.86352274</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1169302.829736089</v>
+        <v>1169302.82973609</v>
       </c>
     </row>
     <row r="11">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1169302.829736089</v>
+        <v>1169302.82973609</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>368674.3524226672</v>
+        <v>368674.3524226674</v>
       </c>
       <c r="C2" t="n">
         <v>368674.3524226673</v>
@@ -26323,13 +26323,13 @@
         <v>319964.8647857266</v>
       </c>
       <c r="F2" t="n">
-        <v>319964.8647857267</v>
+        <v>319964.8647857265</v>
       </c>
       <c r="G2" t="n">
-        <v>365872.029677458</v>
+        <v>365872.0296774579</v>
       </c>
       <c r="H2" t="n">
-        <v>365872.0296774579</v>
+        <v>365872.0296774577</v>
       </c>
       <c r="I2" t="n">
         <v>369468.7964389276</v>
@@ -26341,19 +26341,19 @@
         <v>369468.7964389276</v>
       </c>
       <c r="L2" t="n">
+        <v>369468.7964389276</v>
+      </c>
+      <c r="M2" t="n">
+        <v>369468.7964389278</v>
+      </c>
+      <c r="N2" t="n">
+        <v>369468.796438928</v>
+      </c>
+      <c r="O2" t="n">
+        <v>369468.7964389278</v>
+      </c>
+      <c r="P2" t="n">
         <v>369468.7964389275</v>
-      </c>
-      <c r="M2" t="n">
-        <v>369468.7964389275</v>
-      </c>
-      <c r="N2" t="n">
-        <v>369468.7964389279</v>
-      </c>
-      <c r="O2" t="n">
-        <v>369468.7964389279</v>
-      </c>
-      <c r="P2" t="n">
-        <v>369468.7964389279</v>
       </c>
     </row>
     <row r="3">
@@ -26372,37 +26372,37 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>792873.2514315094</v>
+        <v>792873.2514315093</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>64291.46654428122</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>6880.469409226646</v>
+      </c>
+      <c r="J3" t="n">
+        <v>62318.39567828069</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>64291.46654428117</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>6880.469409226676</v>
-      </c>
-      <c r="J3" t="n">
-        <v>62318.39567828071</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>64291.46654428118</v>
-      </c>
       <c r="M3" t="n">
-        <v>162606.9521943978</v>
+        <v>162606.9521943979</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,7 +26427,7 @@
         <v>136192.9102518706</v>
       </c>
       <c r="F4" t="n">
-        <v>136192.9102518706</v>
+        <v>136192.9102518705</v>
       </c>
       <c r="G4" t="n">
         <v>194263.6308833979</v>
@@ -26448,10 +26448,10 @@
         <v>183799.3286943955</v>
       </c>
       <c r="M4" t="n">
-        <v>183799.3286943954</v>
+        <v>183799.3286943955</v>
       </c>
       <c r="N4" t="n">
-        <v>183799.3286943954</v>
+        <v>183799.3286943955</v>
       </c>
       <c r="O4" t="n">
         <v>183799.3286943955</v>
@@ -26488,7 +26488,7 @@
         <v>66663.77131188547</v>
       </c>
       <c r="I5" t="n">
-        <v>68236.91724650885</v>
+        <v>68236.91724650883</v>
       </c>
       <c r="J5" t="n">
         <v>77315.81130726746</v>
@@ -26497,10 +26497,10 @@
         <v>77315.81130726746</v>
       </c>
       <c r="L5" t="n">
+        <v>77315.81130726745</v>
+      </c>
+      <c r="M5" t="n">
         <v>77315.81130726746</v>
-      </c>
-      <c r="M5" t="n">
-        <v>77315.81130726745</v>
       </c>
       <c r="N5" t="n">
         <v>77315.81130726745</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-90476.38674343631</v>
+        <v>-90480.80032130418</v>
       </c>
       <c r="C6" t="n">
-        <v>-90476.38674343625</v>
+        <v>-90480.80032130441</v>
       </c>
       <c r="D6" t="n">
-        <v>-90476.38674343625</v>
+        <v>-90480.80032130436</v>
       </c>
       <c r="E6" t="n">
-        <v>-669008.9190833999</v>
+        <v>-669283.9409259175</v>
       </c>
       <c r="F6" t="n">
-        <v>123864.3323481096</v>
+        <v>123589.3105055917</v>
       </c>
       <c r="G6" t="n">
-        <v>40653.16093789347</v>
+        <v>40633.17890032957</v>
       </c>
       <c r="H6" t="n">
-        <v>104944.6274821745</v>
+        <v>104924.6454446106</v>
       </c>
       <c r="I6" t="n">
-        <v>97017.38316762788</v>
+        <v>97017.38316762789</v>
       </c>
       <c r="J6" t="n">
-        <v>46035.26075898387</v>
+        <v>46035.26075898399</v>
       </c>
       <c r="K6" t="n">
         <v>108353.6564372646</v>
       </c>
       <c r="L6" t="n">
-        <v>44062.18989298336</v>
+        <v>44062.18989298349</v>
       </c>
       <c r="M6" t="n">
-        <v>-54253.29575713309</v>
+        <v>-54253.29575713311</v>
       </c>
       <c r="N6" t="n">
-        <v>108353.656437265</v>
+        <v>108353.6564372651</v>
       </c>
       <c r="O6" t="n">
         <v>108353.6564372649</v>
       </c>
       <c r="P6" t="n">
-        <v>108353.656437265</v>
+        <v>108353.6564372645</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>64.26217023661881</v>
+        <v>64.26217023661879</v>
       </c>
       <c r="F2" t="n">
-        <v>64.26217023661881</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="G2" t="n">
         <v>144.6265034169703</v>
@@ -26707,25 +26707,25 @@
         <v>144.6265034169703</v>
       </c>
       <c r="J2" t="n">
+        <v>80.36433318035142</v>
+      </c>
+      <c r="K2" t="n">
         <v>80.36433318035147</v>
       </c>
-      <c r="K2" t="n">
-        <v>80.36433318035144</v>
-      </c>
       <c r="L2" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="M2" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="N2" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="O2" t="n">
-        <v>80.36433318035149</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="P2" t="n">
-        <v>80.36433318035149</v>
+        <v>80.36433318035148</v>
       </c>
     </row>
     <row r="3">
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>680.4054280642309</v>
+        <v>680.4054280642308</v>
       </c>
       <c r="F3" t="n">
-        <v>680.4054280642309</v>
+        <v>680.4054280642308</v>
       </c>
       <c r="G3" t="n">
-        <v>680.4054280642309</v>
+        <v>680.4054280642308</v>
       </c>
       <c r="H3" t="n">
-        <v>680.4054280642309</v>
+        <v>680.4054280642308</v>
       </c>
       <c r="I3" t="n">
-        <v>680.4054280642309</v>
+        <v>680.4054280642308</v>
       </c>
       <c r="J3" t="n">
         <v>680.4054280642308</v>
       </c>
       <c r="K3" t="n">
-        <v>680.4054280642309</v>
+        <v>680.4054280642308</v>
       </c>
       <c r="L3" t="n">
-        <v>680.4054280642309</v>
+        <v>680.4054280642308</v>
       </c>
       <c r="M3" t="n">
-        <v>680.405428064231</v>
+        <v>680.4054280642308</v>
       </c>
       <c r="N3" t="n">
-        <v>680.405428064231</v>
+        <v>680.4054280642308</v>
       </c>
       <c r="O3" t="n">
-        <v>680.405428064231</v>
+        <v>680.4054280642308</v>
       </c>
       <c r="P3" t="n">
-        <v>680.405428064231</v>
+        <v>680.4054280642306</v>
       </c>
     </row>
     <row r="4">
@@ -26796,22 +26796,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>652.5053859263809</v>
+        <v>652.505385926381</v>
       </c>
       <c r="F4" t="n">
-        <v>652.5053859263809</v>
+        <v>652.505385926381</v>
       </c>
       <c r="G4" t="n">
         <v>652.505385926381</v>
       </c>
       <c r="H4" t="n">
-        <v>652.5053859263809</v>
+        <v>652.505385926381</v>
       </c>
       <c r="I4" t="n">
         <v>678.3794966932127</v>
       </c>
       <c r="J4" t="n">
-        <v>916.5596027850042</v>
+        <v>916.5596027850044</v>
       </c>
       <c r="K4" t="n">
         <v>916.5596027850042</v>
@@ -26820,16 +26820,16 @@
         <v>916.5596027850042</v>
       </c>
       <c r="M4" t="n">
-        <v>916.559602785004</v>
+        <v>916.5596027850042</v>
       </c>
       <c r="N4" t="n">
-        <v>916.559602785004</v>
+        <v>916.5596027850042</v>
       </c>
       <c r="O4" t="n">
-        <v>916.559602785004</v>
+        <v>916.5596027850041</v>
       </c>
       <c r="P4" t="n">
-        <v>916.559602785004</v>
+        <v>916.5596027850041</v>
       </c>
     </row>
   </sheetData>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>64.26217023661881</v>
+        <v>64.26217023661879</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
+        <v>80.36433318035152</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>80.36433318035147</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>80.36433318035148</v>
-      </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>680.4054280642309</v>
+        <v>680.4054280642308</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>652.5053859263809</v>
+        <v>652.505385926381</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>25.87411076683179</v>
+        <v>25.87411076683168</v>
       </c>
       <c r="J4" t="n">
-        <v>238.1801060917916</v>
+        <v>238.1801060917917</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>652.5053859263807</v>
+        <v>652.505385926381</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>64.26217023661881</v>
+        <v>64.26217023661879</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035152</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>652.5053859263809</v>
+        <v>652.505385926381</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>64.26217023661881</v>
+        <v>64.26217023661879</v>
       </c>
       <c r="C11" t="n">
-        <v>64.26217023661881</v>
+        <v>64.26217023661879</v>
       </c>
       <c r="D11" t="n">
-        <v>64.26217023661881</v>
+        <v>64.26217023661879</v>
       </c>
       <c r="E11" t="n">
-        <v>64.26217023661881</v>
+        <v>64.26217023661879</v>
       </c>
       <c r="F11" t="n">
-        <v>64.26217023661881</v>
+        <v>64.26217023661879</v>
       </c>
       <c r="G11" t="n">
-        <v>64.26217023661881</v>
+        <v>64.26217023661879</v>
       </c>
       <c r="H11" t="n">
-        <v>64.26217023661881</v>
+        <v>64.26217023661879</v>
       </c>
       <c r="I11" t="n">
-        <v>64.26217023661881</v>
+        <v>64.26217023661879</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>64.26217023661881</v>
+        <v>64.26217023661879</v>
       </c>
       <c r="T11" t="n">
-        <v>64.26217023661881</v>
+        <v>64.26217023661879</v>
       </c>
       <c r="U11" t="n">
-        <v>64.26217023661881</v>
+        <v>64.26217023661879</v>
       </c>
       <c r="V11" t="n">
-        <v>64.26217023661881</v>
+        <v>64.26217023661879</v>
       </c>
       <c r="W11" t="n">
-        <v>64.26217023661881</v>
+        <v>64.26217023661879</v>
       </c>
       <c r="X11" t="n">
-        <v>64.26217023661881</v>
+        <v>64.26217023661879</v>
       </c>
       <c r="Y11" t="n">
-        <v>64.26217023661881</v>
+        <v>64.26217023661879</v>
       </c>
     </row>
     <row r="12">
@@ -28223,7 +28223,7 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>64.26217023661881</v>
+        <v>64.26217023661879</v>
       </c>
       <c r="C13" t="n">
-        <v>64.26217023661881</v>
+        <v>64.26217023661879</v>
       </c>
       <c r="D13" t="n">
-        <v>64.26217023661881</v>
+        <v>64.26217023661879</v>
       </c>
       <c r="E13" t="n">
-        <v>64.26217023661881</v>
+        <v>64.26217023661879</v>
       </c>
       <c r="F13" t="n">
-        <v>64.26217023661881</v>
+        <v>64.26217023661879</v>
       </c>
       <c r="G13" t="n">
-        <v>64.26217023661881</v>
+        <v>64.26217023661879</v>
       </c>
       <c r="H13" t="n">
-        <v>64.26217023661881</v>
+        <v>64.26217023661879</v>
       </c>
       <c r="I13" t="n">
-        <v>64.26217023661881</v>
+        <v>64.26217023661879</v>
       </c>
       <c r="J13" t="n">
-        <v>64.26217023661881</v>
+        <v>64.26217023661879</v>
       </c>
       <c r="K13" t="n">
-        <v>64.26217023661881</v>
+        <v>64.26217023661879</v>
       </c>
       <c r="L13" t="n">
-        <v>64.26217023661881</v>
+        <v>64.26217023661879</v>
       </c>
       <c r="M13" t="n">
-        <v>64.26217023661881</v>
+        <v>64.26217023661879</v>
       </c>
       <c r="N13" t="n">
-        <v>64.26217023661881</v>
+        <v>64.26217023661879</v>
       </c>
       <c r="O13" t="n">
-        <v>64.26217023661881</v>
+        <v>64.26217023661879</v>
       </c>
       <c r="P13" t="n">
-        <v>64.26217023661881</v>
+        <v>64.26217023661879</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.26217023661881</v>
+        <v>64.26217023661879</v>
       </c>
       <c r="R13" t="n">
-        <v>64.26217023661881</v>
+        <v>64.26217023661879</v>
       </c>
       <c r="S13" t="n">
-        <v>64.26217023661881</v>
+        <v>64.26217023661879</v>
       </c>
       <c r="T13" t="n">
-        <v>64.26217023661881</v>
+        <v>64.26217023661879</v>
       </c>
       <c r="U13" t="n">
-        <v>64.26217023661881</v>
+        <v>64.26217023661879</v>
       </c>
       <c r="V13" t="n">
-        <v>64.26217023661881</v>
+        <v>64.26217023661879</v>
       </c>
       <c r="W13" t="n">
-        <v>64.26217023661881</v>
+        <v>64.26217023661879</v>
       </c>
       <c r="X13" t="n">
-        <v>64.26217023661881</v>
+        <v>64.26217023661879</v>
       </c>
       <c r="Y13" t="n">
-        <v>64.26217023661881</v>
+        <v>64.26217023661879</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>64.26217023661881</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="C14" t="n">
-        <v>64.26217023661881</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="D14" t="n">
-        <v>64.26217023661881</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="E14" t="n">
-        <v>64.26217023661881</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="F14" t="n">
-        <v>64.26217023661881</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="G14" t="n">
-        <v>64.26217023661881</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="H14" t="n">
-        <v>64.26217023661881</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="I14" t="n">
-        <v>64.26217023661881</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>64.26217023661881</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="T14" t="n">
-        <v>64.26217023661881</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="U14" t="n">
-        <v>64.26217023661881</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="V14" t="n">
-        <v>64.26217023661881</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="W14" t="n">
-        <v>64.26217023661881</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="X14" t="n">
-        <v>64.26217023661881</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="Y14" t="n">
-        <v>64.26217023661881</v>
+        <v>64.26217023661873</v>
       </c>
     </row>
     <row r="15">
@@ -28421,7 +28421,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>3.836930773104541e-13</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>64.26217023661881</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="C16" t="n">
-        <v>64.26217023661881</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="D16" t="n">
-        <v>64.26217023661881</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="E16" t="n">
-        <v>64.26217023661881</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="F16" t="n">
-        <v>64.26217023661881</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="G16" t="n">
-        <v>64.26217023661881</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="H16" t="n">
-        <v>64.26217023661881</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="I16" t="n">
-        <v>64.26217023661881</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="J16" t="n">
-        <v>64.26217023661881</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="K16" t="n">
-        <v>64.26217023661881</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="L16" t="n">
-        <v>64.26217023661881</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="M16" t="n">
-        <v>64.26217023661881</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="N16" t="n">
-        <v>64.26217023661881</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="O16" t="n">
-        <v>64.26217023661881</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="P16" t="n">
-        <v>64.26217023661881</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.26217023661881</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="R16" t="n">
-        <v>64.26217023661881</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="S16" t="n">
-        <v>64.26217023661881</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="T16" t="n">
-        <v>64.26217023661881</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="U16" t="n">
-        <v>64.26217023661881</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="V16" t="n">
-        <v>64.26217023661881</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="W16" t="n">
-        <v>64.26217023661881</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="X16" t="n">
-        <v>64.26217023661881</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="Y16" t="n">
-        <v>64.26217023661881</v>
+        <v>64.26217023661873</v>
       </c>
     </row>
     <row r="17">
@@ -28646,7 +28646,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -28719,16 +28719,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>84.51285293938339</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="D19" t="n">
         <v>144.6265034169703</v>
       </c>
       <c r="E19" t="n">
-        <v>144.6265034169703</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>144.6265034169703</v>
@@ -28743,7 +28743,7 @@
         <v>118.5524231889554</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>6.613065132156024</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28779,7 +28779,7 @@
         <v>144.6265034169703</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>77.89978780722791</v>
       </c>
       <c r="W19" t="n">
         <v>144.6265034169703</v>
@@ -28925,7 +28925,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>4.636291350834654e-13</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -28956,7 +28956,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="C22" t="n">
         <v>144.6265034169703</v>
@@ -28974,13 +28974,13 @@
         <v>144.6265034169703</v>
       </c>
       <c r="H22" t="n">
-        <v>144.6265034169703</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>118.5524231889554</v>
       </c>
       <c r="J22" t="n">
-        <v>6.613065132156009</v>
+        <v>6.613065132156024</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29010,19 +29010,19 @@
         <v>144.6265034169703</v>
       </c>
       <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>77.89978780722799</v>
+      </c>
+      <c r="V22" t="n">
         <v>144.6265034169703</v>
-      </c>
-      <c r="U22" t="n">
-        <v>144.6265034169703</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>144.6265034169703</v>
       </c>
       <c r="X22" t="n">
-        <v>77.89978780722743</v>
+        <v>144.6265034169703</v>
       </c>
       <c r="Y22" t="n">
         <v>144.6265034169703</v>
@@ -29217,7 +29217,7 @@
         <v>118.5524231889554</v>
       </c>
       <c r="J25" t="n">
-        <v>6.613065132156009</v>
+        <v>6.613065132156024</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29244,16 +29244,16 @@
         <v>122.1247807672402</v>
       </c>
       <c r="S25" t="n">
+        <v>77.89978780722801</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
         <v>144.6265034169703</v>
       </c>
-      <c r="T25" t="n">
+      <c r="V25" t="n">
         <v>144.6265034169703</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>77.89978780722757</v>
       </c>
       <c r="W25" t="n">
         <v>144.6265034169703</v>
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="C26" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="D26" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="E26" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="F26" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="G26" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="H26" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="I26" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="T26" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="U26" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="V26" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="W26" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="X26" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="Y26" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035142</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="C28" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="D28" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="E28" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="F28" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="G28" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="H28" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="I28" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="J28" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="K28" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="L28" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="M28" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="N28" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="O28" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="P28" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="Q28" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="R28" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="S28" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="T28" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="U28" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="V28" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="W28" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="X28" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="Y28" t="n">
-        <v>80.36433318035147</v>
+        <v>80.36433318035142</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="C29" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="D29" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="E29" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="F29" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="G29" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="H29" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="I29" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="T29" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="U29" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="V29" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="W29" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="X29" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="Y29" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035147</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="C31" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="D31" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="E31" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="F31" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="G31" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="H31" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="I31" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="J31" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="K31" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="L31" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="M31" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="N31" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="O31" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="P31" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="Q31" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="R31" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="S31" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="T31" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="U31" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="V31" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="W31" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="X31" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="Y31" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035147</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="C32" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="D32" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="E32" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="F32" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="G32" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="H32" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="I32" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="T32" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="U32" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="V32" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="W32" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="X32" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="Y32" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="C34" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="D34" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="E34" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="F34" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="G34" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="H34" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="I34" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="J34" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="K34" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="L34" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="M34" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="N34" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="O34" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="P34" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="Q34" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="R34" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="S34" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="T34" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="U34" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="V34" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="W34" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="X34" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="Y34" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035141</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="C35" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="D35" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="E35" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="F35" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="G35" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="H35" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="I35" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="T35" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="U35" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="V35" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="W35" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="X35" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="Y35" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035147</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="C37" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="D37" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="E37" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="F37" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="G37" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="H37" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="I37" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="J37" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="K37" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="L37" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="M37" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="N37" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="O37" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="P37" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="Q37" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035077</v>
       </c>
       <c r="R37" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="S37" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="T37" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="U37" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="V37" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="W37" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="X37" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="Y37" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035147</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="C38" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="D38" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="E38" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="F38" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="G38" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="H38" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="I38" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="T38" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="U38" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="V38" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="W38" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="X38" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="Y38" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="C40" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="D40" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="E40" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="F40" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="G40" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="H40" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="I40" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="J40" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="K40" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="L40" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="M40" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="N40" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035216</v>
       </c>
       <c r="O40" t="n">
-        <v>80.36433318035077</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="P40" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="Q40" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="R40" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="S40" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="T40" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="U40" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="V40" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="W40" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="X40" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="Y40" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>80.36433318035149</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="C41" t="n">
-        <v>80.36433318035149</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="D41" t="n">
-        <v>80.36433318035149</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="E41" t="n">
-        <v>80.36433318035149</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="F41" t="n">
-        <v>80.36433318035149</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="G41" t="n">
-        <v>80.36433318035149</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="H41" t="n">
-        <v>80.36433318035149</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="I41" t="n">
-        <v>80.36433318035149</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>80.36433318035149</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="T41" t="n">
-        <v>80.36433318035149</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="U41" t="n">
-        <v>80.36433318035149</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="V41" t="n">
-        <v>80.36433318035149</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="W41" t="n">
-        <v>80.36433318035149</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="X41" t="n">
-        <v>80.36433318035149</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="Y41" t="n">
-        <v>80.36433318035149</v>
+        <v>80.36433318035147</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>80.36433318035149</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="C43" t="n">
-        <v>80.36433318035149</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="D43" t="n">
-        <v>80.36433318035149</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="E43" t="n">
-        <v>80.36433318035149</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="F43" t="n">
-        <v>80.36433318035149</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="G43" t="n">
-        <v>80.36433318035149</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="H43" t="n">
-        <v>80.36433318035149</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="I43" t="n">
-        <v>80.36433318035149</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="J43" t="n">
-        <v>80.36433318035149</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="K43" t="n">
-        <v>80.36433318035149</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="L43" t="n">
-        <v>80.36433318035149</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="M43" t="n">
-        <v>80.36433318035149</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="N43" t="n">
-        <v>80.36433318035149</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="O43" t="n">
-        <v>80.36433318035149</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="P43" t="n">
-        <v>80.36433318035149</v>
+        <v>80.36433318035037</v>
       </c>
       <c r="Q43" t="n">
-        <v>80.36433318034958</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="R43" t="n">
-        <v>80.36433318035149</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="S43" t="n">
-        <v>80.36433318035149</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="T43" t="n">
-        <v>80.36433318035149</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="U43" t="n">
-        <v>80.36433318035149</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="V43" t="n">
-        <v>80.36433318035149</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="W43" t="n">
-        <v>80.36433318035149</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="X43" t="n">
-        <v>80.36433318035149</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="Y43" t="n">
-        <v>80.36433318035149</v>
+        <v>80.36433318035147</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>80.36433318035149</v>
+        <v>80.36433318035148</v>
       </c>
       <c r="C44" t="n">
-        <v>80.36433318035149</v>
+        <v>80.36433318035148</v>
       </c>
       <c r="D44" t="n">
-        <v>80.36433318035149</v>
+        <v>80.36433318035148</v>
       </c>
       <c r="E44" t="n">
-        <v>80.36433318035149</v>
+        <v>80.36433318035148</v>
       </c>
       <c r="F44" t="n">
-        <v>80.36433318035149</v>
+        <v>80.36433318035148</v>
       </c>
       <c r="G44" t="n">
-        <v>80.36433318035149</v>
+        <v>80.36433318035148</v>
       </c>
       <c r="H44" t="n">
-        <v>80.36433318035149</v>
+        <v>80.36433318035148</v>
       </c>
       <c r="I44" t="n">
-        <v>80.36433318035149</v>
+        <v>80.36433318035148</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>80.36433318035149</v>
+        <v>80.36433318035148</v>
       </c>
       <c r="T44" t="n">
-        <v>80.36433318035149</v>
+        <v>80.36433318035148</v>
       </c>
       <c r="U44" t="n">
-        <v>80.36433318035149</v>
+        <v>80.36433318035148</v>
       </c>
       <c r="V44" t="n">
-        <v>80.36433318035149</v>
+        <v>80.36433318035148</v>
       </c>
       <c r="W44" t="n">
-        <v>80.36433318035149</v>
+        <v>80.36433318035148</v>
       </c>
       <c r="X44" t="n">
-        <v>80.36433318035149</v>
+        <v>80.36433318035148</v>
       </c>
       <c r="Y44" t="n">
-        <v>80.36433318035149</v>
+        <v>80.36433318035148</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>80.36433318035149</v>
+        <v>80.36433318035148</v>
       </c>
       <c r="C46" t="n">
-        <v>80.36433318035149</v>
+        <v>80.36433318035148</v>
       </c>
       <c r="D46" t="n">
-        <v>80.36433318035149</v>
+        <v>80.36433318035148</v>
       </c>
       <c r="E46" t="n">
-        <v>80.36433318035149</v>
+        <v>80.36433318035148</v>
       </c>
       <c r="F46" t="n">
-        <v>80.36433318035149</v>
+        <v>80.36433318035148</v>
       </c>
       <c r="G46" t="n">
-        <v>80.36433318035149</v>
+        <v>80.36433318035148</v>
       </c>
       <c r="H46" t="n">
-        <v>80.36433318035149</v>
+        <v>80.36433318035148</v>
       </c>
       <c r="I46" t="n">
-        <v>80.36433318035149</v>
+        <v>80.36433318035148</v>
       </c>
       <c r="J46" t="n">
-        <v>80.36433318035149</v>
+        <v>80.36433318035148</v>
       </c>
       <c r="K46" t="n">
-        <v>80.36433318034975</v>
+        <v>80.36433318035148</v>
       </c>
       <c r="L46" t="n">
-        <v>80.36433318035149</v>
+        <v>80.36433318035148</v>
       </c>
       <c r="M46" t="n">
-        <v>80.36433318035149</v>
+        <v>80.36433318035148</v>
       </c>
       <c r="N46" t="n">
-        <v>80.36433318035149</v>
+        <v>80.36433318035148</v>
       </c>
       <c r="O46" t="n">
-        <v>80.36433318035149</v>
+        <v>80.36433318035148</v>
       </c>
       <c r="P46" t="n">
-        <v>80.36433318035149</v>
+        <v>80.36433318035148</v>
       </c>
       <c r="Q46" t="n">
-        <v>80.36433318035149</v>
+        <v>80.36433318035148</v>
       </c>
       <c r="R46" t="n">
-        <v>80.36433318035149</v>
+        <v>80.36433318035148</v>
       </c>
       <c r="S46" t="n">
-        <v>80.36433318035149</v>
+        <v>80.36433318035148</v>
       </c>
       <c r="T46" t="n">
-        <v>80.36433318035149</v>
+        <v>80.36433318035148</v>
       </c>
       <c r="U46" t="n">
-        <v>80.36433318035149</v>
+        <v>80.36433318035148</v>
       </c>
       <c r="V46" t="n">
-        <v>80.36433318035149</v>
+        <v>80.36433318035148</v>
       </c>
       <c r="W46" t="n">
-        <v>80.36433318035149</v>
+        <v>80.36433318035148</v>
       </c>
       <c r="X46" t="n">
-        <v>80.36433318035149</v>
+        <v>80.36433318035148</v>
       </c>
       <c r="Y46" t="n">
-        <v>80.36433318035149</v>
+        <v>80.36433318035148</v>
       </c>
     </row>
   </sheetData>
@@ -31759,34 +31759,34 @@
         <v>105.4525839816935</v>
       </c>
       <c r="J11" t="n">
-        <v>232.1550158800665</v>
+        <v>232.1550158800664</v>
       </c>
       <c r="K11" t="n">
-        <v>347.9401888246248</v>
+        <v>347.9401888246247</v>
       </c>
       <c r="L11" t="n">
-        <v>431.6505712130498</v>
+        <v>431.6505712130497</v>
       </c>
       <c r="M11" t="n">
-        <v>480.2944306355111</v>
+        <v>480.294430635511</v>
       </c>
       <c r="N11" t="n">
-        <v>488.0660966555614</v>
+        <v>488.0660966555613</v>
       </c>
       <c r="O11" t="n">
-        <v>460.8669751467626</v>
+        <v>460.8669751467625</v>
       </c>
       <c r="P11" t="n">
-        <v>393.3393007534532</v>
+        <v>393.3393007534531</v>
       </c>
       <c r="Q11" t="n">
-        <v>295.3814338487285</v>
+        <v>295.3814338487284</v>
       </c>
       <c r="R11" t="n">
         <v>171.8211757613658</v>
       </c>
       <c r="S11" t="n">
-        <v>62.33060780709012</v>
+        <v>62.3306078070901</v>
       </c>
       <c r="T11" t="n">
         <v>11.97376788482882</v>
@@ -31829,13 +31829,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.463513562251365</v>
+        <v>1.463513562251364</v>
       </c>
       <c r="H12" t="n">
         <v>14.1344599301645</v>
       </c>
       <c r="I12" t="n">
-        <v>50.38851519154918</v>
+        <v>50.38851519154917</v>
       </c>
       <c r="J12" t="n">
         <v>138.2699370370906</v>
@@ -31850,7 +31850,7 @@
         <v>370.8209582950058</v>
       </c>
       <c r="N12" t="n">
-        <v>380.6354856488758</v>
+        <v>380.6354856488757</v>
       </c>
       <c r="O12" t="n">
         <v>348.2071061905692</v>
@@ -31862,16 +31862,16 @@
         <v>186.8162224375602</v>
       </c>
       <c r="R12" t="n">
-        <v>90.86621924223827</v>
+        <v>90.86621924223826</v>
       </c>
       <c r="S12" t="n">
         <v>27.18412252690581</v>
       </c>
       <c r="T12" t="n">
-        <v>5.898986682934226</v>
+        <v>5.898986682934225</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0962837869902214</v>
+        <v>0.09628378699022139</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,16 +31908,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.226960607984679</v>
+        <v>1.226960607984678</v>
       </c>
       <c r="H13" t="n">
         <v>10.90879522371833</v>
       </c>
       <c r="I13" t="n">
-        <v>36.89805173830289</v>
+        <v>36.89805173830288</v>
       </c>
       <c r="J13" t="n">
-        <v>86.74611498451677</v>
+        <v>86.74611498451675</v>
       </c>
       <c r="K13" t="n">
         <v>142.550514273129</v>
@@ -31935,22 +31935,22 @@
         <v>173.4253048449617</v>
       </c>
       <c r="P13" t="n">
-        <v>148.3953084420742</v>
+        <v>148.3953084420741</v>
       </c>
       <c r="Q13" t="n">
-        <v>102.7412196376989</v>
+        <v>102.7412196376988</v>
       </c>
       <c r="R13" t="n">
-        <v>55.16861060992926</v>
+        <v>55.16861060992925</v>
       </c>
       <c r="S13" t="n">
-        <v>21.38257714096935</v>
+        <v>21.38257714096934</v>
       </c>
       <c r="T13" t="n">
-        <v>5.242468052298171</v>
+        <v>5.24246805229817</v>
       </c>
       <c r="U13" t="n">
-        <v>0.06692512407189163</v>
+        <v>0.06692512407189162</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31996,34 +31996,34 @@
         <v>105.4525839816935</v>
       </c>
       <c r="J14" t="n">
-        <v>232.1550158800665</v>
+        <v>232.1550158800664</v>
       </c>
       <c r="K14" t="n">
-        <v>347.9401888246248</v>
+        <v>347.9401888246247</v>
       </c>
       <c r="L14" t="n">
-        <v>431.6505712130498</v>
+        <v>431.6505712130497</v>
       </c>
       <c r="M14" t="n">
-        <v>480.2944306355111</v>
+        <v>480.294430635511</v>
       </c>
       <c r="N14" t="n">
-        <v>488.0660966555614</v>
+        <v>488.0660966555613</v>
       </c>
       <c r="O14" t="n">
-        <v>460.8669751467626</v>
+        <v>460.8669751467625</v>
       </c>
       <c r="P14" t="n">
-        <v>393.3393007534532</v>
+        <v>393.3393007534531</v>
       </c>
       <c r="Q14" t="n">
-        <v>295.3814338487285</v>
+        <v>295.3814338487284</v>
       </c>
       <c r="R14" t="n">
         <v>171.8211757613658</v>
       </c>
       <c r="S14" t="n">
-        <v>62.33060780709012</v>
+        <v>62.3306078070901</v>
       </c>
       <c r="T14" t="n">
         <v>11.97376788482882</v>
@@ -32066,13 +32066,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.463513562251365</v>
+        <v>1.463513562251364</v>
       </c>
       <c r="H15" t="n">
         <v>14.1344599301645</v>
       </c>
       <c r="I15" t="n">
-        <v>50.38851519154918</v>
+        <v>50.38851519154917</v>
       </c>
       <c r="J15" t="n">
         <v>138.2699370370906</v>
@@ -32087,7 +32087,7 @@
         <v>370.8209582950058</v>
       </c>
       <c r="N15" t="n">
-        <v>380.6354856488758</v>
+        <v>380.6354856488757</v>
       </c>
       <c r="O15" t="n">
         <v>348.2071061905692</v>
@@ -32099,16 +32099,16 @@
         <v>186.8162224375602</v>
       </c>
       <c r="R15" t="n">
-        <v>90.86621924223827</v>
+        <v>90.86621924223826</v>
       </c>
       <c r="S15" t="n">
         <v>27.18412252690581</v>
       </c>
       <c r="T15" t="n">
-        <v>5.898986682934226</v>
+        <v>5.898986682934225</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0962837869902214</v>
+        <v>0.09628378699022139</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,16 +32145,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.226960607984679</v>
+        <v>1.226960607984678</v>
       </c>
       <c r="H16" t="n">
         <v>10.90879522371833</v>
       </c>
       <c r="I16" t="n">
-        <v>36.89805173830289</v>
+        <v>36.89805173830288</v>
       </c>
       <c r="J16" t="n">
-        <v>86.74611498451677</v>
+        <v>86.74611498451675</v>
       </c>
       <c r="K16" t="n">
         <v>142.550514273129</v>
@@ -32172,22 +32172,22 @@
         <v>173.4253048449617</v>
       </c>
       <c r="P16" t="n">
-        <v>148.3953084420742</v>
+        <v>148.3953084420741</v>
       </c>
       <c r="Q16" t="n">
-        <v>102.7412196376989</v>
+        <v>102.7412196376988</v>
       </c>
       <c r="R16" t="n">
-        <v>55.16861060992926</v>
+        <v>55.16861060992925</v>
       </c>
       <c r="S16" t="n">
-        <v>21.38257714096935</v>
+        <v>21.38257714096934</v>
       </c>
       <c r="T16" t="n">
-        <v>5.242468052298171</v>
+        <v>5.24246805229817</v>
       </c>
       <c r="U16" t="n">
-        <v>0.06692512407189163</v>
+        <v>0.06692512407189162</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32233,34 +32233,34 @@
         <v>105.4525839816935</v>
       </c>
       <c r="J17" t="n">
-        <v>232.1550158800665</v>
+        <v>232.1550158800664</v>
       </c>
       <c r="K17" t="n">
-        <v>347.9401888246248</v>
+        <v>347.9401888246247</v>
       </c>
       <c r="L17" t="n">
-        <v>431.6505712130498</v>
+        <v>431.6505712130497</v>
       </c>
       <c r="M17" t="n">
-        <v>480.2944306355111</v>
+        <v>480.294430635511</v>
       </c>
       <c r="N17" t="n">
-        <v>488.0660966555614</v>
+        <v>488.0660966555613</v>
       </c>
       <c r="O17" t="n">
-        <v>460.8669751467626</v>
+        <v>460.8669751467625</v>
       </c>
       <c r="P17" t="n">
-        <v>393.3393007534532</v>
+        <v>393.3393007534531</v>
       </c>
       <c r="Q17" t="n">
-        <v>295.3814338487285</v>
+        <v>295.3814338487284</v>
       </c>
       <c r="R17" t="n">
         <v>171.8211757613658</v>
       </c>
       <c r="S17" t="n">
-        <v>62.33060780709012</v>
+        <v>62.3306078070901</v>
       </c>
       <c r="T17" t="n">
         <v>11.97376788482882</v>
@@ -32303,13 +32303,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.463513562251365</v>
+        <v>1.463513562251364</v>
       </c>
       <c r="H18" t="n">
         <v>14.1344599301645</v>
       </c>
       <c r="I18" t="n">
-        <v>50.38851519154918</v>
+        <v>50.38851519154917</v>
       </c>
       <c r="J18" t="n">
         <v>138.2699370370906</v>
@@ -32324,7 +32324,7 @@
         <v>370.8209582950058</v>
       </c>
       <c r="N18" t="n">
-        <v>380.6354856488758</v>
+        <v>380.6354856488757</v>
       </c>
       <c r="O18" t="n">
         <v>348.2071061905692</v>
@@ -32336,16 +32336,16 @@
         <v>186.8162224375602</v>
       </c>
       <c r="R18" t="n">
-        <v>90.86621924223827</v>
+        <v>90.86621924223826</v>
       </c>
       <c r="S18" t="n">
         <v>27.18412252690581</v>
       </c>
       <c r="T18" t="n">
-        <v>5.898986682934226</v>
+        <v>5.898986682934225</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0962837869902214</v>
+        <v>0.09628378699022139</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,16 +32382,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.226960607984679</v>
+        <v>1.226960607984678</v>
       </c>
       <c r="H19" t="n">
         <v>10.90879522371833</v>
       </c>
       <c r="I19" t="n">
-        <v>36.89805173830289</v>
+        <v>36.89805173830288</v>
       </c>
       <c r="J19" t="n">
-        <v>86.74611498451677</v>
+        <v>86.74611498451675</v>
       </c>
       <c r="K19" t="n">
         <v>142.550514273129</v>
@@ -32409,22 +32409,22 @@
         <v>173.4253048449617</v>
       </c>
       <c r="P19" t="n">
-        <v>148.3953084420742</v>
+        <v>148.3953084420741</v>
       </c>
       <c r="Q19" t="n">
-        <v>102.7412196376989</v>
+        <v>102.7412196376988</v>
       </c>
       <c r="R19" t="n">
-        <v>55.16861060992926</v>
+        <v>55.16861060992925</v>
       </c>
       <c r="S19" t="n">
-        <v>21.38257714096935</v>
+        <v>21.38257714096934</v>
       </c>
       <c r="T19" t="n">
-        <v>5.242468052298171</v>
+        <v>5.24246805229817</v>
       </c>
       <c r="U19" t="n">
-        <v>0.06692512407189163</v>
+        <v>0.06692512407189162</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32470,34 +32470,34 @@
         <v>105.4525839816935</v>
       </c>
       <c r="J20" t="n">
-        <v>232.1550158800665</v>
+        <v>232.1550158800664</v>
       </c>
       <c r="K20" t="n">
-        <v>347.9401888246248</v>
+        <v>347.9401888246247</v>
       </c>
       <c r="L20" t="n">
-        <v>431.6505712130498</v>
+        <v>431.6505712130497</v>
       </c>
       <c r="M20" t="n">
-        <v>480.2944306355111</v>
+        <v>480.294430635511</v>
       </c>
       <c r="N20" t="n">
-        <v>488.0660966555614</v>
+        <v>488.0660966555613</v>
       </c>
       <c r="O20" t="n">
-        <v>460.8669751467626</v>
+        <v>460.8669751467625</v>
       </c>
       <c r="P20" t="n">
-        <v>393.3393007534532</v>
+        <v>393.3393007534531</v>
       </c>
       <c r="Q20" t="n">
-        <v>295.3814338487285</v>
+        <v>295.3814338487284</v>
       </c>
       <c r="R20" t="n">
         <v>171.8211757613658</v>
       </c>
       <c r="S20" t="n">
-        <v>62.33060780709012</v>
+        <v>62.3306078070901</v>
       </c>
       <c r="T20" t="n">
         <v>11.97376788482882</v>
@@ -32540,13 +32540,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.463513562251365</v>
+        <v>1.463513562251364</v>
       </c>
       <c r="H21" t="n">
         <v>14.1344599301645</v>
       </c>
       <c r="I21" t="n">
-        <v>50.38851519154918</v>
+        <v>50.38851519154917</v>
       </c>
       <c r="J21" t="n">
         <v>138.2699370370906</v>
@@ -32561,7 +32561,7 @@
         <v>370.8209582950058</v>
       </c>
       <c r="N21" t="n">
-        <v>380.6354856488758</v>
+        <v>380.6354856488757</v>
       </c>
       <c r="O21" t="n">
         <v>348.2071061905692</v>
@@ -32573,16 +32573,16 @@
         <v>186.8162224375602</v>
       </c>
       <c r="R21" t="n">
-        <v>90.86621924223827</v>
+        <v>90.86621924223826</v>
       </c>
       <c r="S21" t="n">
         <v>27.18412252690581</v>
       </c>
       <c r="T21" t="n">
-        <v>5.898986682934226</v>
+        <v>5.898986682934225</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0962837869902214</v>
+        <v>0.09628378699022139</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,16 +32619,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.226960607984679</v>
+        <v>1.226960607984678</v>
       </c>
       <c r="H22" t="n">
         <v>10.90879522371833</v>
       </c>
       <c r="I22" t="n">
-        <v>36.89805173830289</v>
+        <v>36.89805173830288</v>
       </c>
       <c r="J22" t="n">
-        <v>86.74611498451677</v>
+        <v>86.74611498451675</v>
       </c>
       <c r="K22" t="n">
         <v>142.550514273129</v>
@@ -32646,22 +32646,22 @@
         <v>173.4253048449617</v>
       </c>
       <c r="P22" t="n">
-        <v>148.3953084420742</v>
+        <v>148.3953084420741</v>
       </c>
       <c r="Q22" t="n">
-        <v>102.7412196376989</v>
+        <v>102.7412196376988</v>
       </c>
       <c r="R22" t="n">
-        <v>55.16861060992926</v>
+        <v>55.16861060992925</v>
       </c>
       <c r="S22" t="n">
-        <v>21.38257714096935</v>
+        <v>21.38257714096934</v>
       </c>
       <c r="T22" t="n">
-        <v>5.242468052298171</v>
+        <v>5.24246805229817</v>
       </c>
       <c r="U22" t="n">
-        <v>0.06692512407189163</v>
+        <v>0.06692512407189162</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32707,34 +32707,34 @@
         <v>105.4525839816935</v>
       </c>
       <c r="J23" t="n">
-        <v>232.1550158800665</v>
+        <v>232.1550158800664</v>
       </c>
       <c r="K23" t="n">
-        <v>347.9401888246248</v>
+        <v>347.9401888246247</v>
       </c>
       <c r="L23" t="n">
-        <v>431.6505712130498</v>
+        <v>431.6505712130497</v>
       </c>
       <c r="M23" t="n">
-        <v>480.2944306355111</v>
+        <v>480.294430635511</v>
       </c>
       <c r="N23" t="n">
-        <v>488.0660966555614</v>
+        <v>488.0660966555613</v>
       </c>
       <c r="O23" t="n">
-        <v>460.8669751467626</v>
+        <v>460.8669751467625</v>
       </c>
       <c r="P23" t="n">
-        <v>393.3393007534532</v>
+        <v>393.3393007534531</v>
       </c>
       <c r="Q23" t="n">
-        <v>295.3814338487285</v>
+        <v>295.3814338487284</v>
       </c>
       <c r="R23" t="n">
         <v>171.8211757613658</v>
       </c>
       <c r="S23" t="n">
-        <v>62.33060780709012</v>
+        <v>62.3306078070901</v>
       </c>
       <c r="T23" t="n">
         <v>11.97376788482882</v>
@@ -32777,13 +32777,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.463513562251365</v>
+        <v>1.463513562251364</v>
       </c>
       <c r="H24" t="n">
         <v>14.1344599301645</v>
       </c>
       <c r="I24" t="n">
-        <v>50.38851519154918</v>
+        <v>50.38851519154917</v>
       </c>
       <c r="J24" t="n">
         <v>138.2699370370906</v>
@@ -32798,7 +32798,7 @@
         <v>370.8209582950058</v>
       </c>
       <c r="N24" t="n">
-        <v>380.6354856488758</v>
+        <v>380.6354856488757</v>
       </c>
       <c r="O24" t="n">
         <v>348.2071061905692</v>
@@ -32810,16 +32810,16 @@
         <v>186.8162224375602</v>
       </c>
       <c r="R24" t="n">
-        <v>90.86621924223827</v>
+        <v>90.86621924223826</v>
       </c>
       <c r="S24" t="n">
         <v>27.18412252690581</v>
       </c>
       <c r="T24" t="n">
-        <v>5.898986682934226</v>
+        <v>5.898986682934225</v>
       </c>
       <c r="U24" t="n">
-        <v>0.0962837869902214</v>
+        <v>0.09628378699022139</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,16 +32856,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.226960607984679</v>
+        <v>1.226960607984678</v>
       </c>
       <c r="H25" t="n">
         <v>10.90879522371833</v>
       </c>
       <c r="I25" t="n">
-        <v>36.89805173830289</v>
+        <v>36.89805173830288</v>
       </c>
       <c r="J25" t="n">
-        <v>86.74611498451677</v>
+        <v>86.74611498451675</v>
       </c>
       <c r="K25" t="n">
         <v>142.550514273129</v>
@@ -32883,22 +32883,22 @@
         <v>173.4253048449617</v>
       </c>
       <c r="P25" t="n">
-        <v>148.3953084420742</v>
+        <v>148.3953084420741</v>
       </c>
       <c r="Q25" t="n">
-        <v>102.7412196376989</v>
+        <v>102.7412196376988</v>
       </c>
       <c r="R25" t="n">
-        <v>55.16861060992926</v>
+        <v>55.16861060992925</v>
       </c>
       <c r="S25" t="n">
-        <v>21.38257714096935</v>
+        <v>21.38257714096934</v>
       </c>
       <c r="T25" t="n">
-        <v>5.242468052298171</v>
+        <v>5.24246805229817</v>
       </c>
       <c r="U25" t="n">
-        <v>0.06692512407189163</v>
+        <v>0.06692512407189162</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33181,34 +33181,34 @@
         <v>105.4525839816935</v>
       </c>
       <c r="J29" t="n">
-        <v>232.1550158800665</v>
+        <v>232.1550158800664</v>
       </c>
       <c r="K29" t="n">
-        <v>347.9401888246248</v>
+        <v>347.9401888246247</v>
       </c>
       <c r="L29" t="n">
-        <v>431.6505712130498</v>
+        <v>431.6505712130497</v>
       </c>
       <c r="M29" t="n">
-        <v>480.2944306355111</v>
+        <v>480.294430635511</v>
       </c>
       <c r="N29" t="n">
-        <v>488.0660966555614</v>
+        <v>488.0660966555613</v>
       </c>
       <c r="O29" t="n">
-        <v>460.8669751467626</v>
+        <v>460.8669751467625</v>
       </c>
       <c r="P29" t="n">
-        <v>393.3393007534532</v>
+        <v>393.3393007534531</v>
       </c>
       <c r="Q29" t="n">
-        <v>295.3814338487285</v>
+        <v>295.3814338487284</v>
       </c>
       <c r="R29" t="n">
         <v>171.8211757613658</v>
       </c>
       <c r="S29" t="n">
-        <v>62.33060780709012</v>
+        <v>62.3306078070901</v>
       </c>
       <c r="T29" t="n">
         <v>11.97376788482882</v>
@@ -33251,13 +33251,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.463513562251365</v>
+        <v>1.463513562251364</v>
       </c>
       <c r="H30" t="n">
         <v>14.1344599301645</v>
       </c>
       <c r="I30" t="n">
-        <v>50.38851519154918</v>
+        <v>50.38851519154917</v>
       </c>
       <c r="J30" t="n">
         <v>138.2699370370906</v>
@@ -33272,7 +33272,7 @@
         <v>370.8209582950058</v>
       </c>
       <c r="N30" t="n">
-        <v>380.6354856488758</v>
+        <v>380.6354856488757</v>
       </c>
       <c r="O30" t="n">
         <v>348.2071061905692</v>
@@ -33284,16 +33284,16 @@
         <v>186.8162224375602</v>
       </c>
       <c r="R30" t="n">
-        <v>90.86621924223827</v>
+        <v>90.86621924223826</v>
       </c>
       <c r="S30" t="n">
         <v>27.18412252690581</v>
       </c>
       <c r="T30" t="n">
-        <v>5.898986682934226</v>
+        <v>5.898986682934225</v>
       </c>
       <c r="U30" t="n">
-        <v>0.0962837869902214</v>
+        <v>0.09628378699022139</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,16 +33330,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.226960607984679</v>
+        <v>1.226960607984678</v>
       </c>
       <c r="H31" t="n">
         <v>10.90879522371833</v>
       </c>
       <c r="I31" t="n">
-        <v>36.89805173830289</v>
+        <v>36.89805173830288</v>
       </c>
       <c r="J31" t="n">
-        <v>86.74611498451677</v>
+        <v>86.74611498451675</v>
       </c>
       <c r="K31" t="n">
         <v>142.550514273129</v>
@@ -33357,22 +33357,22 @@
         <v>173.4253048449617</v>
       </c>
       <c r="P31" t="n">
-        <v>148.3953084420742</v>
+        <v>148.3953084420741</v>
       </c>
       <c r="Q31" t="n">
-        <v>102.7412196376989</v>
+        <v>102.7412196376988</v>
       </c>
       <c r="R31" t="n">
-        <v>55.16861060992926</v>
+        <v>55.16861060992925</v>
       </c>
       <c r="S31" t="n">
-        <v>21.38257714096935</v>
+        <v>21.38257714096934</v>
       </c>
       <c r="T31" t="n">
-        <v>5.242468052298171</v>
+        <v>5.24246805229817</v>
       </c>
       <c r="U31" t="n">
-        <v>0.06692512407189163</v>
+        <v>0.06692512407189162</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33418,34 +33418,34 @@
         <v>105.4525839816935</v>
       </c>
       <c r="J32" t="n">
-        <v>232.1550158800665</v>
+        <v>232.1550158800664</v>
       </c>
       <c r="K32" t="n">
-        <v>347.9401888246248</v>
+        <v>347.9401888246247</v>
       </c>
       <c r="L32" t="n">
-        <v>431.6505712130498</v>
+        <v>431.6505712130497</v>
       </c>
       <c r="M32" t="n">
-        <v>480.2944306355111</v>
+        <v>480.294430635511</v>
       </c>
       <c r="N32" t="n">
-        <v>488.0660966555614</v>
+        <v>488.0660966555613</v>
       </c>
       <c r="O32" t="n">
-        <v>460.8669751467626</v>
+        <v>460.8669751467625</v>
       </c>
       <c r="P32" t="n">
-        <v>393.3393007534532</v>
+        <v>393.3393007534531</v>
       </c>
       <c r="Q32" t="n">
-        <v>295.3814338487285</v>
+        <v>295.3814338487284</v>
       </c>
       <c r="R32" t="n">
         <v>171.8211757613658</v>
       </c>
       <c r="S32" t="n">
-        <v>62.33060780709012</v>
+        <v>62.3306078070901</v>
       </c>
       <c r="T32" t="n">
         <v>11.97376788482882</v>
@@ -33488,13 +33488,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.463513562251365</v>
+        <v>1.463513562251364</v>
       </c>
       <c r="H33" t="n">
         <v>14.1344599301645</v>
       </c>
       <c r="I33" t="n">
-        <v>50.38851519154918</v>
+        <v>50.38851519154917</v>
       </c>
       <c r="J33" t="n">
         <v>138.2699370370906</v>
@@ -33509,7 +33509,7 @@
         <v>370.8209582950058</v>
       </c>
       <c r="N33" t="n">
-        <v>380.6354856488758</v>
+        <v>380.6354856488757</v>
       </c>
       <c r="O33" t="n">
         <v>348.2071061905692</v>
@@ -33521,16 +33521,16 @@
         <v>186.8162224375602</v>
       </c>
       <c r="R33" t="n">
-        <v>90.86621924223827</v>
+        <v>90.86621924223826</v>
       </c>
       <c r="S33" t="n">
         <v>27.18412252690581</v>
       </c>
       <c r="T33" t="n">
-        <v>5.898986682934226</v>
+        <v>5.898986682934225</v>
       </c>
       <c r="U33" t="n">
-        <v>0.0962837869902214</v>
+        <v>0.09628378699022139</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,16 +33567,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.226960607984679</v>
+        <v>1.226960607984678</v>
       </c>
       <c r="H34" t="n">
         <v>10.90879522371833</v>
       </c>
       <c r="I34" t="n">
-        <v>36.89805173830289</v>
+        <v>36.89805173830288</v>
       </c>
       <c r="J34" t="n">
-        <v>86.74611498451677</v>
+        <v>86.74611498451675</v>
       </c>
       <c r="K34" t="n">
         <v>142.550514273129</v>
@@ -33594,22 +33594,22 @@
         <v>173.4253048449617</v>
       </c>
       <c r="P34" t="n">
-        <v>148.3953084420742</v>
+        <v>148.3953084420741</v>
       </c>
       <c r="Q34" t="n">
-        <v>102.7412196376989</v>
+        <v>102.7412196376988</v>
       </c>
       <c r="R34" t="n">
-        <v>55.16861060992926</v>
+        <v>55.16861060992925</v>
       </c>
       <c r="S34" t="n">
-        <v>21.38257714096935</v>
+        <v>21.38257714096934</v>
       </c>
       <c r="T34" t="n">
-        <v>5.242468052298171</v>
+        <v>5.24246805229817</v>
       </c>
       <c r="U34" t="n">
-        <v>0.06692512407189163</v>
+        <v>0.06692512407189162</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,46 +33646,46 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.735298203273289</v>
+        <v>2.735298203273288</v>
       </c>
       <c r="H35" t="n">
         <v>28.01287272427257</v>
       </c>
       <c r="I35" t="n">
-        <v>105.4525839816936</v>
+        <v>105.4525839816935</v>
       </c>
       <c r="J35" t="n">
-        <v>232.1550158800665</v>
+        <v>232.1550158800664</v>
       </c>
       <c r="K35" t="n">
-        <v>347.9401888246248</v>
+        <v>347.9401888246247</v>
       </c>
       <c r="L35" t="n">
-        <v>431.6505712130498</v>
+        <v>431.6505712130497</v>
       </c>
       <c r="M35" t="n">
-        <v>480.2944306355112</v>
+        <v>480.294430635511</v>
       </c>
       <c r="N35" t="n">
-        <v>488.0660966555615</v>
+        <v>488.0660966555613</v>
       </c>
       <c r="O35" t="n">
-        <v>460.8669751467627</v>
+        <v>460.8669751467625</v>
       </c>
       <c r="P35" t="n">
-        <v>393.3393007534533</v>
+        <v>393.3393007534531</v>
       </c>
       <c r="Q35" t="n">
-        <v>295.3814338487285</v>
+        <v>295.3814338487284</v>
       </c>
       <c r="R35" t="n">
-        <v>171.8211757613659</v>
+        <v>171.8211757613658</v>
       </c>
       <c r="S35" t="n">
-        <v>62.33060780709013</v>
+        <v>62.3306078070901</v>
       </c>
       <c r="T35" t="n">
-        <v>11.97376788482883</v>
+        <v>11.97376788482882</v>
       </c>
       <c r="U35" t="n">
         <v>0.218823856261863</v>
@@ -33725,13 +33725,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.463513562251365</v>
+        <v>1.463513562251364</v>
       </c>
       <c r="H36" t="n">
         <v>14.1344599301645</v>
       </c>
       <c r="I36" t="n">
-        <v>50.3885151915492</v>
+        <v>50.38851519154917</v>
       </c>
       <c r="J36" t="n">
         <v>138.2699370370906</v>
@@ -33740,34 +33740,34 @@
         <v>236.325345707932</v>
       </c>
       <c r="L36" t="n">
-        <v>317.768591663394</v>
+        <v>317.7685916633939</v>
       </c>
       <c r="M36" t="n">
-        <v>370.8209582950059</v>
+        <v>370.8209582950058</v>
       </c>
       <c r="N36" t="n">
-        <v>380.6354856488758</v>
+        <v>380.6354856488757</v>
       </c>
       <c r="O36" t="n">
-        <v>348.2071061905693</v>
+        <v>348.2071061905692</v>
       </c>
       <c r="P36" t="n">
-        <v>279.4669011986839</v>
+        <v>279.4669011986838</v>
       </c>
       <c r="Q36" t="n">
         <v>186.8162224375602</v>
       </c>
       <c r="R36" t="n">
-        <v>90.86621924223829</v>
+        <v>90.86621924223826</v>
       </c>
       <c r="S36" t="n">
-        <v>27.18412252690582</v>
+        <v>27.18412252690581</v>
       </c>
       <c r="T36" t="n">
-        <v>5.898986682934227</v>
+        <v>5.898986682934225</v>
       </c>
       <c r="U36" t="n">
-        <v>0.09628378699022141</v>
+        <v>0.09628378699022139</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,16 +33804,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.226960607984679</v>
+        <v>1.226960607984678</v>
       </c>
       <c r="H37" t="n">
         <v>10.90879522371833</v>
       </c>
       <c r="I37" t="n">
-        <v>36.8980517383029</v>
+        <v>36.89805173830288</v>
       </c>
       <c r="J37" t="n">
-        <v>86.74611498451678</v>
+        <v>86.74611498451675</v>
       </c>
       <c r="K37" t="n">
         <v>142.550514273129</v>
@@ -33831,22 +33831,22 @@
         <v>173.4253048449617</v>
       </c>
       <c r="P37" t="n">
-        <v>148.3953084420742</v>
+        <v>148.3953084420741</v>
       </c>
       <c r="Q37" t="n">
-        <v>102.7412196376989</v>
+        <v>102.7412196376988</v>
       </c>
       <c r="R37" t="n">
-        <v>55.16861060992927</v>
+        <v>55.16861060992925</v>
       </c>
       <c r="S37" t="n">
-        <v>21.38257714096935</v>
+        <v>21.38257714096934</v>
       </c>
       <c r="T37" t="n">
-        <v>5.242468052298172</v>
+        <v>5.24246805229817</v>
       </c>
       <c r="U37" t="n">
-        <v>0.06692512407189165</v>
+        <v>0.06692512407189162</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,46 +33883,46 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.735298203273289</v>
+        <v>2.735298203273288</v>
       </c>
       <c r="H38" t="n">
         <v>28.01287272427257</v>
       </c>
       <c r="I38" t="n">
-        <v>105.4525839816936</v>
+        <v>105.4525839816935</v>
       </c>
       <c r="J38" t="n">
-        <v>232.1550158800665</v>
+        <v>232.1550158800664</v>
       </c>
       <c r="K38" t="n">
-        <v>347.9401888246248</v>
+        <v>347.9401888246247</v>
       </c>
       <c r="L38" t="n">
-        <v>431.6505712130498</v>
+        <v>431.6505712130497</v>
       </c>
       <c r="M38" t="n">
-        <v>480.2944306355112</v>
+        <v>480.294430635511</v>
       </c>
       <c r="N38" t="n">
-        <v>488.0660966555615</v>
+        <v>488.0660966555613</v>
       </c>
       <c r="O38" t="n">
-        <v>460.8669751467627</v>
+        <v>460.8669751467625</v>
       </c>
       <c r="P38" t="n">
-        <v>393.3393007534533</v>
+        <v>393.3393007534531</v>
       </c>
       <c r="Q38" t="n">
-        <v>295.3814338487285</v>
+        <v>295.3814338487284</v>
       </c>
       <c r="R38" t="n">
-        <v>171.8211757613659</v>
+        <v>171.8211757613658</v>
       </c>
       <c r="S38" t="n">
-        <v>62.33060780709013</v>
+        <v>62.3306078070901</v>
       </c>
       <c r="T38" t="n">
-        <v>11.97376788482883</v>
+        <v>11.97376788482882</v>
       </c>
       <c r="U38" t="n">
         <v>0.218823856261863</v>
@@ -33962,13 +33962,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.463513562251365</v>
+        <v>1.463513562251364</v>
       </c>
       <c r="H39" t="n">
         <v>14.1344599301645</v>
       </c>
       <c r="I39" t="n">
-        <v>50.3885151915492</v>
+        <v>50.38851519154917</v>
       </c>
       <c r="J39" t="n">
         <v>138.2699370370906</v>
@@ -33977,34 +33977,34 @@
         <v>236.325345707932</v>
       </c>
       <c r="L39" t="n">
-        <v>317.768591663394</v>
+        <v>317.7685916633939</v>
       </c>
       <c r="M39" t="n">
-        <v>370.8209582950059</v>
+        <v>370.8209582950058</v>
       </c>
       <c r="N39" t="n">
-        <v>380.6354856488758</v>
+        <v>380.6354856488757</v>
       </c>
       <c r="O39" t="n">
-        <v>348.2071061905693</v>
+        <v>348.2071061905692</v>
       </c>
       <c r="P39" t="n">
-        <v>279.4669011986839</v>
+        <v>279.4669011986838</v>
       </c>
       <c r="Q39" t="n">
         <v>186.8162224375602</v>
       </c>
       <c r="R39" t="n">
-        <v>90.86621924223829</v>
+        <v>90.86621924223826</v>
       </c>
       <c r="S39" t="n">
-        <v>27.18412252690582</v>
+        <v>27.18412252690581</v>
       </c>
       <c r="T39" t="n">
-        <v>5.898986682934227</v>
+        <v>5.898986682934225</v>
       </c>
       <c r="U39" t="n">
-        <v>0.09628378699022141</v>
+        <v>0.09628378699022139</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,16 +34041,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.226960607984679</v>
+        <v>1.226960607984678</v>
       </c>
       <c r="H40" t="n">
         <v>10.90879522371833</v>
       </c>
       <c r="I40" t="n">
-        <v>36.8980517383029</v>
+        <v>36.89805173830288</v>
       </c>
       <c r="J40" t="n">
-        <v>86.74611498451678</v>
+        <v>86.74611498451675</v>
       </c>
       <c r="K40" t="n">
         <v>142.550514273129</v>
@@ -34068,22 +34068,22 @@
         <v>173.4253048449617</v>
       </c>
       <c r="P40" t="n">
-        <v>148.3953084420742</v>
+        <v>148.3953084420741</v>
       </c>
       <c r="Q40" t="n">
-        <v>102.7412196376989</v>
+        <v>102.7412196376988</v>
       </c>
       <c r="R40" t="n">
-        <v>55.16861060992927</v>
+        <v>55.16861060992925</v>
       </c>
       <c r="S40" t="n">
-        <v>21.38257714096935</v>
+        <v>21.38257714096934</v>
       </c>
       <c r="T40" t="n">
-        <v>5.242468052298172</v>
+        <v>5.24246805229817</v>
       </c>
       <c r="U40" t="n">
-        <v>0.06692512407189165</v>
+        <v>0.06692512407189162</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,46 +34120,46 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.735298203273289</v>
+        <v>2.735298203273288</v>
       </c>
       <c r="H41" t="n">
         <v>28.01287272427257</v>
       </c>
       <c r="I41" t="n">
-        <v>105.4525839816936</v>
+        <v>105.4525839816935</v>
       </c>
       <c r="J41" t="n">
-        <v>232.1550158800665</v>
+        <v>232.1550158800664</v>
       </c>
       <c r="K41" t="n">
-        <v>347.9401888246248</v>
+        <v>347.9401888246247</v>
       </c>
       <c r="L41" t="n">
-        <v>431.6505712130498</v>
+        <v>431.6505712130497</v>
       </c>
       <c r="M41" t="n">
-        <v>480.2944306355112</v>
+        <v>480.294430635511</v>
       </c>
       <c r="N41" t="n">
-        <v>488.0660966555615</v>
+        <v>488.0660966555613</v>
       </c>
       <c r="O41" t="n">
-        <v>460.8669751467627</v>
+        <v>460.8669751467625</v>
       </c>
       <c r="P41" t="n">
-        <v>393.3393007534533</v>
+        <v>393.3393007534531</v>
       </c>
       <c r="Q41" t="n">
-        <v>295.3814338487285</v>
+        <v>295.3814338487284</v>
       </c>
       <c r="R41" t="n">
-        <v>171.8211757613659</v>
+        <v>171.8211757613658</v>
       </c>
       <c r="S41" t="n">
-        <v>62.33060780709013</v>
+        <v>62.3306078070901</v>
       </c>
       <c r="T41" t="n">
-        <v>11.97376788482883</v>
+        <v>11.97376788482882</v>
       </c>
       <c r="U41" t="n">
         <v>0.218823856261863</v>
@@ -34199,13 +34199,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.463513562251365</v>
+        <v>1.463513562251364</v>
       </c>
       <c r="H42" t="n">
         <v>14.1344599301645</v>
       </c>
       <c r="I42" t="n">
-        <v>50.3885151915492</v>
+        <v>50.38851519154917</v>
       </c>
       <c r="J42" t="n">
         <v>138.2699370370906</v>
@@ -34214,34 +34214,34 @@
         <v>236.325345707932</v>
       </c>
       <c r="L42" t="n">
-        <v>317.768591663394</v>
+        <v>317.7685916633939</v>
       </c>
       <c r="M42" t="n">
-        <v>370.8209582950059</v>
+        <v>370.8209582950058</v>
       </c>
       <c r="N42" t="n">
-        <v>380.6354856488758</v>
+        <v>380.6354856488757</v>
       </c>
       <c r="O42" t="n">
-        <v>348.2071061905693</v>
+        <v>348.2071061905692</v>
       </c>
       <c r="P42" t="n">
-        <v>279.4669011986839</v>
+        <v>279.4669011986838</v>
       </c>
       <c r="Q42" t="n">
         <v>186.8162224375602</v>
       </c>
       <c r="R42" t="n">
-        <v>90.86621924223829</v>
+        <v>90.86621924223826</v>
       </c>
       <c r="S42" t="n">
-        <v>27.18412252690582</v>
+        <v>27.18412252690581</v>
       </c>
       <c r="T42" t="n">
-        <v>5.898986682934227</v>
+        <v>5.898986682934225</v>
       </c>
       <c r="U42" t="n">
-        <v>0.09628378699022141</v>
+        <v>0.09628378699022139</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,16 +34278,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.226960607984679</v>
+        <v>1.226960607984678</v>
       </c>
       <c r="H43" t="n">
         <v>10.90879522371833</v>
       </c>
       <c r="I43" t="n">
-        <v>36.8980517383029</v>
+        <v>36.89805173830288</v>
       </c>
       <c r="J43" t="n">
-        <v>86.74611498451678</v>
+        <v>86.74611498451675</v>
       </c>
       <c r="K43" t="n">
         <v>142.550514273129</v>
@@ -34305,22 +34305,22 @@
         <v>173.4253048449617</v>
       </c>
       <c r="P43" t="n">
-        <v>148.3953084420742</v>
+        <v>148.3953084420741</v>
       </c>
       <c r="Q43" t="n">
-        <v>102.7412196376989</v>
+        <v>102.7412196376988</v>
       </c>
       <c r="R43" t="n">
-        <v>55.16861060992927</v>
+        <v>55.16861060992925</v>
       </c>
       <c r="S43" t="n">
-        <v>21.38257714096935</v>
+        <v>21.38257714096934</v>
       </c>
       <c r="T43" t="n">
-        <v>5.242468052298172</v>
+        <v>5.24246805229817</v>
       </c>
       <c r="U43" t="n">
-        <v>0.06692512407189165</v>
+        <v>0.06692512407189162</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.735298203273289</v>
+        <v>2.735298203273287</v>
       </c>
       <c r="H44" t="n">
-        <v>28.01287272427257</v>
+        <v>28.01287272427255</v>
       </c>
       <c r="I44" t="n">
-        <v>105.4525839816936</v>
+        <v>105.4525839816935</v>
       </c>
       <c r="J44" t="n">
-        <v>232.1550158800665</v>
+        <v>232.1550158800663</v>
       </c>
       <c r="K44" t="n">
-        <v>347.9401888246248</v>
+        <v>347.9401888246246</v>
       </c>
       <c r="L44" t="n">
-        <v>431.6505712130498</v>
+        <v>431.6505712130495</v>
       </c>
       <c r="M44" t="n">
-        <v>480.2944306355112</v>
+        <v>480.2944306355109</v>
       </c>
       <c r="N44" t="n">
-        <v>488.0660966555615</v>
+        <v>488.0660966555611</v>
       </c>
       <c r="O44" t="n">
-        <v>460.8669751467627</v>
+        <v>460.8669751467623</v>
       </c>
       <c r="P44" t="n">
-        <v>393.3393007534533</v>
+        <v>393.339300753453</v>
       </c>
       <c r="Q44" t="n">
-        <v>295.3814338487285</v>
+        <v>295.3814338487284</v>
       </c>
       <c r="R44" t="n">
-        <v>171.8211757613659</v>
+        <v>171.8211757613657</v>
       </c>
       <c r="S44" t="n">
-        <v>62.33060780709013</v>
+        <v>62.33060780709008</v>
       </c>
       <c r="T44" t="n">
-        <v>11.97376788482883</v>
+        <v>11.97376788482882</v>
       </c>
       <c r="U44" t="n">
-        <v>0.218823856261863</v>
+        <v>0.2188238562618629</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.463513562251365</v>
+        <v>1.463513562251364</v>
       </c>
       <c r="H45" t="n">
-        <v>14.1344599301645</v>
+        <v>14.13445993016449</v>
       </c>
       <c r="I45" t="n">
-        <v>50.3885151915492</v>
+        <v>50.38851519154916</v>
       </c>
       <c r="J45" t="n">
-        <v>138.2699370370906</v>
+        <v>138.2699370370905</v>
       </c>
       <c r="K45" t="n">
-        <v>236.325345707932</v>
+        <v>236.3253457079319</v>
       </c>
       <c r="L45" t="n">
-        <v>317.768591663394</v>
+        <v>317.7685916633937</v>
       </c>
       <c r="M45" t="n">
-        <v>370.8209582950059</v>
+        <v>370.8209582950056</v>
       </c>
       <c r="N45" t="n">
-        <v>380.6354856488758</v>
+        <v>380.6354856488756</v>
       </c>
       <c r="O45" t="n">
-        <v>348.2071061905693</v>
+        <v>348.207106190569</v>
       </c>
       <c r="P45" t="n">
-        <v>279.4669011986839</v>
+        <v>279.4669011986837</v>
       </c>
       <c r="Q45" t="n">
-        <v>186.8162224375602</v>
+        <v>186.8162224375601</v>
       </c>
       <c r="R45" t="n">
-        <v>90.86621924223829</v>
+        <v>90.86621924223823</v>
       </c>
       <c r="S45" t="n">
-        <v>27.18412252690582</v>
+        <v>27.1841225269058</v>
       </c>
       <c r="T45" t="n">
-        <v>5.898986682934227</v>
+        <v>5.898986682934224</v>
       </c>
       <c r="U45" t="n">
-        <v>0.09628378699022141</v>
+        <v>0.09628378699022135</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.226960607984679</v>
+        <v>1.226960607984678</v>
       </c>
       <c r="H46" t="n">
         <v>10.90879522371833</v>
       </c>
       <c r="I46" t="n">
-        <v>36.8980517383029</v>
+        <v>36.89805173830288</v>
       </c>
       <c r="J46" t="n">
-        <v>86.74611498451678</v>
+        <v>86.74611498451672</v>
       </c>
       <c r="K46" t="n">
-        <v>142.550514273129</v>
+        <v>142.5505142731289</v>
       </c>
       <c r="L46" t="n">
-        <v>182.4155798452858</v>
+        <v>182.4155798452857</v>
       </c>
       <c r="M46" t="n">
-        <v>192.331652395271</v>
+        <v>192.3316523952709</v>
       </c>
       <c r="N46" t="n">
-        <v>187.7584355836919</v>
+        <v>187.7584355836918</v>
       </c>
       <c r="O46" t="n">
-        <v>173.4253048449617</v>
+        <v>173.4253048449616</v>
       </c>
       <c r="P46" t="n">
-        <v>148.3953084420742</v>
+        <v>148.3953084420741</v>
       </c>
       <c r="Q46" t="n">
-        <v>102.7412196376989</v>
+        <v>102.7412196376988</v>
       </c>
       <c r="R46" t="n">
-        <v>55.16861060992927</v>
+        <v>55.16861060992923</v>
       </c>
       <c r="S46" t="n">
-        <v>21.38257714096935</v>
+        <v>21.38257714096934</v>
       </c>
       <c r="T46" t="n">
-        <v>5.242468052298172</v>
+        <v>5.242468052298168</v>
       </c>
       <c r="U46" t="n">
-        <v>0.06692512407189165</v>
+        <v>0.06692512407189161</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>220.2057265254539</v>
+        <v>51.10911135338011</v>
       </c>
       <c r="K11" t="n">
         <v>127.8503377796442</v>
       </c>
       <c r="L11" t="n">
-        <v>195.8841562430625</v>
+        <v>613.5453707935129</v>
       </c>
       <c r="M11" t="n">
-        <v>365.1955139050164</v>
+        <v>652.505385926381</v>
       </c>
       <c r="N11" t="n">
-        <v>652.5053859263809</v>
+        <v>652.505385926381</v>
       </c>
       <c r="O11" t="n">
         <v>230.7687637250758</v>
       </c>
       <c r="P11" t="n">
-        <v>483.9050131696663</v>
+        <v>182.2975902500468</v>
       </c>
       <c r="Q11" t="n">
-        <v>285.3907346341837</v>
+        <v>73.07574397427894</v>
       </c>
       <c r="R11" t="n">
-        <v>21.95205782021614</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>11.43231037042389</v>
+        <v>137.5233457108327</v>
       </c>
       <c r="K12" t="n">
-        <v>223.8499446982342</v>
+        <v>362.9491437461515</v>
       </c>
       <c r="L12" t="n">
         <v>550.0545571869789</v>
       </c>
       <c r="M12" t="n">
-        <v>228.6869243729875</v>
+        <v>228.6869243729874</v>
       </c>
       <c r="N12" t="n">
-        <v>249.2937735655425</v>
+        <v>249.2937735655424</v>
       </c>
       <c r="O12" t="n">
-        <v>599.4731810228543</v>
+        <v>334.2829466345287</v>
       </c>
       <c r="P12" t="n">
         <v>463.9552624242908</v>
       </c>
       <c r="Q12" t="n">
-        <v>256.9117360873878</v>
+        <v>256.9117360873877</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>57.64910510446281</v>
+        <v>57.64910510446276</v>
       </c>
       <c r="K13" t="n">
-        <v>184.543192683865</v>
+        <v>184.5431926838649</v>
       </c>
       <c r="L13" t="n">
-        <v>274.2677753422208</v>
+        <v>274.2677753422207</v>
       </c>
       <c r="M13" t="n">
-        <v>296.1776995937304</v>
+        <v>296.1776995937303</v>
       </c>
       <c r="N13" t="n">
-        <v>296.1527781995393</v>
+        <v>296.1527781995392</v>
       </c>
       <c r="O13" t="n">
         <v>262.2726029956202</v>
       </c>
       <c r="P13" t="n">
-        <v>209.9360379435865</v>
+        <v>209.9360379435864</v>
       </c>
       <c r="Q13" t="n">
-        <v>80.84134662262329</v>
+        <v>80.84134662262325</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,25 +35647,25 @@
         <v>220.2057265254539</v>
       </c>
       <c r="K14" t="n">
-        <v>451.995750350809</v>
+        <v>451.9957503508089</v>
       </c>
       <c r="L14" t="n">
         <v>195.8841562430625</v>
       </c>
       <c r="M14" t="n">
-        <v>249.9481974082384</v>
+        <v>249.9481974082383</v>
       </c>
       <c r="N14" t="n">
         <v>258.6530330589704</v>
       </c>
       <c r="O14" t="n">
-        <v>437.6750783383159</v>
+        <v>437.6750783383168</v>
       </c>
       <c r="P14" t="n">
-        <v>483.9050131696663</v>
+        <v>483.9050131696662</v>
       </c>
       <c r="Q14" t="n">
-        <v>285.3907346341837</v>
+        <v>285.3907346341836</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>137.5233457108327</v>
       </c>
       <c r="K15" t="n">
-        <v>362.9491437461516</v>
+        <v>362.9491437461515</v>
       </c>
       <c r="L15" t="n">
-        <v>550.0545571869789</v>
+        <v>494.9416105345028</v>
       </c>
       <c r="M15" t="n">
-        <v>357.3590092613907</v>
+        <v>228.6869243729874</v>
       </c>
       <c r="N15" t="n">
-        <v>249.2937735655425</v>
+        <v>249.2937735655424</v>
       </c>
       <c r="O15" t="n">
-        <v>205.6108617461248</v>
+        <v>599.4731810228543</v>
       </c>
       <c r="P15" t="n">
         <v>463.9552624242908</v>
       </c>
       <c r="Q15" t="n">
-        <v>256.9117360873878</v>
+        <v>46.83444835153864</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>57.64910510446281</v>
+        <v>57.64910510446271</v>
       </c>
       <c r="K16" t="n">
-        <v>184.543192683865</v>
+        <v>184.5431926838648</v>
       </c>
       <c r="L16" t="n">
-        <v>274.2677753422208</v>
+        <v>274.2677753422207</v>
       </c>
       <c r="M16" t="n">
-        <v>296.1776995937304</v>
+        <v>296.1776995937303</v>
       </c>
       <c r="N16" t="n">
-        <v>296.1527781995393</v>
+        <v>296.1527781995392</v>
       </c>
       <c r="O16" t="n">
-        <v>262.2726029956202</v>
+        <v>262.2726029956201</v>
       </c>
       <c r="P16" t="n">
-        <v>209.9360379435865</v>
+        <v>209.9360379435864</v>
       </c>
       <c r="Q16" t="n">
-        <v>80.84134662262329</v>
+        <v>80.84134662262319</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,28 +35884,28 @@
         <v>220.2057265254539</v>
       </c>
       <c r="K17" t="n">
-        <v>451.995750350809</v>
+        <v>127.8503377796442</v>
       </c>
       <c r="L17" t="n">
         <v>195.8841562430625</v>
       </c>
       <c r="M17" t="n">
-        <v>249.9481974082384</v>
+        <v>652.505385926381</v>
       </c>
       <c r="N17" t="n">
-        <v>258.6530330589704</v>
+        <v>652.505385926381</v>
       </c>
       <c r="O17" t="n">
-        <v>415.7230205181</v>
+        <v>230.7687637250758</v>
       </c>
       <c r="P17" t="n">
-        <v>483.9050131696663</v>
+        <v>218.5471989685185</v>
       </c>
       <c r="Q17" t="n">
-        <v>285.3907346341837</v>
+        <v>285.3907346341836</v>
       </c>
       <c r="R17" t="n">
-        <v>21.95205782021614</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>11.43231037042389</v>
+        <v>137.5233457108327</v>
       </c>
       <c r="K18" t="n">
-        <v>98.48390673357301</v>
+        <v>353.89426866372</v>
       </c>
       <c r="L18" t="n">
-        <v>550.0545571869789</v>
+        <v>179.2142118835197</v>
       </c>
       <c r="M18" t="n">
         <v>652.505385926381</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3814063525971</v>
+        <v>652.505385926381</v>
       </c>
       <c r="O18" t="n">
-        <v>599.4731810228543</v>
+        <v>205.6108617461247</v>
       </c>
       <c r="P18" t="n">
         <v>145.4924937843536</v>
       </c>
       <c r="Q18" t="n">
-        <v>46.83444835153867</v>
+        <v>256.9117360873877</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36057,10 +36057,10 @@
         <v>198.0104327590014</v>
       </c>
       <c r="P19" t="n">
-        <v>145.6738677069677</v>
+        <v>145.6738677069676</v>
       </c>
       <c r="Q19" t="n">
-        <v>16.57917638600448</v>
+        <v>16.57917638600446</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>220.2057265254539</v>
+        <v>51.10911135338011</v>
       </c>
       <c r="K20" t="n">
-        <v>451.995750350809</v>
+        <v>127.8503377796442</v>
       </c>
       <c r="L20" t="n">
-        <v>195.8841562430625</v>
+        <v>613.5453707935129</v>
       </c>
       <c r="M20" t="n">
-        <v>434.9024542012621</v>
+        <v>249.9481974082383</v>
       </c>
       <c r="N20" t="n">
-        <v>258.6530330589704</v>
+        <v>652.505385926381</v>
       </c>
       <c r="O20" t="n">
-        <v>230.7687637250758</v>
+        <v>611.5689449878212</v>
       </c>
       <c r="P20" t="n">
-        <v>483.9050131696663</v>
+        <v>204.0545975054441</v>
       </c>
       <c r="Q20" t="n">
-        <v>285.3907346341837</v>
+        <v>73.07574397427894</v>
       </c>
       <c r="R20" t="n">
-        <v>21.95205782021614</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>137.5233457108327</v>
       </c>
       <c r="K21" t="n">
-        <v>362.9491437461516</v>
+        <v>362.9491437461515</v>
       </c>
       <c r="L21" t="n">
-        <v>550.0545571869789</v>
+        <v>179.2142118835197</v>
       </c>
       <c r="M21" t="n">
-        <v>228.6869243729875</v>
+        <v>652.505385926381</v>
       </c>
       <c r="N21" t="n">
-        <v>249.2937735655425</v>
+        <v>249.2937735655424</v>
       </c>
       <c r="O21" t="n">
-        <v>334.282946634528</v>
+        <v>599.4731810228543</v>
       </c>
       <c r="P21" t="n">
-        <v>463.9552624242908</v>
+        <v>145.7869117860309</v>
       </c>
       <c r="Q21" t="n">
-        <v>256.9117360873878</v>
+        <v>256.9117360873877</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36294,10 +36294,10 @@
         <v>198.0104327590014</v>
       </c>
       <c r="P22" t="n">
-        <v>145.6738677069677</v>
+        <v>145.6738677069676</v>
       </c>
       <c r="Q22" t="n">
-        <v>16.57917638600448</v>
+        <v>16.57917638600446</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,28 +36355,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>51.10911135338017</v>
+        <v>220.2057265254539</v>
       </c>
       <c r="K23" t="n">
-        <v>451.995750350809</v>
+        <v>451.9957503508089</v>
       </c>
       <c r="L23" t="n">
-        <v>613.545370793513</v>
+        <v>195.8841562430625</v>
       </c>
       <c r="M23" t="n">
-        <v>678.3794966932127</v>
+        <v>559.305536471964</v>
       </c>
       <c r="N23" t="n">
         <v>258.6530330589704</v>
       </c>
       <c r="O23" t="n">
-        <v>397.2439029568378</v>
+        <v>230.7687637250758</v>
       </c>
       <c r="P23" t="n">
-        <v>162.1063049981837</v>
+        <v>483.9050131696662</v>
       </c>
       <c r="Q23" t="n">
-        <v>73.07574397427899</v>
+        <v>285.3907346341836</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>11.43231037042389</v>
+        <v>137.5233457108327</v>
       </c>
       <c r="K24" t="n">
-        <v>362.9491437461516</v>
+        <v>362.9491437461515</v>
       </c>
       <c r="L24" t="n">
-        <v>550.0545571869789</v>
+        <v>284.8643227986534</v>
       </c>
       <c r="M24" t="n">
-        <v>228.6869243729875</v>
+        <v>228.6869243729874</v>
       </c>
       <c r="N24" t="n">
-        <v>249.2937735655425</v>
+        <v>249.2937735655424</v>
       </c>
       <c r="O24" t="n">
         <v>599.4731810228543</v>
@@ -36455,7 +36455,7 @@
         <v>463.9552624242908</v>
       </c>
       <c r="Q24" t="n">
-        <v>117.8125370394709</v>
+        <v>256.9117360873877</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36531,10 +36531,10 @@
         <v>198.0104327590014</v>
       </c>
       <c r="P25" t="n">
-        <v>145.6738677069677</v>
+        <v>145.6738677069676</v>
       </c>
       <c r="Q25" t="n">
-        <v>16.57917638600448</v>
+        <v>16.57917638600446</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>220.2057265254539</v>
       </c>
       <c r="K26" t="n">
-        <v>451.9957503508089</v>
+        <v>127.8503377796442</v>
       </c>
       <c r="L26" t="n">
         <v>613.5453707935129</v>
       </c>
       <c r="M26" t="n">
-        <v>249.9481974082383</v>
+        <v>699.4617309010707</v>
       </c>
       <c r="N26" t="n">
         <v>695.9999574709545</v>
@@ -36610,13 +36610,13 @@
         <v>611.5689449878212</v>
       </c>
       <c r="P26" t="n">
-        <v>483.9050131696662</v>
+        <v>375.18289682374</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.084681389708</v>
+        <v>285.3907346341836</v>
       </c>
       <c r="R26" t="n">
-        <v>21.95205782021611</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>11.43231037042386</v>
+        <v>137.5233457108327</v>
       </c>
       <c r="K27" t="n">
         <v>362.9491437461515</v>
       </c>
       <c r="L27" t="n">
-        <v>550.0545571869789</v>
+        <v>199.3842677318297</v>
       </c>
       <c r="M27" t="n">
         <v>228.6869243729874</v>
       </c>
       <c r="N27" t="n">
-        <v>249.2937735655424</v>
+        <v>728.6361479090959</v>
       </c>
       <c r="O27" t="n">
-        <v>599.4731810228543</v>
+        <v>205.6108617461247</v>
       </c>
       <c r="P27" t="n">
         <v>463.9552624242908</v>
       </c>
       <c r="Q27" t="n">
-        <v>117.8125370394718</v>
+        <v>256.9117360873877</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>73.75126804819544</v>
+        <v>73.7512680481954</v>
       </c>
       <c r="K28" t="n">
-        <v>200.6453556275976</v>
+        <v>200.6453556275975</v>
       </c>
       <c r="L28" t="n">
         <v>290.3699382859534</v>
@@ -36771,7 +36771,7 @@
         <v>226.0382008873191</v>
       </c>
       <c r="Q28" t="n">
-        <v>96.94350956635593</v>
+        <v>96.94350956635589</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,16 +36829,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>51.10911135338017</v>
+        <v>220.2057265254539</v>
       </c>
       <c r="K29" t="n">
-        <v>188.2248366057907</v>
+        <v>451.9957503508089</v>
       </c>
       <c r="L29" t="n">
-        <v>613.545370793513</v>
+        <v>613.5453707935129</v>
       </c>
       <c r="M29" t="n">
-        <v>699.4617309010708</v>
+        <v>266.594201983979</v>
       </c>
       <c r="N29" t="n">
         <v>695.9999574709545</v>
@@ -36847,10 +36847,10 @@
         <v>611.5689449878212</v>
       </c>
       <c r="P29" t="n">
-        <v>483.9050131696663</v>
+        <v>483.9050131696662</v>
       </c>
       <c r="Q29" t="n">
-        <v>285.3907346341837</v>
+        <v>285.3907346341836</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>11.43231037042389</v>
+        <v>137.5233457108327</v>
       </c>
       <c r="K30" t="n">
-        <v>362.9491437461516</v>
+        <v>362.9491437461515</v>
       </c>
       <c r="L30" t="n">
-        <v>179.2142118835197</v>
+        <v>550.0545571869789</v>
       </c>
       <c r="M30" t="n">
-        <v>694.3919881229874</v>
+        <v>357.3590092613919</v>
       </c>
       <c r="N30" t="n">
-        <v>728.6361479090961</v>
+        <v>249.2937735655424</v>
       </c>
       <c r="O30" t="n">
-        <v>205.6108617461248</v>
+        <v>205.6108617461247</v>
       </c>
       <c r="P30" t="n">
-        <v>145.4924937843536</v>
+        <v>463.9552624242908</v>
       </c>
       <c r="Q30" t="n">
-        <v>255.9305321660437</v>
+        <v>256.9117360873877</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>73.75126804819543</v>
+        <v>73.75126804819544</v>
       </c>
       <c r="K31" t="n">
         <v>200.6453556275976</v>
@@ -37008,7 +37008,7 @@
         <v>226.0382008873191</v>
       </c>
       <c r="Q31" t="n">
-        <v>96.94350956635591</v>
+        <v>96.94350956635593</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,16 +37066,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>220.2057265254539</v>
+        <v>51.10911135338011</v>
       </c>
       <c r="K32" t="n">
-        <v>231.4432120936217</v>
+        <v>400.5398272656959</v>
       </c>
       <c r="L32" t="n">
-        <v>613.545370793513</v>
+        <v>613.5453707935129</v>
       </c>
       <c r="M32" t="n">
-        <v>699.4617309010708</v>
+        <v>699.4617309010707</v>
       </c>
       <c r="N32" t="n">
         <v>695.9999574709545</v>
@@ -37084,10 +37084,10 @@
         <v>611.5689449878212</v>
       </c>
       <c r="P32" t="n">
-        <v>483.9050131696663</v>
+        <v>483.9050131696662</v>
       </c>
       <c r="Q32" t="n">
-        <v>73.07574397427899</v>
+        <v>73.07574397427894</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37148,25 +37148,25 @@
         <v>137.5233457108327</v>
       </c>
       <c r="K33" t="n">
-        <v>362.9491437461516</v>
+        <v>362.9491437461515</v>
       </c>
       <c r="L33" t="n">
         <v>550.0545571869789</v>
       </c>
       <c r="M33" t="n">
-        <v>228.6869243729875</v>
+        <v>228.6869243729874</v>
       </c>
       <c r="N33" t="n">
-        <v>249.2937735655425</v>
+        <v>249.2937735655424</v>
       </c>
       <c r="O33" t="n">
-        <v>334.2829466345287</v>
+        <v>334.2829466345291</v>
       </c>
       <c r="P33" t="n">
         <v>463.9552624242908</v>
       </c>
       <c r="Q33" t="n">
-        <v>256.9117360873878</v>
+        <v>256.9117360873877</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>73.75126804819544</v>
+        <v>73.75126804819539</v>
       </c>
       <c r="K34" t="n">
-        <v>200.6453556275976</v>
+        <v>200.6453556275975</v>
       </c>
       <c r="L34" t="n">
-        <v>290.3699382859534</v>
+        <v>290.3699382859533</v>
       </c>
       <c r="M34" t="n">
         <v>312.279862537463</v>
@@ -37239,13 +37239,13 @@
         <v>312.2549411432719</v>
       </c>
       <c r="O34" t="n">
-        <v>278.3747659393529</v>
+        <v>278.3747659393528</v>
       </c>
       <c r="P34" t="n">
-        <v>226.0382008873191</v>
+        <v>226.038200887319</v>
       </c>
       <c r="Q34" t="n">
-        <v>96.94350956635593</v>
+        <v>96.94350956635587</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>51.1091113533802</v>
+        <v>220.2057265254539</v>
       </c>
       <c r="K35" t="n">
-        <v>451.995750350809</v>
+        <v>451.9957503508089</v>
       </c>
       <c r="L35" t="n">
-        <v>613.545370793513</v>
+        <v>613.5453707935129</v>
       </c>
       <c r="M35" t="n">
-        <v>699.461730901071</v>
+        <v>249.9481974082383</v>
       </c>
       <c r="N35" t="n">
-        <v>695.9999574709548</v>
+        <v>690.693904226479</v>
       </c>
       <c r="O35" t="n">
-        <v>611.5689449878213</v>
+        <v>611.5689449878212</v>
       </c>
       <c r="P35" t="n">
-        <v>432.4490900845504</v>
+        <v>483.9050131696662</v>
       </c>
       <c r="Q35" t="n">
-        <v>73.07574397427905</v>
+        <v>285.3907346341836</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>21.95205782021611</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>11.43231037042392</v>
+        <v>137.5233457108327</v>
       </c>
       <c r="K36" t="n">
-        <v>98.48390673357304</v>
+        <v>362.9491437461515</v>
       </c>
       <c r="L36" t="n">
-        <v>179.2142118835198</v>
+        <v>179.2142118835197</v>
       </c>
       <c r="M36" t="n">
-        <v>694.3919881229874</v>
+        <v>228.6869243729874</v>
       </c>
       <c r="N36" t="n">
-        <v>728.6361479090961</v>
+        <v>354.9438844806764</v>
       </c>
       <c r="O36" t="n">
         <v>599.4731810228543</v>
       </c>
       <c r="P36" t="n">
-        <v>225.1914953347075</v>
+        <v>463.9552624242908</v>
       </c>
       <c r="Q36" t="n">
-        <v>46.8344483515387</v>
+        <v>256.9117360873877</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37476,13 +37476,13 @@
         <v>312.2549411432719</v>
       </c>
       <c r="O37" t="n">
-        <v>278.3747659393529</v>
+        <v>278.3747659393528</v>
       </c>
       <c r="P37" t="n">
         <v>226.0382008873191</v>
       </c>
       <c r="Q37" t="n">
-        <v>96.94350956635594</v>
+        <v>96.94350956635523</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,28 +37540,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>220.205726525454</v>
+        <v>51.10911135338011</v>
       </c>
       <c r="K38" t="n">
-        <v>451.995750350809</v>
+        <v>451.9957503508089</v>
       </c>
       <c r="L38" t="n">
-        <v>613.545370793513</v>
+        <v>613.5453707935129</v>
       </c>
       <c r="M38" t="n">
-        <v>699.461730901071</v>
+        <v>648.0058078159575</v>
       </c>
       <c r="N38" t="n">
-        <v>695.9999574709548</v>
+        <v>695.9999574709545</v>
       </c>
       <c r="O38" t="n">
-        <v>611.5689449878213</v>
+        <v>611.5689449878212</v>
       </c>
       <c r="P38" t="n">
-        <v>263.3524749124768</v>
+        <v>483.9050131696662</v>
       </c>
       <c r="Q38" t="n">
-        <v>73.07574397427905</v>
+        <v>73.07574397427894</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>11.43231037042392</v>
+        <v>137.5233457108327</v>
       </c>
       <c r="K39" t="n">
-        <v>98.48390673357304</v>
+        <v>362.9491437461515</v>
       </c>
       <c r="L39" t="n">
-        <v>550.054557186979</v>
+        <v>550.0545571869789</v>
       </c>
       <c r="M39" t="n">
-        <v>694.3919881229874</v>
+        <v>357.3590092613919</v>
       </c>
       <c r="N39" t="n">
-        <v>249.2937735655425</v>
+        <v>249.2937735655424</v>
       </c>
       <c r="O39" t="n">
-        <v>599.4731810228543</v>
+        <v>205.6108617461247</v>
       </c>
       <c r="P39" t="n">
-        <v>333.6935243748017</v>
+        <v>463.9552624242908</v>
       </c>
       <c r="Q39" t="n">
-        <v>46.8344483515387</v>
+        <v>256.9117360873877</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>73.75126804819544</v>
+        <v>73.75126804819539</v>
       </c>
       <c r="K40" t="n">
-        <v>200.6453556275976</v>
+        <v>200.6453556275975</v>
       </c>
       <c r="L40" t="n">
-        <v>290.3699382859534</v>
+        <v>290.3699382859533</v>
       </c>
       <c r="M40" t="n">
         <v>312.279862537463</v>
       </c>
       <c r="N40" t="n">
-        <v>312.2549411432719</v>
+        <v>312.2549411432726</v>
       </c>
       <c r="O40" t="n">
-        <v>278.3747659393522</v>
+        <v>278.3747659393528</v>
       </c>
       <c r="P40" t="n">
-        <v>226.0382008873191</v>
+        <v>226.038200887319</v>
       </c>
       <c r="Q40" t="n">
-        <v>96.94350956635594</v>
+        <v>96.94350956635587</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,28 +37777,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>51.1091113533802</v>
+        <v>51.10911135338011</v>
       </c>
       <c r="K41" t="n">
-        <v>400.539827265694</v>
+        <v>451.9957503508089</v>
       </c>
       <c r="L41" t="n">
-        <v>613.545370793513</v>
+        <v>613.5453707935129</v>
       </c>
       <c r="M41" t="n">
-        <v>699.461730901071</v>
+        <v>699.4617309010707</v>
       </c>
       <c r="N41" t="n">
-        <v>695.9999574709548</v>
+        <v>695.9999574709545</v>
       </c>
       <c r="O41" t="n">
-        <v>611.5689449878213</v>
+        <v>611.5689449878212</v>
       </c>
       <c r="P41" t="n">
-        <v>483.9050131696664</v>
+        <v>432.4490900845528</v>
       </c>
       <c r="Q41" t="n">
-        <v>73.07574397427905</v>
+        <v>73.07574397427894</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>137.5233457108328</v>
+        <v>137.5233457108327</v>
       </c>
       <c r="K42" t="n">
-        <v>362.9491437461517</v>
+        <v>362.9491437461515</v>
       </c>
       <c r="L42" t="n">
-        <v>550.054557186979</v>
+        <v>213.0215783253832</v>
       </c>
       <c r="M42" t="n">
-        <v>228.6869243729876</v>
+        <v>694.3919881229874</v>
       </c>
       <c r="N42" t="n">
-        <v>249.2937735655425</v>
+        <v>249.2937735655424</v>
       </c>
       <c r="O42" t="n">
-        <v>334.2829466345285</v>
+        <v>205.6108617461247</v>
       </c>
       <c r="P42" t="n">
         <v>463.9552624242908</v>
       </c>
       <c r="Q42" t="n">
-        <v>256.9117360873878</v>
+        <v>256.9117360873877</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>73.7512680481955</v>
+        <v>73.75126804819544</v>
       </c>
       <c r="K43" t="n">
-        <v>200.6453556275977</v>
+        <v>200.6453556275976</v>
       </c>
       <c r="L43" t="n">
-        <v>290.3699382859535</v>
+        <v>290.3699382859534</v>
       </c>
       <c r="M43" t="n">
-        <v>312.2798625374631</v>
+        <v>312.279862537463</v>
       </c>
       <c r="N43" t="n">
-        <v>312.254941143272</v>
+        <v>312.2549411432719</v>
       </c>
       <c r="O43" t="n">
-        <v>278.3747659393529</v>
+        <v>278.3747659393528</v>
       </c>
       <c r="P43" t="n">
-        <v>226.0382008873192</v>
+        <v>226.038200887318</v>
       </c>
       <c r="Q43" t="n">
-        <v>96.94350956635408</v>
+        <v>96.94350956635593</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,28 +38014,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>220.205726525454</v>
+        <v>51.10911135338006</v>
       </c>
       <c r="K44" t="n">
-        <v>451.995750350809</v>
+        <v>451.9957503508088</v>
       </c>
       <c r="L44" t="n">
-        <v>613.545370793513</v>
+        <v>613.5453707935128</v>
       </c>
       <c r="M44" t="n">
-        <v>699.461730901071</v>
+        <v>699.4617309010706</v>
       </c>
       <c r="N44" t="n">
-        <v>584.9311367253442</v>
+        <v>695.9999574709543</v>
       </c>
       <c r="O44" t="n">
-        <v>611.5689449878213</v>
+        <v>611.5689449878209</v>
       </c>
       <c r="P44" t="n">
-        <v>162.1063049981838</v>
+        <v>432.4490900845537</v>
       </c>
       <c r="Q44" t="n">
-        <v>285.3907346341837</v>
+        <v>73.07574397427888</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>11.43231037042392</v>
+        <v>137.5233457108326</v>
       </c>
       <c r="K45" t="n">
-        <v>98.48390673357304</v>
+        <v>362.9491437461515</v>
       </c>
       <c r="L45" t="n">
-        <v>550.054557186979</v>
+        <v>550.0545571869787</v>
       </c>
       <c r="M45" t="n">
-        <v>694.3919881229874</v>
+        <v>228.6869243729873</v>
       </c>
       <c r="N45" t="n">
-        <v>728.6361479090961</v>
+        <v>249.2937735655423</v>
       </c>
       <c r="O45" t="n">
-        <v>205.6108617461248</v>
+        <v>334.28294663453</v>
       </c>
       <c r="P45" t="n">
-        <v>248.2134693079778</v>
+        <v>463.9552624242907</v>
       </c>
       <c r="Q45" t="n">
-        <v>46.8344483515387</v>
+        <v>256.9117360873877</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>73.7512680481955</v>
+        <v>73.75126804819543</v>
       </c>
       <c r="K46" t="n">
-        <v>200.6453556275959</v>
+        <v>200.6453556275976</v>
       </c>
       <c r="L46" t="n">
-        <v>290.3699382859535</v>
+        <v>290.3699382859533</v>
       </c>
       <c r="M46" t="n">
-        <v>312.2798625374631</v>
+        <v>312.279862537463</v>
       </c>
       <c r="N46" t="n">
-        <v>312.254941143272</v>
+        <v>312.2549411432719</v>
       </c>
       <c r="O46" t="n">
-        <v>278.3747659393529</v>
+        <v>278.3747659393528</v>
       </c>
       <c r="P46" t="n">
-        <v>226.0382008873192</v>
+        <v>226.0382008873191</v>
       </c>
       <c r="Q46" t="n">
-        <v>96.943509566356</v>
+        <v>96.94350956635591</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
